--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9107B5A-2DD3-4DCE-96AE-CAEB1C43C3EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C29D25-BD40-4F67-BA68-00FAB12EB7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Plant</t>
   </si>
@@ -87,16 +87,96 @@
   </si>
   <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>Level 6</t>
+  </si>
+  <si>
+    <t>Level 0</t>
+  </si>
+  <si>
+    <t>roseberry</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>bamboo</t>
+  </si>
+  <si>
+    <t>berry_bush</t>
+  </si>
+  <si>
+    <t>kitty</t>
+  </si>
+  <si>
+    <t>marijuana</t>
+  </si>
+  <si>
+    <t>pink_daisy</t>
+  </si>
+  <si>
+    <t>blue_daisy</t>
+  </si>
+  <si>
+    <t>cactus</t>
+  </si>
+  <si>
+    <t>eggplant</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>pumpkin</t>
+  </si>
+  <si>
+    <t>bonsai</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>sunflower</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,9 +202,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B506C8A2-CFE7-48E4-9F0A-C9D1E39EA76C}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,44 +535,66 @@
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -526,8 +629,29 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -564,9 +688,26 @@
         <f t="shared" ref="J3:J8" si="5">C3/F3</f>
         <v>9.0909090909090917</v>
       </c>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -603,9 +744,15 @@
         <f t="shared" si="5"/>
         <v>20.220588235294116</v>
       </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -644,7 +791,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -683,7 +830,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -722,7 +869,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -761,33 +908,35 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P16" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{24FA66D5-1237-46EC-8394-D06F3693FC78}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C29D25-BD40-4F67-BA68-00FAB12EB7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65819BE3-A2E8-4D88-B5ED-94B78CEEF29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tracking" sheetId="1" r:id="rId1"/>
+    <sheet name="Artist Links" sheetId="3" r:id="rId2"/>
+    <sheet name="Working" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracking!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>Plant</t>
   </si>
@@ -153,13 +155,88 @@
   </si>
   <si>
     <t>sunflower</t>
+  </si>
+  <si>
+    <t>cherry bonsai</t>
+  </si>
+  <si>
+    <t>lavender</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>Stages</t>
+  </si>
+  <si>
+    <t>AzunaPixels</t>
+  </si>
+  <si>
+    <t>Beeg_Shadow</t>
+  </si>
+  <si>
+    <t>Dj</t>
+  </si>
+  <si>
+    <t>cherry_bonsai</t>
+  </si>
+  <si>
+    <t>Schlopp</t>
+  </si>
+  <si>
+    <t>VineyBoi</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>Creeper</t>
+  </si>
+  <si>
+    <t>fern</t>
+  </si>
+  <si>
+    <t>Artist Link</t>
+  </si>
+  <si>
+    <t>Artist Name</t>
+  </si>
+  <si>
+    <t>Fiverr Link</t>
+  </si>
+  <si>
+    <t>LuisdenPixel</t>
+  </si>
+  <si>
+    <t>Diconcilio</t>
+  </si>
+  <si>
+    <t>https://www.fiverr.com/inbox/coliflornina</t>
+  </si>
+  <si>
+    <t>https://www.fiverr.com/inbox/dara90</t>
+  </si>
+  <si>
+    <t>https://www.fiverr.com/inbox/luisdenpixel</t>
+  </si>
+  <si>
+    <t>https://www.fiverr.com/inbox/diconcilio</t>
+  </si>
+  <si>
+    <t>Coliflornina</t>
+  </si>
+  <si>
+    <t>Art Quote (GBP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +254,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,15 +284,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -520,423 +611,896 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B506C8A2-CFE7-48E4-9F0A-C9D1E39EA76C}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="18" width="12" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="8" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B2,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B2,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D2" s="6">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D3" s="6">
+        <v>24</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D13" s="6">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D14" s="6">
+        <v>32</v>
+      </c>
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="F14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B15,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B15,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D15" s="6">
+        <v>24</v>
+      </c>
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:F8" si="0">AVERAGE(D2:E2)</f>
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G8" si="1">D2-E2</f>
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H8" si="2">F2*5</f>
-        <v>20</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I8" si="3">5*H2</f>
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D16" s="6">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C8" si="4">(I2/4)*G2</f>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" si="2"/>
-        <v>27.5</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" si="3"/>
-        <v>137.5</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J8" si="5">C3/F3</f>
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" si="4"/>
-        <v>171.875</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="2"/>
-        <v>42.5</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="3"/>
-        <v>212.5</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="5"/>
-        <v>20.220588235294116</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="R4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="4"/>
-        <v>371.875</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="2"/>
-        <v>57.5</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="3"/>
-        <v>287.5</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="5"/>
-        <v>32.336956521739133</v>
-      </c>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="4"/>
-        <v>503.125</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="3"/>
-        <v>475</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="5"/>
-        <v>26.480263157894736</v>
-      </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C19" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="4"/>
-        <v>950</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="5"/>
-        <v>47.5</v>
-      </c>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+      <c r="F19" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" si="4"/>
-        <v>1250</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="3"/>
-        <v>575</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="5"/>
-        <v>54.347826086956523</v>
-      </c>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P16" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{24FA66D5-1237-46EC-8394-D06F3693FC78}"/>
+  <autoFilter ref="A1:F18" xr:uid="{DE796829-81F8-4DDB-A026-28A5EA19C969}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
+      <sortCondition ref="E1:E18"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F18">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064E1270-E89F-4488-AF87-FAB220BD6EFC}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{D347887C-626B-46E2-9ACA-8CFFEBA86AB8}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{1852A152-A139-404A-A721-487528C06157}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{8D140910-929B-4CCC-9E43-DEDC8A2557CE}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{C0317918-4A3D-48DA-B5F9-616B96661333}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370672FE-097C-4622-B4BB-552E2E08767F}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <f>AVERAGE(D2:E2)</f>
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <f>D2-E2</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <f>F2*5</f>
+        <v>20</v>
+      </c>
+      <c r="I2" s="1">
+        <f>5*H2</f>
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <f>(I2/4)*G2</f>
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <f>AVERAGE(D3:E3)</f>
+        <v>5.5</v>
+      </c>
+      <c r="G3">
+        <f>D3-E3</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <f>F3*5</f>
+        <v>27.5</v>
+      </c>
+      <c r="I3" s="1">
+        <f>5*H3</f>
+        <v>137.5</v>
+      </c>
+      <c r="J3" s="1">
+        <f>C3/F3</f>
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <f>(I3/4)*G3</f>
+        <v>171.875</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <f>AVERAGE(D4:E4)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G4">
+        <f>D4-E4</f>
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <f>F4*5</f>
+        <v>42.5</v>
+      </c>
+      <c r="I4" s="1">
+        <f>5*H4</f>
+        <v>212.5</v>
+      </c>
+      <c r="J4" s="1">
+        <f>C4/F4</f>
+        <v>20.220588235294116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <f>(I4/4)*G4</f>
+        <v>371.875</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <f>AVERAGE(D5:E5)</f>
+        <v>11.5</v>
+      </c>
+      <c r="G5">
+        <f>D5-E5</f>
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <f>F5*5</f>
+        <v>57.5</v>
+      </c>
+      <c r="I5" s="1">
+        <f>5*H5</f>
+        <v>287.5</v>
+      </c>
+      <c r="J5" s="1">
+        <f>C5/F5</f>
+        <v>32.336956521739133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <f>(I5/4)*G5</f>
+        <v>503.125</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
+        <f>AVERAGE(D6:E6)</f>
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <f>D6-E6</f>
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <f>F6*5</f>
+        <v>95</v>
+      </c>
+      <c r="I6" s="1">
+        <f>5*H6</f>
+        <v>475</v>
+      </c>
+      <c r="J6" s="1">
+        <f>C6/F6</f>
+        <v>26.480263157894736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <f>(I6/4)*G6</f>
+        <v>950</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <f>AVERAGE(D7:E7)</f>
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <f>D7-E7</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <f>F7*5</f>
+        <v>100</v>
+      </c>
+      <c r="I7" s="1">
+        <f>5*H7</f>
+        <v>500</v>
+      </c>
+      <c r="J7" s="1">
+        <f>C7/F7</f>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <f>(I7/4)*G7</f>
+        <v>1250</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <f>AVERAGE(D8:E8)</f>
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <f>D8-E8</f>
+        <v>14</v>
+      </c>
+      <c r="H8" s="1">
+        <f>F8*5</f>
+        <v>115</v>
+      </c>
+      <c r="I8" s="1">
+        <f>5*H8</f>
+        <v>575</v>
+      </c>
+      <c r="J8" s="1">
+        <f>C8/F8</f>
+        <v>54.347826086956523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65819BE3-A2E8-4D88-B5ED-94B78CEEF29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4C8648-5040-4FC3-83F4-0668F145E166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="1" r:id="rId1"/>
@@ -613,15 +613,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B506C8A2-CFE7-48E4-9F0A-C9D1E39EA76C}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5703125" customWidth="1"/>
@@ -1133,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064E1270-E89F-4488-AF87-FAB220BD6EFC}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -1253,19 +1253,19 @@
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <f>AVERAGE(D2:E2)</f>
+        <f t="shared" ref="F2:F8" si="0">AVERAGE(D2:E2)</f>
         <v>4</v>
       </c>
       <c r="G2">
-        <f>D2-E2</f>
+        <f t="shared" ref="G2:G8" si="1">D2-E2</f>
         <v>2</v>
       </c>
       <c r="H2" s="1">
-        <f>F2*5</f>
+        <f t="shared" ref="H2:H8" si="2">F2*5</f>
         <v>20</v>
       </c>
       <c r="I2" s="1">
-        <f>5*H2</f>
+        <f t="shared" ref="I2:I8" si="3">5*H2</f>
         <v>100</v>
       </c>
       <c r="J2">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <f>(I2/4)*G2</f>
+        <f t="shared" ref="C3:C8" si="4">(I2/4)*G2</f>
         <v>50</v>
       </c>
       <c r="D3">
@@ -1290,23 +1290,23 @@
         <v>3</v>
       </c>
       <c r="F3" s="1">
-        <f>AVERAGE(D3:E3)</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="G3">
-        <f>D3-E3</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H3" s="1">
-        <f>F3*5</f>
+        <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
       <c r="I3" s="1">
-        <f>5*H3</f>
+        <f t="shared" si="3"/>
         <v>137.5</v>
       </c>
       <c r="J3" s="1">
-        <f>C3/F3</f>
+        <f t="shared" ref="J3:J8" si="5">C3/F3</f>
         <v>9.0909090909090917</v>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <f>(I3/4)*G3</f>
+        <f t="shared" si="4"/>
         <v>171.875</v>
       </c>
       <c r="D4">
@@ -1328,23 +1328,23 @@
         <v>5</v>
       </c>
       <c r="F4" s="1">
-        <f>AVERAGE(D4:E4)</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="G4">
-        <f>D4-E4</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H4" s="1">
-        <f>F4*5</f>
+        <f t="shared" si="2"/>
         <v>42.5</v>
       </c>
       <c r="I4" s="1">
-        <f>5*H4</f>
+        <f t="shared" si="3"/>
         <v>212.5</v>
       </c>
       <c r="J4" s="1">
-        <f>C4/F4</f>
+        <f t="shared" si="5"/>
         <v>20.220588235294116</v>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f>(I4/4)*G4</f>
+        <f t="shared" si="4"/>
         <v>371.875</v>
       </c>
       <c r="D5">
@@ -1366,23 +1366,23 @@
         <v>8</v>
       </c>
       <c r="F5" s="1">
-        <f>AVERAGE(D5:E5)</f>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="G5">
-        <f>D5-E5</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H5" s="1">
-        <f>F5*5</f>
+        <f t="shared" si="2"/>
         <v>57.5</v>
       </c>
       <c r="I5" s="1">
-        <f>5*H5</f>
+        <f t="shared" si="3"/>
         <v>287.5</v>
       </c>
       <c r="J5" s="1">
-        <f>C5/F5</f>
+        <f t="shared" si="5"/>
         <v>32.336956521739133</v>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f>(I5/4)*G5</f>
+        <f t="shared" si="4"/>
         <v>503.125</v>
       </c>
       <c r="D6">
@@ -1404,23 +1404,23 @@
         <v>15</v>
       </c>
       <c r="F6" s="1">
-        <f>AVERAGE(D6:E6)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="G6">
-        <f>D6-E6</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H6" s="1">
-        <f>F6*5</f>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="I6" s="1">
-        <f>5*H6</f>
+        <f t="shared" si="3"/>
         <v>475</v>
       </c>
       <c r="J6" s="1">
-        <f>C6/F6</f>
+        <f t="shared" si="5"/>
         <v>26.480263157894736</v>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f>(I6/4)*G6</f>
+        <f t="shared" si="4"/>
         <v>950</v>
       </c>
       <c r="D7">
@@ -1442,23 +1442,23 @@
         <v>15</v>
       </c>
       <c r="F7" s="1">
-        <f>AVERAGE(D7:E7)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G7">
-        <f>D7-E7</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H7" s="1">
-        <f>F7*5</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="I7" s="1">
-        <f>5*H7</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="J7" s="1">
-        <f>C7/F7</f>
+        <f t="shared" si="5"/>
         <v>47.5</v>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <f>(I7/4)*G7</f>
+        <f t="shared" si="4"/>
         <v>1250</v>
       </c>
       <c r="D8">
@@ -1480,23 +1480,23 @@
         <v>16</v>
       </c>
       <c r="F8" s="1">
-        <f>AVERAGE(D8:E8)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="G8">
-        <f>D8-E8</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="H8" s="1">
-        <f>F8*5</f>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="I8" s="1">
-        <f>5*H8</f>
+        <f t="shared" si="3"/>
         <v>575</v>
       </c>
       <c r="J8" s="1">
-        <f>C8/F8</f>
+        <f t="shared" si="5"/>
         <v>54.347826086956523</v>
       </c>
     </row>

--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4C8648-5040-4FC3-83F4-0668F145E166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF442D0-D164-41C4-9352-745DF74C0096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>Plant</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Art Quote (GBP)</t>
+  </si>
+  <si>
+    <t>Luisdenpixel</t>
   </si>
 </sst>
 </file>
@@ -611,17 +614,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B506C8A2-CFE7-48E4-9F0A-C9D1E39EA76C}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H23" sqref="H23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5703125" customWidth="1"/>
@@ -1100,6 +1103,30 @@
       </c>
       <c r="F19" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D20" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D21" s="6">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF442D0-D164-41C4-9352-745DF74C0096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B69CDC-9CC1-4BB5-B985-BA4B698CB19C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
+    <workbookView xWindow="33975" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Working" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracking!$A$1:$F$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracking!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>Plant</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Luisdenpixel</t>
+  </si>
+  <si>
+    <t>sunplant</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:I23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,7 +747,7 @@
         <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="M3" t="s">
         <v>35</v>
@@ -782,6 +785,9 @@
       <c r="L4" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
       <c r="N4" t="s">
         <v>36</v>
       </c>
@@ -960,7 +966,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
@@ -1106,6 +1112,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
@@ -1116,6 +1125,12 @@
       <c r="D20" s="6">
         <v>16</v>
       </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -1130,7 +1145,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F18" xr:uid="{DE796829-81F8-4DDB-A026-28A5EA19C969}">
+  <autoFilter ref="A1:F21" xr:uid="{DE796829-81F8-4DDB-A026-28A5EA19C969}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
       <sortCondition ref="E1:E18"/>
     </sortState>
@@ -1139,7 +1154,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E19">
+  <conditionalFormatting sqref="E2:E20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B69CDC-9CC1-4BB5-B985-BA4B698CB19C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DB65E9-BD40-4340-A8F2-E3CE49FA5B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33975" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DB65E9-BD40-4340-A8F2-E3CE49FA5B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1C1B6E-10DE-457A-AAD4-BA364737A197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33975" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t>Plant</t>
   </si>
@@ -233,6 +233,27 @@
   </si>
   <si>
     <t>sunplant</t>
+  </si>
+  <si>
+    <t>hibiscus</t>
+  </si>
+  <si>
+    <t>iris</t>
+  </si>
+  <si>
+    <t>peony</t>
+  </si>
+  <si>
+    <t>calla_lily</t>
+  </si>
+  <si>
+    <t>peace_lily</t>
+  </si>
+  <si>
+    <t>venus_flytrap</t>
+  </si>
+  <si>
+    <t>daisy_patch</t>
   </si>
 </sst>
 </file>
@@ -617,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B506C8A2-CFE7-48E4-9F0A-C9D1E39EA76C}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,6 +758,9 @@
       <c r="F3" s="1">
         <v>6</v>
       </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
       <c r="I3" t="s">
         <v>37</v>
       </c>
@@ -776,8 +800,14 @@
       <c r="F4" s="1">
         <v>6</v>
       </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
       <c r="I4" t="s">
         <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
       </c>
       <c r="K4" t="s">
         <v>33</v>
@@ -812,7 +842,18 @@
       <c r="F5" s="1">
         <v>7</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
       <c r="N5" t="s">
         <v>39</v>
       </c>
@@ -1048,7 +1089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1069,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1090,7 +1131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1111,7 +1152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1132,7 +1173,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
       <c r="B21" t="s">
         <v>63</v>
       </c>
@@ -1142,6 +1186,159 @@
       </c>
       <c r="D21" s="6">
         <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D22" s="6">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D23" s="6">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D24" s="6">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D25" s="6">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D26" s="6">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D27" s="6">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1351,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E20">
+  <conditionalFormatting sqref="E2:E23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1C1B6E-10DE-457A-AAD4-BA364737A197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B596C74D-6E32-4C0A-946F-9362D6605037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
@@ -740,23 +740,23 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D3" s="6">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
         <v>66</v>
@@ -782,23 +782,23 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
         <v>71</v>
@@ -824,23 +824,23 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D5" s="6">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
         <v>65</v>
@@ -860,62 +860,62 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v/>
+        <v>Link</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v/>
+        <v>Link</v>
       </c>
       <c r="D7" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v/>
+        <v>Link</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -923,10 +923,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
@@ -936,15 +936,15 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
@@ -957,39 +957,39 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v/>
+        <v>Link</v>
       </c>
       <c r="D11" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1">
         <v>7</v>
@@ -1007,41 +1007,41 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <v/>
       </c>
       <c r="D13" s="6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <v/>
       </c>
       <c r="D14" s="6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1">
         <v>7</v>
@@ -1049,49 +1049,49 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B15,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B15,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D15" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <v/>
       </c>
       <c r="D16" s="6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
@@ -1104,67 +1104,67 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v/>
+        <v>Link</v>
       </c>
       <c r="D18" s="6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
         <v>6</v>
       </c>
-      <c r="F18" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v/>
+        <v>Link</v>
       </c>
       <c r="D19" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D20" s="6">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -1173,33 +1173,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D21" s="6">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F21" s="1">
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -1212,18 +1209,15 @@
         <v>16</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22" s="1">
         <v>7</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -1236,122 +1230,107 @@
         <v>16</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F23" s="1">
         <v>7</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D24" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>7</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <v/>
       </c>
       <c r="D25" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1">
-        <v>7</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <v/>
       </c>
       <c r="D26" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1">
         <v>7</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <v/>
       </c>
       <c r="D27" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" s="1">
-        <v>7</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F21" xr:uid="{DE796829-81F8-4DDB-A026-28A5EA19C969}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
-      <sortCondition ref="E1:E18"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
+      <sortCondition ref="E1:E21"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F18">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E23">
+  <conditionalFormatting sqref="E2:E230">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B596C74D-6E32-4C0A-946F-9362D6605037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA9C3D-E4B3-4089-AA07-971CE4095FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>Plant</t>
   </si>
@@ -254,6 +254,15 @@
   </si>
   <si>
     <t>daisy_patch</t>
+  </si>
+  <si>
+    <t>dandelion</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Discord</t>
   </si>
 </sst>
 </file>
@@ -638,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B506C8A2-CFE7-48E4-9F0A-C9D1E39EA76C}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,23 +707,23 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B2,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B2,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <f>IF(_xlfn.XLOOKUP(B2,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B2,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
       </c>
       <c r="D2" s="6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
@@ -740,23 +749,23 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <f>IF(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
       </c>
       <c r="D3" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>66</v>
@@ -782,23 +791,23 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <f>IF(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
       </c>
       <c r="D4" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
       </c>
       <c r="H4" t="s">
         <v>71</v>
@@ -824,27 +833,30 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <f>IF(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
       </c>
       <c r="D5" s="6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
         <v>65</v>
       </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
       <c r="K5" t="s">
         <v>69</v>
       </c>
@@ -860,41 +872,41 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <f>IF(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <f>IF(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D7" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -902,17 +914,17 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <f>IF(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D8" s="6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -923,62 +935,62 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v/>
+        <f>IF(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
       </c>
       <c r="D9" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v/>
+        <f>IF(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <f>IF(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
       </c>
       <c r="D11" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1">
         <v>7</v>
@@ -986,13 +998,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <f>IF(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v/>
       </c>
       <c r="D12" s="6">
@@ -1007,13 +1019,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <f>IF(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v/>
       </c>
       <c r="D13" s="6">
@@ -1028,17 +1040,17 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v/>
+        <f>IF(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
       </c>
       <c r="D14" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1049,20 +1061,20 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B15,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B15,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <f>IF(_xlfn.XLOOKUP(B15,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B15,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
       </c>
       <c r="D15" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1">
         <v>7</v>
@@ -1070,41 +1082,41 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v/>
+        <f>IF(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
       </c>
       <c r="D16" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16">
-        <v>8</v>
+      <c r="F16" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v/>
+        <f>IF(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
       </c>
       <c r="D17" s="6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1">
         <v>7</v>
@@ -1112,41 +1124,41 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <f>IF(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D18" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <f>IF(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D19" s="6">
         <v>16</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1">
         <v>7</v>
@@ -1154,20 +1166,20 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <f>IF(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
       </c>
       <c r="D20" s="6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1">
         <v>7</v>
@@ -1175,128 +1187,128 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <f>IF(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D21" s="6">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <f>IF(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D22" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <f>IF(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D23" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <f>IF(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D24" s="6">
         <v>24</v>
       </c>
       <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v/>
+        <f>IF(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
       </c>
       <c r="D25" s="6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1">
         <v>6</v>
-      </c>
-      <c r="F25" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
-        <v/>
+        <f>IF(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
       </c>
       <c r="D26" s="6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>6</v>
       </c>
-      <c r="F26" s="1">
-        <v>7</v>
+      <c r="F26">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1307,7 +1319,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$B$1:$B$5, ""), "Link"), "")</f>
+        <f>IF(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v/>
       </c>
       <c r="D27" s="6">
@@ -1320,10 +1332,27 @@
         <v>6</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F21" xr:uid="{DE796829-81F8-4DDB-A026-28A5EA19C969}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
-      <sortCondition ref="E1:E21"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
+      <sortCondition descending="1" ref="F1:F21"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F18">
@@ -1349,64 +1378,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064E1270-E89F-4488-AF87-FAB220BD6EFC}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="str">
+        <f>"375320699201650688"</f>
+        <v>375320699201650688</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{D347887C-626B-46E2-9ACA-8CFFEBA86AB8}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{1852A152-A139-404A-A721-487528C06157}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{8D140910-929B-4CCC-9E43-DEDC8A2557CE}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{C0317918-4A3D-48DA-B5F9-616B96661333}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{D347887C-626B-46E2-9ACA-8CFFEBA86AB8}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{1852A152-A139-404A-A721-487528C06157}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{8D140910-929B-4CCC-9E43-DEDC8A2557CE}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{C0317918-4A3D-48DA-B5F9-616B96661333}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA9C3D-E4B3-4089-AA07-971CE4095FBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65B5972-A7D2-4E27-9981-A13D36F4DE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tracking" sheetId="1" r:id="rId1"/>
-    <sheet name="Artist Links" sheetId="3" r:id="rId2"/>
-    <sheet name="Working" sheetId="2" r:id="rId3"/>
+    <sheet name="Plant Level Tracking" sheetId="1" r:id="rId1"/>
+    <sheet name="Plant Level Tracking Overhaul" sheetId="6" r:id="rId2"/>
+    <sheet name="Artist Links" sheetId="3" r:id="rId3"/>
+    <sheet name="Exp Gain Per Water (Baseline)" sheetId="4" r:id="rId4"/>
+    <sheet name="Exp Gain Per Water (Multiple)" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracking!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plant Level Tracking'!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Plant Level Tracking Overhaul'!$A$1:$F$21</definedName>
+    <definedName name="TotalMultiplier">'Exp Gain Per Water (Multiple)'!$K$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,56 +42,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="94">
   <si>
     <t>Plant</t>
   </si>
   <si>
-    <t>Max Exp</t>
-  </si>
-  <si>
-    <t>Min Exp</t>
-  </si>
-  <si>
-    <t>Average Exp</t>
-  </si>
-  <si>
-    <t>Berry Bush</t>
-  </si>
-  <si>
-    <t>Blue Daisy</t>
-  </si>
-  <si>
-    <t>Cactus</t>
-  </si>
-  <si>
-    <t>Giraffe</t>
-  </si>
-  <si>
-    <t>Pink Daisy</t>
-  </si>
-  <si>
-    <t>Roseberry</t>
-  </si>
-  <si>
-    <t>Exp Range</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
-    <t>5 Waters</t>
-  </si>
-  <si>
-    <t>5 Plants</t>
-  </si>
-  <si>
-    <t>How many waters it takes to get another one</t>
-  </si>
-  <si>
-    <t>Bamboo</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -263,6 +225,105 @@
   </si>
   <si>
     <t>Discord</t>
+  </si>
+  <si>
+    <t>Plant Level</t>
+  </si>
+  <si>
+    <t>Minimum Water Exp</t>
+  </si>
+  <si>
+    <t>Maximum Water Exp</t>
+  </si>
+  <si>
+    <t>Average Exp Water</t>
+  </si>
+  <si>
+    <t>Plant Level vs Plant Count</t>
+  </si>
+  <si>
+    <t>Multipliers</t>
+  </si>
+  <si>
+    <t>Total Multiplier</t>
+  </si>
+  <si>
+    <t>Level of Unlock</t>
+  </si>
+  <si>
+    <t>Plants Available</t>
+  </si>
+  <si>
+    <t>New system would have each plant give you the same amount of exp (or an amount that scales based on level but that doesn't really matter)</t>
+  </si>
+  <si>
+    <t>When you water a plant it gives you EXP and it gives you GOLD</t>
+  </si>
+  <si>
+    <t>Gold can be used to purchase new pots and new items</t>
+  </si>
+  <si>
+    <t>Exp is used to personally level up</t>
+  </si>
+  <si>
+    <t>Levelling up gives you access to the new set of plants available plants</t>
+  </si>
+  <si>
+    <t>Levelling up DOESN’T take away access to the previous level of plants</t>
+  </si>
+  <si>
+    <t>So like a level 2 person's shop would contain 3 things from the level 0 segment</t>
+  </si>
+  <si>
+    <t>A level 7's shop would contain 3 things from level 0 and 3 things from level 5</t>
+  </si>
+  <si>
+    <t>Exp and Levelling</t>
+  </si>
+  <si>
+    <t>Plants</t>
+  </si>
+  <si>
+    <t>All of the plants give an amount (N) of exp</t>
+  </si>
+  <si>
+    <t>This amount of exp will SCALE with your current level</t>
+  </si>
+  <si>
+    <t>Watering</t>
+  </si>
+  <si>
+    <t>Watering a plant will giveyou both GOLD and EXP</t>
+  </si>
+  <si>
+    <t>Exp is used for levelling</t>
+  </si>
+  <si>
+    <t>Gold is used to purhcase items</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>The shop contains available plants + available items</t>
+  </si>
+  <si>
+    <t>The plants available to you depend on your current level</t>
+  </si>
+  <si>
+    <t>You will always have revival tokens + pots available to you, but their prices depend upon your level</t>
+  </si>
+  <si>
+    <t>spruce</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>crocus</t>
+  </si>
+  <si>
+    <t>eucalyptus</t>
   </si>
 </sst>
 </file>
@@ -324,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -332,6 +393,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B506C8A2-CFE7-48E4-9F0A-C9D1E39EA76C}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S31" activeCellId="4" sqref="H5 J6 K6 N6 S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,48 +738,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B2,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B2,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -726,33 +795,33 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -768,33 +837,33 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -810,33 +879,33 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -851,31 +920,34 @@
       <c r="F5" s="1">
         <v>8</v>
       </c>
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -890,13 +962,22 @@
       <c r="F6" s="1">
         <v>7</v>
       </c>
+      <c r="J6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -914,10 +995,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -935,10 +1016,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -956,10 +1037,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -977,10 +1058,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -998,10 +1079,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1019,10 +1100,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1040,10 +1121,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1061,10 +1142,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B15,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B15,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1082,10 +1163,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1103,10 +1184,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1124,10 +1205,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1145,10 +1226,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1166,10 +1247,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1187,10 +1268,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1208,10 +1289,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1229,10 +1310,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1250,10 +1331,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1271,10 +1352,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1292,10 +1373,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1313,10 +1394,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1334,10 +1415,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D28" s="6">
         <v>0</v>
@@ -1377,6 +1458,825 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1418663-B0D9-4839-A0F9-92369B0C3610}">
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B2,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B2,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D2" s="6">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10">
+        <f t="shared" ref="E2:E28" si="0">VALUE(_xlfn.CONCAT(_xlfn.XLOOKUP(A2,$J$2:$J$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$K$2:$K$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$L$2:$L$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$M$2:$M$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$N$2:$N$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$O$2:$O$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$I$2:$I$5,$H$2:$H$5, "")))</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D3" s="6">
+        <v>16</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D5" s="6">
+        <v>16</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D6" s="6">
+        <v>32</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D7" s="6">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D11" s="6">
+        <v>16</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D17" s="6">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D19" s="6">
+        <v>16</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D20" s="6">
+        <v>32</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D21" s="6">
+        <v>24</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D22" s="6">
+        <v>24</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D24" s="6">
+        <v>16</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D25" s="6">
+        <v>16</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D27" s="6">
+        <v>24</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B28,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B28,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F28" s="1">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F21" xr:uid="{DE796829-81F8-4DDB-A026-28A5EA19C969}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
+      <sortCondition ref="E1:E21"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="I1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064E1270-E89F-4488-AF87-FAB220BD6EFC}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1393,50 +2293,50 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B6" t="str">
         <f>"375320699201650688"</f>
@@ -1454,310 +2354,581 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370672FE-097C-4622-B4BB-552E2E08767F}">
-  <dimension ref="A1:J8"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14ABBD8F-4695-44C8-B308-5DEE8084E3A2}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(C2:D2)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="0">AVERAGE(C3:D3)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B4">
+        <v>172</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B5">
+        <v>372</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>503</v>
+      </c>
+      <c r="C6">
+        <v>150</v>
+      </c>
+      <c r="D6">
+        <v>230</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>950</v>
+      </c>
+      <c r="C7">
+        <v>150</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1250</v>
+      </c>
+      <c r="C8">
+        <v>160</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DD8FDB-DCE4-43C1-8267-23AF925CAFA9}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>_xlfn.XLOOKUP(B$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A2 * TotalMultiplier</f>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="C2">
+        <f>_xlfn.XLOOKUP(C$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A2 * TotalMultiplier</f>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="D2">
+        <f>_xlfn.XLOOKUP(D$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A2 * TotalMultiplier</f>
+        <v>112.2</v>
+      </c>
+      <c r="E2">
+        <f>_xlfn.XLOOKUP(E$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A2 * TotalMultiplier</f>
+        <v>151.80000000000001</v>
+      </c>
+      <c r="F2">
+        <f>_xlfn.XLOOKUP(F$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A2 * TotalMultiplier</f>
+        <v>250.8</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.XLOOKUP(G$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A2 * TotalMultiplier</f>
+        <v>264</v>
+      </c>
+      <c r="H2">
+        <f>_xlfn.XLOOKUP(H$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A2 * TotalMultiplier</f>
+        <v>303.60000000000002</v>
+      </c>
+      <c r="J2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K2">
+        <f>J2*J3*J4*J5*J6*J7*J8*J9*J10*J11</f>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>_xlfn.XLOOKUP(B$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A3 * TotalMultiplier</f>
+        <v>105.60000000000001</v>
+      </c>
+      <c r="C3">
+        <f>_xlfn.XLOOKUP(C$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A3 * TotalMultiplier</f>
+        <v>145.20000000000002</v>
+      </c>
+      <c r="D3">
+        <f>_xlfn.XLOOKUP(D$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A3 * TotalMultiplier</f>
+        <v>224.4</v>
+      </c>
+      <c r="E3">
+        <f>_xlfn.XLOOKUP(E$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A3 * TotalMultiplier</f>
+        <v>303.60000000000002</v>
+      </c>
+      <c r="F3">
+        <f>_xlfn.XLOOKUP(F$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A3 * TotalMultiplier</f>
+        <v>501.6</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.XLOOKUP(G$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A3 * TotalMultiplier</f>
+        <v>528</v>
+      </c>
+      <c r="H3">
+        <f>_xlfn.XLOOKUP(H$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A3 * TotalMultiplier</f>
+        <v>607.20000000000005</v>
+      </c>
+      <c r="J3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>_xlfn.XLOOKUP(B$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A4 * TotalMultiplier</f>
+        <v>158.4</v>
+      </c>
+      <c r="C4">
+        <f>_xlfn.XLOOKUP(C$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A4 * TotalMultiplier</f>
+        <v>217.8</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.XLOOKUP(D$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A4 * TotalMultiplier</f>
+        <v>336.6</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.XLOOKUP(E$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A4 * TotalMultiplier</f>
+        <v>455.40000000000003</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.XLOOKUP(F$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A4 * TotalMultiplier</f>
+        <v>752.40000000000009</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.XLOOKUP(G$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A4 * TotalMultiplier</f>
+        <v>792</v>
+      </c>
+      <c r="H4">
+        <f>_xlfn.XLOOKUP(H$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A4 * TotalMultiplier</f>
+        <v>910.80000000000007</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>_xlfn.XLOOKUP(B$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A5 * TotalMultiplier</f>
+        <v>211.20000000000002</v>
+      </c>
+      <c r="C5">
+        <f>_xlfn.XLOOKUP(C$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A5 * TotalMultiplier</f>
+        <v>290.40000000000003</v>
+      </c>
+      <c r="D5">
+        <f>_xlfn.XLOOKUP(D$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A5 * TotalMultiplier</f>
+        <v>448.8</v>
+      </c>
+      <c r="E5">
+        <f>_xlfn.XLOOKUP(E$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A5 * TotalMultiplier</f>
+        <v>607.20000000000005</v>
+      </c>
+      <c r="F5">
+        <f>_xlfn.XLOOKUP(F$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A5 * TotalMultiplier</f>
+        <v>1003.2</v>
+      </c>
+      <c r="G5">
+        <f>_xlfn.XLOOKUP(G$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A5 * TotalMultiplier</f>
+        <v>1056</v>
+      </c>
+      <c r="H5">
+        <f>_xlfn.XLOOKUP(H$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A5 * TotalMultiplier</f>
+        <v>1214.4000000000001</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>_xlfn.XLOOKUP(B$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A6 * TotalMultiplier</f>
+        <v>264</v>
+      </c>
+      <c r="C6">
+        <f>_xlfn.XLOOKUP(C$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A6 * TotalMultiplier</f>
+        <v>363</v>
+      </c>
+      <c r="D6">
+        <f>_xlfn.XLOOKUP(D$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A6 * TotalMultiplier</f>
+        <v>561</v>
+      </c>
+      <c r="E6">
+        <f>_xlfn.XLOOKUP(E$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A6 * TotalMultiplier</f>
+        <v>759</v>
+      </c>
+      <c r="F6">
+        <f>_xlfn.XLOOKUP(F$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A6 * TotalMultiplier</f>
+        <v>1254</v>
+      </c>
+      <c r="G6">
+        <f>_xlfn.XLOOKUP(G$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A6 * TotalMultiplier</f>
+        <v>1320</v>
+      </c>
+      <c r="H6">
+        <f>_xlfn.XLOOKUP(H$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A6 * TotalMultiplier</f>
+        <v>1518</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>_xlfn.XLOOKUP(B$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A7 * TotalMultiplier</f>
+        <v>316.8</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.XLOOKUP(C$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A7 * TotalMultiplier</f>
+        <v>435.6</v>
+      </c>
+      <c r="D7">
+        <f>_xlfn.XLOOKUP(D$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A7 * TotalMultiplier</f>
+        <v>673.2</v>
+      </c>
+      <c r="E7">
+        <f>_xlfn.XLOOKUP(E$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A7 * TotalMultiplier</f>
+        <v>910.80000000000007</v>
+      </c>
+      <c r="F7">
+        <f>_xlfn.XLOOKUP(F$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A7 * TotalMultiplier</f>
+        <v>1504.8000000000002</v>
+      </c>
+      <c r="G7">
+        <f>_xlfn.XLOOKUP(G$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A7 * TotalMultiplier</f>
+        <v>1584</v>
+      </c>
+      <c r="H7">
+        <f>_xlfn.XLOOKUP(H$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A7 * TotalMultiplier</f>
+        <v>1821.6000000000001</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>_xlfn.XLOOKUP(B$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A8 * TotalMultiplier</f>
+        <v>369.6</v>
+      </c>
+      <c r="C8">
+        <f>_xlfn.XLOOKUP(C$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A8 * TotalMultiplier</f>
+        <v>508.20000000000005</v>
+      </c>
+      <c r="D8">
+        <f>_xlfn.XLOOKUP(D$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A8 * TotalMultiplier</f>
+        <v>785.40000000000009</v>
+      </c>
+      <c r="E8">
+        <f>_xlfn.XLOOKUP(E$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A8 * TotalMultiplier</f>
+        <v>1062.6000000000001</v>
+      </c>
+      <c r="F8">
+        <f>_xlfn.XLOOKUP(F$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A8 * TotalMultiplier</f>
+        <v>1755.6000000000001</v>
+      </c>
+      <c r="G8">
+        <f>_xlfn.XLOOKUP(G$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A8 * TotalMultiplier</f>
+        <v>1848</v>
+      </c>
+      <c r="H8">
+        <f>_xlfn.XLOOKUP(H$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A8 * TotalMultiplier</f>
+        <v>2125.2000000000003</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>_xlfn.XLOOKUP(B$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A9 * TotalMultiplier</f>
+        <v>422.40000000000003</v>
+      </c>
+      <c r="C9">
+        <f>_xlfn.XLOOKUP(C$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A9 * TotalMultiplier</f>
+        <v>580.80000000000007</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.XLOOKUP(D$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A9 * TotalMultiplier</f>
+        <v>897.6</v>
+      </c>
+      <c r="E9">
+        <f>_xlfn.XLOOKUP(E$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A9 * TotalMultiplier</f>
+        <v>1214.4000000000001</v>
+      </c>
+      <c r="F9">
+        <f>_xlfn.XLOOKUP(F$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A9 * TotalMultiplier</f>
+        <v>2006.4</v>
+      </c>
+      <c r="G9">
+        <f>_xlfn.XLOOKUP(G$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A9 * TotalMultiplier</f>
+        <v>2112</v>
+      </c>
+      <c r="H9">
+        <f>_xlfn.XLOOKUP(H$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A9 * TotalMultiplier</f>
+        <v>2428.8000000000002</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>_xlfn.XLOOKUP(B$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A10 * TotalMultiplier</f>
+        <v>475.20000000000005</v>
+      </c>
+      <c r="C10">
+        <f>_xlfn.XLOOKUP(C$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A10 * TotalMultiplier</f>
+        <v>653.4</v>
+      </c>
+      <c r="D10">
+        <f>_xlfn.XLOOKUP(D$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A10 * TotalMultiplier</f>
+        <v>1009.8000000000001</v>
+      </c>
+      <c r="E10">
+        <f>_xlfn.XLOOKUP(E$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A10 * TotalMultiplier</f>
+        <v>1366.2</v>
+      </c>
+      <c r="F10">
+        <f>_xlfn.XLOOKUP(F$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A10 * TotalMultiplier</f>
+        <v>2257.2000000000003</v>
+      </c>
+      <c r="G10">
+        <f>_xlfn.XLOOKUP(G$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A10 * TotalMultiplier</f>
+        <v>2376</v>
+      </c>
+      <c r="H10">
+        <f>_xlfn.XLOOKUP(H$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A10 * TotalMultiplier</f>
+        <v>2732.4</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:F8" si="0">AVERAGE(D2:E2)</f>
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G8" si="1">D2-E2</f>
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H8" si="2">F2*5</f>
-        <v>20</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I8" si="3">5*H2</f>
-        <v>100</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
+      <c r="B11">
+        <f>_xlfn.XLOOKUP(B$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A11 * TotalMultiplier</f>
+        <v>528</v>
+      </c>
+      <c r="C11">
+        <f>_xlfn.XLOOKUP(C$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A11 * TotalMultiplier</f>
+        <v>726</v>
+      </c>
+      <c r="D11">
+        <f>_xlfn.XLOOKUP(D$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A11 * TotalMultiplier</f>
+        <v>1122</v>
+      </c>
+      <c r="E11">
+        <f>_xlfn.XLOOKUP(E$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A11 * TotalMultiplier</f>
+        <v>1518</v>
+      </c>
+      <c r="F11">
+        <f>_xlfn.XLOOKUP(F$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A11 * TotalMultiplier</f>
+        <v>2508</v>
+      </c>
+      <c r="G11">
+        <f>_xlfn.XLOOKUP(G$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A11 * TotalMultiplier</f>
+        <v>2640</v>
+      </c>
+      <c r="H11">
+        <f>_xlfn.XLOOKUP(H$1, 'Exp Gain Per Water (Baseline)'!$A$2:$A$8,'Exp Gain Per Water (Baseline)'!$E$2:$E$8) * $A11 * TotalMultiplier</f>
+        <v>3036</v>
+      </c>
+      <c r="J11">
         <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C8" si="4">(I2/4)*G2</f>
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" si="2"/>
-        <v>27.5</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" si="3"/>
-        <v>137.5</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J8" si="5">C3/F3</f>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" si="4"/>
-        <v>171.875</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="2"/>
-        <v>42.5</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="3"/>
-        <v>212.5</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="5"/>
-        <v>20.220588235294116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="4"/>
-        <v>371.875</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="2"/>
-        <v>57.5</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="3"/>
-        <v>287.5</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="5"/>
-        <v>32.336956521739133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="4"/>
-        <v>503.125</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="3"/>
-        <v>475</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="5"/>
-        <v>26.480263157894736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="4"/>
-        <v>950</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="5"/>
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="4"/>
-        <v>1250</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="3"/>
-        <v>575</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="5"/>
-        <v>54.347826086956523</v>
       </c>
     </row>
   </sheetData>

--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65B5972-A7D2-4E27-9981-A13D36F4DE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C360F85E-2975-4C9B-A9C1-271E505DD7F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Plant Level Tracking" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="102">
   <si>
     <t>Plant</t>
   </si>
@@ -324,6 +324,30 @@
   </si>
   <si>
     <t>eucalyptus</t>
+  </si>
+  <si>
+    <t>GoddessErica</t>
+  </si>
+  <si>
+    <t>Base Ideas</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Base Price</t>
+  </si>
+  <si>
+    <t>Exponent</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>New Exp</t>
+  </si>
+  <si>
+    <t>New Exp Fraction</t>
   </si>
 </sst>
 </file>
@@ -385,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -400,6 +424,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B506C8A2-CFE7-48E4-9F0A-C9D1E39EA76C}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S31" activeCellId="4" sqref="H5 J6 K6 N6 S31"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,6 +1447,10 @@
       <c r="B28" t="s">
         <v>59</v>
       </c>
+      <c r="C28" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B28,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B28,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
       <c r="D28" s="6">
         <v>0</v>
       </c>
@@ -1427,6 +1458,90 @@
         <v>2</v>
       </c>
       <c r="F28" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B29,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B29,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B30,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B30,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B31,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B31,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B32,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B32,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
         <v>6</v>
       </c>
     </row>
@@ -1459,20 +1574,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1418663-B0D9-4839-A0F9-92369B0C3610}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="13.7109375" customWidth="1"/>
   </cols>
@@ -1530,7 +1645,7 @@
       <c r="F2" s="1">
         <v>7</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="13">
         <v>0</v>
       </c>
       <c r="I2" t="s">
@@ -1576,7 +1691,7 @@
       <c r="F3" s="1">
         <v>7</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="13">
         <v>5</v>
       </c>
       <c r="I3" t="s">
@@ -1622,7 +1737,7 @@
       <c r="F4" s="1">
         <v>7</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="13">
         <v>10</v>
       </c>
       <c r="I4" t="s">
@@ -1668,7 +1783,7 @@
       <c r="F5" s="1">
         <v>7</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="13">
         <v>15</v>
       </c>
       <c r="I5" t="s">
@@ -1733,8 +1848,8 @@
       <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
-        <v>70</v>
+      <c r="H7" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1759,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1784,7 +1899,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1809,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1833,6 +1948,9 @@
       <c r="F11" s="1">
         <v>7</v>
       </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1855,9 +1973,6 @@
       <c r="F12" s="1">
         <v>7</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1880,8 +1995,8 @@
       <c r="F13" s="1">
         <v>7</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>74</v>
+      <c r="H13" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1905,8 +2020,8 @@
       <c r="F14" s="1">
         <v>7</v>
       </c>
-      <c r="H14" t="s">
-        <v>75</v>
+      <c r="H14" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1930,7 +2045,7 @@
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1954,8 +2069,8 @@
       <c r="F16">
         <v>8</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>77</v>
+      <c r="H16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1979,6 +2094,9 @@
       <c r="F17" s="1">
         <v>7</v>
       </c>
+      <c r="H17" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2002,9 +2120,6 @@
       <c r="F18" s="1">
         <v>7</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2028,8 +2143,8 @@
       <c r="F19" s="1">
         <v>7</v>
       </c>
-      <c r="H19" t="s">
-        <v>80</v>
+      <c r="H19" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -2055,7 +2170,7 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2079,6 +2194,9 @@
       <c r="F21" s="1">
         <v>6</v>
       </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2101,9 +2219,6 @@
       <c r="F22" s="1">
         <v>6</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2126,8 +2241,8 @@
       <c r="F23" s="1">
         <v>8</v>
       </c>
-      <c r="H23" t="s">
-        <v>83</v>
+      <c r="H23" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2152,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2177,7 +2292,7 @@
         <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2201,6 +2316,9 @@
       <c r="F26" s="1">
         <v>7</v>
       </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2223,9 +2341,6 @@
       <c r="F27">
         <v>6</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2248,18 +2363,403 @@
       <c r="F28" s="1">
         <v>6</v>
       </c>
-      <c r="H28" t="s">
-        <v>87</v>
+      <c r="H28" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>99</v>
+      </c>
+      <c r="N34">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f>N33</f>
+        <v>500</v>
+      </c>
+      <c r="J35">
+        <f>I35-I34</f>
+        <v>500</v>
+      </c>
+      <c r="K35">
+        <f>I35/J35</f>
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>98</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <f>FLOOR(I35*$N$34, 1)</f>
+        <v>1100</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:J54" si="1">I36-I35</f>
+        <v>600</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:K54" si="2">I36/J36</f>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <f>FLOOR(I36*$N$34, 1)</f>
+        <v>2420</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>1320</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <f>FLOOR(I37*$N$34, 1)</f>
+        <v>5324</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>2904</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <f>FLOOR(I38*$N$34, 1)</f>
+        <v>11712</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>6388</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>1.833437695679399</v>
+      </c>
+    </row>
+    <row r="40" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <f>FLOOR(I39*$N$34, 1)</f>
+        <v>25766</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>14054</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>1.8333570513732744</v>
+      </c>
+    </row>
+    <row r="41" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <f>FLOOR(I40*$N$34, 1)</f>
+        <v>56685</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>30919</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>1.833338723762088</v>
+      </c>
+    </row>
+    <row r="42" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <f>FLOOR(I41*$N$34, 1)</f>
+        <v>124707</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>68022</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <f>FLOOR(I42*$N$34, 1)</f>
+        <v>274355</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>149648</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>1.8333355607826365</v>
+      </c>
+    </row>
+    <row r="44" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <f>FLOOR(I43*$N$34, 1)</f>
+        <v>603581</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>329226</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>11</v>
+      </c>
+      <c r="I45">
+        <f>FLOOR(I44*$N$34, 1)</f>
+        <v>1327878</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>724297</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>1.8333335634415164</v>
+      </c>
+    </row>
+    <row r="46" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>12</v>
+      </c>
+      <c r="I46">
+        <f>FLOOR(I45*$N$34, 1)</f>
+        <v>2921331</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>1593453</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>1.8333336471172981</v>
+      </c>
+    </row>
+    <row r="47" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>13</v>
+      </c>
+      <c r="I47">
+        <f>FLOOR(I46*$N$34, 1)</f>
+        <v>6426928</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>3505597</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>1.8333333808763528</v>
+      </c>
+    </row>
+    <row r="48" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <f>FLOOR(I47*$N$34, 1)</f>
+        <v>14139241</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>7712313</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>1.8333333981647271</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <f>FLOOR(I48*$N$34, 1)</f>
+        <v>31106330</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>16967089</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>1.8333333431562715</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <f>FLOOR(I49*$N$34, 1)</f>
+        <v>68433926</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>37327596</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>17</v>
+      </c>
+      <c r="I51">
+        <f>FLOOR(I50*$N$34, 1)</f>
+        <v>150554637</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>82120711</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>1.833333335362866</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>18</v>
+      </c>
+      <c r="I52">
+        <f>FLOOR(I51*$N$34, 1)</f>
+        <v>331220201</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>180665564</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>1.8333333351783629</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>19</v>
+      </c>
+      <c r="I53">
+        <f>FLOOR(I52*$N$34, 1)</f>
+        <v>728684442</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>397464241</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>1.8333333337526583</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>20</v>
+      </c>
+      <c r="I54">
+        <f>FLOOR(I53*$N$34, 1)</f>
+        <v>1603105772</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>874421330</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>1.8333333337145379</v>
       </c>
     </row>
   </sheetData>
@@ -2278,10 +2778,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064E1270-E89F-4488-AF87-FAB220BD6EFC}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2341,6 +2841,11 @@
       <c r="B6" t="str">
         <f>"375320699201650688"</f>
         <v>375320699201650688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C360F85E-2975-4C9B-A9C1-271E505DD7F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E7F2D-454F-4E9E-B588-7920E75355A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Plant Level Tracking" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="121">
   <si>
     <t>Plant</t>
   </si>
@@ -348,6 +348,63 @@
   </si>
   <si>
     <t>New Exp Fraction</t>
+  </si>
+  <si>
+    <t>Nourishment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "nourishment_display_levels": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "1": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "3": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "6": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "9": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "12": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "15": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "18": 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "2": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "5": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "15": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "20": 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "8": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "11": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "13": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "16": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "18": 7</t>
   </si>
 </sst>
 </file>
@@ -423,10 +480,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -745,15 +802,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B506C8A2-CFE7-48E4-9F0A-C9D1E39EA76C}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5703125" customWidth="1"/>
@@ -845,7 +902,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -858,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
       </c>
       <c r="H3" t="s">
         <v>52</v>
@@ -887,23 +944,23 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
+        <v>Link</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
         <v>57</v>
@@ -929,23 +986,23 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
+        <v>Link</v>
       </c>
       <c r="D5" s="6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5" s="1">
-        <v>8</v>
+      <c r="F5">
+        <v>6</v>
       </c>
       <c r="H5" t="s">
         <v>92</v>
@@ -971,20 +1028,20 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D6" s="6">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
         <v>7</v>
@@ -1001,7 +1058,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -1014,7 +1071,7 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1022,73 +1079,89 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <v/>
       </c>
       <c r="D8" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <v/>
       </c>
       <c r="D9" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D10" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f>CEILING($K$10*I10/20, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1098,18 +1171,25 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J29" si="0">CEILING($K$10*I11/20, 1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1124,13 +1204,29 @@
       <c r="F12" s="1">
         <v>7</v>
       </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C13" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1143,36 +1239,68 @@
         <v>3</v>
       </c>
       <c r="F13" s="1">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D14" s="6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>7</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B15,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B15,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1182,15 +1310,31 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1">
         <v>7</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -1203,81 +1347,145 @@
         <v>16</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D17" s="6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <v/>
       </c>
       <c r="D18" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <v/>
       </c>
       <c r="D19" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L19" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1290,12 +1498,28 @@
         <v>6</v>
       </c>
       <c r="F20" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L20" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" t="s">
+        <v>110</v>
+      </c>
+      <c r="N20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1305,60 +1529,90 @@
         <v>Link</v>
       </c>
       <c r="D21" s="6">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C22" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D22" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>13</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
         <v>Link</v>
       </c>
       <c r="D23" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -1368,16 +1622,23 @@
         <v>Link</v>
       </c>
       <c r="D24" s="6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1397,34 +1658,48 @@
       <c r="F25" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>16</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
+        <v/>
       </c>
       <c r="D26" s="6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>13</v>
+      </c>
+      <c r="I26">
+        <v>17</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C27" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1434,18 +1709,25 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>18</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C28" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B28,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B28,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
@@ -1455,57 +1737,71 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>19</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C29" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B29,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B29,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
+        <v>Link</v>
       </c>
       <c r="D29" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B30,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B30,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
+        <v>Link</v>
       </c>
       <c r="D30" s="6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
         <v>94</v>
@@ -1518,37 +1814,37 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C32" s="4" t="str">
         <f>IF(_xlfn.XLOOKUP(B32,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B32,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
+        <v>Link</v>
       </c>
       <c r="D32" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F21" xr:uid="{DE796829-81F8-4DDB-A026-28A5EA19C969}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
-      <sortCondition descending="1" ref="F1:F21"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F32">
+      <sortCondition ref="A1:A21"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F18">
@@ -1556,6 +1852,18 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E2:E230">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1576,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1418663-B0D9-4839-A0F9-92369B0C3610}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K35" sqref="K35:K54"/>
     </sheetView>
   </sheetViews>
@@ -1614,15 +1922,15 @@
       <c r="H1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1645,7 +1953,7 @@
       <c r="F2" s="1">
         <v>7</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>0</v>
       </c>
       <c r="I2" t="s">
@@ -1691,7 +1999,7 @@
       <c r="F3" s="1">
         <v>7</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>5</v>
       </c>
       <c r="I3" t="s">
@@ -1737,7 +2045,7 @@
       <c r="F4" s="1">
         <v>7</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>10</v>
       </c>
       <c r="I4" t="s">
@@ -1783,7 +2091,7 @@
       <c r="F5" s="1">
         <v>7</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>15</v>
       </c>
       <c r="I5" t="s">
@@ -2444,15 +2752,15 @@
         <v>2</v>
       </c>
       <c r="I36">
-        <f>FLOOR(I35*$N$34, 1)</f>
+        <f t="shared" ref="I36:I54" si="1">FLOOR(I35*$N$34, 1)</f>
         <v>1100</v>
       </c>
       <c r="J36">
-        <f t="shared" ref="J36:J54" si="1">I36-I35</f>
+        <f t="shared" ref="J36:J54" si="2">I36-I35</f>
         <v>600</v>
       </c>
       <c r="K36">
-        <f t="shared" ref="K36:K54" si="2">I36/J36</f>
+        <f t="shared" ref="K36:K54" si="3">I36/J36</f>
         <v>1.8333333333333333</v>
       </c>
     </row>
@@ -2461,15 +2769,15 @@
         <v>3</v>
       </c>
       <c r="I37">
-        <f>FLOOR(I36*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>2420</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1320</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
@@ -2478,15 +2786,15 @@
         <v>4</v>
       </c>
       <c r="I38">
-        <f>FLOOR(I37*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>5324</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2904</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
@@ -2495,15 +2803,15 @@
         <v>5</v>
       </c>
       <c r="I39">
-        <f>FLOOR(I38*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>11712</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6388</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.833437695679399</v>
       </c>
     </row>
@@ -2512,15 +2820,15 @@
         <v>6</v>
       </c>
       <c r="I40">
-        <f>FLOOR(I39*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>25766</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14054</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333570513732744</v>
       </c>
     </row>
@@ -2529,15 +2837,15 @@
         <v>7</v>
       </c>
       <c r="I41">
-        <f>FLOOR(I40*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>56685</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30919</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.833338723762088</v>
       </c>
     </row>
@@ -2546,15 +2854,15 @@
         <v>8</v>
       </c>
       <c r="I42">
-        <f>FLOOR(I41*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>124707</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68022</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
@@ -2563,15 +2871,15 @@
         <v>9</v>
       </c>
       <c r="I43">
-        <f>FLOOR(I42*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>274355</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>149648</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333355607826365</v>
       </c>
     </row>
@@ -2580,15 +2888,15 @@
         <v>10</v>
       </c>
       <c r="I44">
-        <f>FLOOR(I43*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>603581</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>329226</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
@@ -2597,15 +2905,15 @@
         <v>11</v>
       </c>
       <c r="I45">
-        <f>FLOOR(I44*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>1327878</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>724297</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333335634415164</v>
       </c>
     </row>
@@ -2614,15 +2922,15 @@
         <v>12</v>
       </c>
       <c r="I46">
-        <f>FLOOR(I45*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>2921331</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1593453</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333336471172981</v>
       </c>
     </row>
@@ -2631,15 +2939,15 @@
         <v>13</v>
       </c>
       <c r="I47">
-        <f>FLOOR(I46*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>6426928</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3505597</v>
       </c>
       <c r="K47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333333808763528</v>
       </c>
     </row>
@@ -2648,15 +2956,15 @@
         <v>14</v>
       </c>
       <c r="I48">
-        <f>FLOOR(I47*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>14139241</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7712313</v>
       </c>
       <c r="K48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333333981647271</v>
       </c>
     </row>
@@ -2665,15 +2973,15 @@
         <v>15</v>
       </c>
       <c r="I49">
-        <f>FLOOR(I48*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>31106330</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16967089</v>
       </c>
       <c r="K49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333333431562715</v>
       </c>
     </row>
@@ -2682,15 +2990,15 @@
         <v>16</v>
       </c>
       <c r="I50">
-        <f>FLOOR(I49*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>68433926</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37327596</v>
       </c>
       <c r="K50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
@@ -2699,15 +3007,15 @@
         <v>17</v>
       </c>
       <c r="I51">
-        <f>FLOOR(I50*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>150554637</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82120711</v>
       </c>
       <c r="K51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.833333335362866</v>
       </c>
     </row>
@@ -2716,15 +3024,15 @@
         <v>18</v>
       </c>
       <c r="I52">
-        <f>FLOOR(I51*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>331220201</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180665564</v>
       </c>
       <c r="K52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333333351783629</v>
       </c>
     </row>
@@ -2733,15 +3041,15 @@
         <v>19</v>
       </c>
       <c r="I53">
-        <f>FLOOR(I52*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>728684442</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>397464241</v>
       </c>
       <c r="K53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333333337526583</v>
       </c>
     </row>
@@ -2750,15 +3058,15 @@
         <v>20</v>
       </c>
       <c r="I54">
-        <f>FLOOR(I53*$N$34, 1)</f>
+        <f t="shared" si="1"/>
         <v>1603105772</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>874421330</v>
       </c>
       <c r="K54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8333333337145379</v>
       </c>
     </row>

--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E7F2D-454F-4E9E-B588-7920E75355A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEA54D3-1C66-44FE-BABA-E108D257C142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Exp Gain Per Water (Multiple)" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plant Level Tracking'!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plant Level Tracking'!$A$1:$F$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Plant Level Tracking Overhaul'!$A$1:$F$21</definedName>
     <definedName name="TotalMultiplier">'Exp Gain Per Water (Multiple)'!$K$2</definedName>
   </definedNames>
@@ -803,7 +803,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:M21"/>
+      <selection activeCell="M14" sqref="M14:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1842,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F21" xr:uid="{DE796829-81F8-4DDB-A026-28A5EA19C969}">
+  <autoFilter ref="A1:F32" xr:uid="{DE796829-81F8-4DDB-A026-28A5EA19C969}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F32">
       <sortCondition ref="A1:A21"/>
     </sortState>

--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEA54D3-1C66-44FE-BABA-E108D257C142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA60AC5-66A0-4DD5-B949-577922B9440A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="131">
   <si>
     <t>Plant</t>
   </si>
@@ -405,6 +405,36 @@
   </si>
   <si>
     <t xml:space="preserve">        "18": 7</t>
+  </si>
+  <si>
+    <t>aloe_vera</t>
+  </si>
+  <si>
+    <t>cherry_blossom</t>
+  </si>
+  <si>
+    <t>hyacinth</t>
+  </si>
+  <si>
+    <t>hydrangea</t>
+  </si>
+  <si>
+    <t>lily_of_the_valley</t>
+  </si>
+  <si>
+    <t>moon_flower</t>
+  </si>
+  <si>
+    <t>silent_princess</t>
+  </si>
+  <si>
+    <t>tulip</t>
+  </si>
+  <si>
+    <t>widow_tears</t>
+  </si>
+  <si>
+    <t>Gerti</t>
   </si>
 </sst>
 </file>
@@ -800,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B506C8A2-CFE7-48E4-9F0A-C9D1E39EA76C}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:M19"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,11 +1076,23 @@
       <c r="F6" s="1">
         <v>7</v>
       </c>
+      <c r="H6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
+      </c>
       <c r="J6" t="s">
         <v>91</v>
       </c>
       <c r="K6" t="s">
         <v>93</v>
+      </c>
+      <c r="L6" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" t="s">
+        <v>124</v>
       </c>
       <c r="N6" t="s">
         <v>90</v>
@@ -1076,6 +1118,21 @@
       <c r="F7" s="1">
         <v>7</v>
       </c>
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1839,6 +1896,105 @@
       </c>
       <c r="F32" s="1">
         <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,21 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA60AC5-66A0-4DD5-B949-577922B9440A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA8D30A-43C8-4F99-8E7C-79E6CF75E648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Plant Level Tracking" sheetId="1" r:id="rId1"/>
-    <sheet name="Plant Level Tracking Overhaul" sheetId="6" r:id="rId2"/>
+    <sheet name="New Pot Prices Workout" sheetId="8" r:id="rId2"/>
     <sheet name="Artist Links" sheetId="3" r:id="rId3"/>
     <sheet name="Exp Gain Per Water (Baseline)" sheetId="4" r:id="rId4"/>
     <sheet name="Exp Gain Per Water (Multiple)" sheetId="5" r:id="rId5"/>
+    <sheet name="Plant Level Tracking OLD NEW" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plant Level Tracking'!$A$1:$F$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Plant Level Tracking Overhaul'!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Plant Level Tracking OLD NEW'!$A$1:$F$21</definedName>
+    <definedName name="EXP_GAIN_AVERAGE">'New Pot Prices Workout'!#REF!</definedName>
     <definedName name="TotalMultiplier">'Exp Gain Per Water (Multiple)'!$K$2</definedName>
+    <definedName name="WATER_COUNT_DIVISOR">'New Pot Prices Workout'!$O$2</definedName>
+    <definedName name="WATER_COUNT_MULTIPLIER">'New Pot Prices Workout'!$N$2</definedName>
+    <definedName name="WATERS_PER_DAY">'New Pot Prices Workout'!$M$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="145">
   <si>
     <t>Plant</t>
   </si>
@@ -435,16 +440,60 @@
   </si>
   <si>
     <t>Gerti</t>
+  </si>
+  <si>
+    <t>Post 10 water count multiplier</t>
+  </si>
+  <si>
+    <t>Water count multiplier</t>
+  </si>
+  <si>
+    <t>Waters in a day</t>
+  </si>
+  <si>
+    <t>Using formula</t>
+  </si>
+  <si>
+    <t>Cumulative days</t>
+  </si>
+  <si>
+    <t>Days to get next plant</t>
+  </si>
+  <si>
+    <t>Total  cumulative exp gained</t>
+  </si>
+  <si>
+    <t>Exp gained over 10 waters (cost of next pot)</t>
+  </si>
+  <si>
+    <t>Exp Gain Avg</t>
+  </si>
+  <si>
+    <t>Exp Gain Max</t>
+  </si>
+  <si>
+    <t>Exp Gain Min</t>
+  </si>
+  <si>
+    <t>Total cumulative waters</t>
+  </si>
+  <si>
+    <t>Number of waters (per plant) to get new</t>
+  </si>
+  <si>
+    <t>Plants owned at start</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,13 +523,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -492,11 +554,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -515,8 +578,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -531,6 +601,1524 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'New Pot Prices Workout'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Exp gained over 10 waters (cost of next pot) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'New Pot Prices Workout'!$G$11:$G$29</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'New Pot Prices Workout'!$G$20:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>855000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>945000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1035000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1080000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1125000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1170000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1215000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1260000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B29A-4064-88BF-9C112A83C00E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1560521295"/>
+        <c:axId val="1822859471"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'New Pot Prices Workout'!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Plants owned at start</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'New Pot Prices Workout'!$A$11:$A$29</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'New Pot Prices Workout'!$A$20:$A$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>28</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-B29A-4064-88BF-9C112A83C00E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'New Pot Prices Workout'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v> Number of waters (per plant) to get new </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'New Pot Prices Workout'!$B$11:$B$29</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'New Pot Prices Workout'!$B$20:$B$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>90</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-B29A-4064-88BF-9C112A83C00E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'New Pot Prices Workout'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v> Total cumulative waters </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'New Pot Prices Workout'!$C$11:$C$29</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'New Pot Prices Workout'!$C$20:$C$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>15900.000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>17700.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>19590.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>21570.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>23640.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>25800.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>28050.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>30390.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>32820.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>35340.000000000007</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-B29A-4064-88BF-9C112A83C00E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'New Pot Prices Workout'!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v> Exp Gain Min </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'New Pot Prices Workout'!$D$11:$D$29</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'New Pot Prices Workout'!$D$20:$D$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>300</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-B29A-4064-88BF-9C112A83C00E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'New Pot Prices Workout'!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v> Exp Gain Max </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'New Pot Prices Workout'!$E$11:$E$29</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'New Pot Prices Workout'!$E$20:$E$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>700</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-B29A-4064-88BF-9C112A83C00E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'New Pot Prices Workout'!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v> Exp Gain Avg </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'New Pot Prices Workout'!$F$11:$F$29</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'New Pot Prices Workout'!$F$20:$F$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-B29A-4064-88BF-9C112A83C00E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1560521295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1822859471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1822859471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1560521295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917781EB-0B42-4FF6-9A64-6D49AD2CE3DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -832,7 +2420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B506C8A2-CFE7-48E4-9F0A-C9D1E39EA76C}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -2037,1206 +3625,1301 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1418663-B0D9-4839-A0F9-92369B0C3610}">
-  <dimension ref="A1:O54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEDDD2A-07A2-46D8-B082-8643F7EA4834}">
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35:K54"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="2.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <f>6*A2*WATER_COUNT_MULTIPLIER</f>
+        <v>10.000000000000021</v>
+      </c>
+      <c r="C2" s="18">
+        <f>B2</f>
+        <v>10.000000000000021</v>
+      </c>
+      <c r="D2" s="18">
+        <v>300</v>
+      </c>
+      <c r="E2" s="18">
+        <v>700</v>
+      </c>
+      <c r="F2" s="18">
+        <f>AVERAGE(D2:E2)</f>
+        <v>500</v>
+      </c>
+      <c r="G2" s="18">
+        <f>A2*B2*F2</f>
+        <v>5000.0000000000109</v>
+      </c>
+      <c r="H2" s="18">
+        <f>G2</f>
+        <v>5000.0000000000109</v>
+      </c>
+      <c r="I2" s="14">
+        <f>B2/WATERS_PER_DAY</f>
+        <v>1.0000000000000022</v>
+      </c>
+      <c r="J2" s="14">
+        <f>I2</f>
+        <v>1.0000000000000022</v>
+      </c>
+      <c r="K2" s="14">
+        <f>IF(A2&lt;10,5000*POWER(A2,2),(45000*A2)+801000)</f>
+        <v>5000</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>1.6666666666666701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <f>6*A3*WATER_COUNT_MULTIPLIER</f>
+        <v>20.000000000000043</v>
+      </c>
+      <c r="C3" s="18">
+        <f>C2+(B3*A3)</f>
+        <v>50.000000000000107</v>
+      </c>
+      <c r="D3" s="18">
+        <v>300</v>
+      </c>
+      <c r="E3" s="18">
+        <v>700</v>
+      </c>
+      <c r="F3" s="18">
+        <f>AVERAGE(D3:E3)</f>
+        <v>500</v>
+      </c>
+      <c r="G3" s="18">
+        <f>A3*B3*F3</f>
+        <v>20000.000000000044</v>
+      </c>
+      <c r="H3" s="18">
+        <f>G3+H2</f>
+        <v>25000.000000000055</v>
+      </c>
+      <c r="I3" s="14">
+        <f>B3/WATERS_PER_DAY</f>
+        <v>2.0000000000000044</v>
+      </c>
+      <c r="J3" s="14">
+        <f>I3+J2</f>
+        <v>3.0000000000000067</v>
+      </c>
+      <c r="K3" s="14">
+        <f>IF(A3&lt;10,5000*POWER(A3,2),(45000*A3)+801000)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <f>6*A4*WATER_COUNT_MULTIPLIER</f>
+        <v>30.00000000000006</v>
+      </c>
+      <c r="C4" s="18">
+        <f>C3+(B4*A4)</f>
+        <v>140.00000000000028</v>
+      </c>
+      <c r="D4" s="18">
+        <v>300</v>
+      </c>
+      <c r="E4" s="18">
+        <v>700</v>
+      </c>
+      <c r="F4" s="18">
+        <f>AVERAGE(D4:E4)</f>
+        <v>500</v>
+      </c>
+      <c r="G4" s="18">
+        <f>A4*B4*F4</f>
+        <v>45000.000000000095</v>
+      </c>
+      <c r="H4" s="18">
+        <f>G4+H3</f>
+        <v>70000.000000000146</v>
+      </c>
+      <c r="I4" s="14">
+        <f>B4/WATERS_PER_DAY</f>
+        <v>3.0000000000000062</v>
+      </c>
+      <c r="J4" s="14">
+        <f>I4+J3</f>
+        <v>6.0000000000000124</v>
+      </c>
+      <c r="K4" s="14">
+        <f>IF(A4&lt;10,5000*POWER(A4,2),(45000*A4)+801000)</f>
+        <v>45000</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <f>6*A5*WATER_COUNT_MULTIPLIER</f>
+        <v>40.000000000000085</v>
+      </c>
+      <c r="C5" s="18">
+        <f>C4+(B5*A5)</f>
+        <v>300.00000000000063</v>
+      </c>
+      <c r="D5" s="18">
+        <v>300</v>
+      </c>
+      <c r="E5" s="18">
+        <v>700</v>
+      </c>
+      <c r="F5" s="18">
+        <f>AVERAGE(D5:E5)</f>
+        <v>500</v>
+      </c>
+      <c r="G5" s="18">
+        <f>A5*B5*F5</f>
+        <v>80000.000000000175</v>
+      </c>
+      <c r="H5" s="18">
+        <f>G5+H4</f>
+        <v>150000.00000000032</v>
+      </c>
+      <c r="I5" s="14">
+        <f>B5/WATERS_PER_DAY</f>
+        <v>4.0000000000000089</v>
+      </c>
+      <c r="J5" s="14">
+        <f>I5+J4</f>
+        <v>10.000000000000021</v>
+      </c>
+      <c r="K5" s="14">
+        <f>IF(A5&lt;10,5000*POWER(A5,2),(45000*A5)+801000)</f>
+        <v>80000</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <f>6*A6*WATER_COUNT_MULTIPLIER</f>
+        <v>50.000000000000099</v>
+      </c>
+      <c r="C6" s="18">
+        <f>C5+(B6*A6)</f>
+        <v>550.00000000000114</v>
+      </c>
+      <c r="D6" s="18">
+        <v>300</v>
+      </c>
+      <c r="E6" s="18">
+        <v>700</v>
+      </c>
+      <c r="F6" s="18">
+        <f>AVERAGE(D6:E6)</f>
+        <v>500</v>
+      </c>
+      <c r="G6" s="18">
+        <f>A6*B6*F6</f>
+        <v>125000.00000000026</v>
+      </c>
+      <c r="H6" s="18">
+        <f>G6+H5</f>
+        <v>275000.00000000058</v>
+      </c>
+      <c r="I6" s="14">
+        <f>B6/WATERS_PER_DAY</f>
+        <v>5.0000000000000098</v>
+      </c>
+      <c r="J6" s="14">
+        <f>I6+J5</f>
+        <v>15.000000000000032</v>
+      </c>
+      <c r="K6" s="14">
+        <f>IF(A6&lt;10,5000*POWER(A6,2),(45000*A6)+801000)</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="18">
+        <f>6*A7*WATER_COUNT_MULTIPLIER</f>
+        <v>60.000000000000121</v>
+      </c>
+      <c r="C7" s="18">
+        <f>C6+(B7*A7)</f>
+        <v>910.00000000000182</v>
+      </c>
+      <c r="D7" s="18">
+        <v>300</v>
+      </c>
+      <c r="E7" s="18">
+        <v>700</v>
+      </c>
+      <c r="F7" s="18">
+        <f>AVERAGE(D7:E7)</f>
+        <v>500</v>
+      </c>
+      <c r="G7" s="18">
+        <f>A7*B7*F7</f>
+        <v>180000.00000000038</v>
+      </c>
+      <c r="H7" s="18">
+        <f>G7+H6</f>
+        <v>455000.00000000093</v>
+      </c>
+      <c r="I7" s="14">
+        <f>B7/WATERS_PER_DAY</f>
+        <v>6.0000000000000124</v>
+      </c>
+      <c r="J7" s="14">
+        <f>I7+J6</f>
+        <v>21.000000000000043</v>
+      </c>
+      <c r="K7" s="14">
+        <f>IF(A7&lt;10,5000*POWER(A7,2),(45000*A7)+801000)</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <f>6*A8*WATER_COUNT_MULTIPLIER</f>
+        <v>70.000000000000142</v>
+      </c>
+      <c r="C8" s="18">
+        <f>C7+(B8*A8)</f>
+        <v>1400.0000000000027</v>
+      </c>
+      <c r="D8" s="18">
+        <v>300</v>
+      </c>
+      <c r="E8" s="18">
+        <v>700</v>
+      </c>
+      <c r="F8" s="18">
+        <f>AVERAGE(D8:E8)</f>
+        <v>500</v>
+      </c>
+      <c r="G8" s="18">
+        <f>A8*B8*F8</f>
+        <v>245000.00000000052</v>
+      </c>
+      <c r="H8" s="18">
+        <f>G8+H7</f>
+        <v>700000.0000000014</v>
+      </c>
+      <c r="I8" s="14">
+        <f>B8/WATERS_PER_DAY</f>
+        <v>7.0000000000000142</v>
+      </c>
+      <c r="J8" s="14">
+        <f>I8+J7</f>
+        <v>28.000000000000057</v>
+      </c>
+      <c r="K8" s="14">
+        <f>IF(A8&lt;10,5000*POWER(A8,2),(45000*A8)+801000)</f>
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="18">
+        <f>6*A9*WATER_COUNT_MULTIPLIER</f>
+        <v>80.000000000000171</v>
+      </c>
+      <c r="C9" s="18">
+        <f>C8+(B9*A9)</f>
+        <v>2040.0000000000041</v>
+      </c>
+      <c r="D9" s="18">
+        <v>300</v>
+      </c>
+      <c r="E9" s="18">
+        <v>700</v>
+      </c>
+      <c r="F9" s="18">
+        <f>AVERAGE(D9:E9)</f>
+        <v>500</v>
+      </c>
+      <c r="G9" s="18">
+        <f>A9*B9*F9</f>
+        <v>320000.0000000007</v>
+      </c>
+      <c r="H9" s="18">
+        <f>G9+H8</f>
+        <v>1020000.0000000021</v>
+      </c>
+      <c r="I9" s="14">
+        <f>B9/WATERS_PER_DAY</f>
+        <v>8.0000000000000178</v>
+      </c>
+      <c r="J9" s="14">
+        <f>I9+J8</f>
+        <v>36.000000000000071</v>
+      </c>
+      <c r="K9" s="14">
+        <f>IF(A9&lt;10,5000*POWER(A9,2),(45000*A9)+801000)</f>
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="18">
+        <f>6*A10*WATER_COUNT_MULTIPLIER</f>
+        <v>90.000000000000185</v>
+      </c>
+      <c r="C10" s="18">
+        <f>C9+(B10*A10)</f>
+        <v>2850.0000000000059</v>
+      </c>
+      <c r="D10" s="18">
+        <v>300</v>
+      </c>
+      <c r="E10" s="18">
+        <v>700</v>
+      </c>
+      <c r="F10" s="18">
+        <f>AVERAGE(D10:E10)</f>
+        <v>500</v>
+      </c>
+      <c r="G10" s="18">
+        <f>A10*B10*F10</f>
+        <v>405000.00000000087</v>
+      </c>
+      <c r="H10" s="18">
+        <f>G10+H9</f>
+        <v>1425000.000000003</v>
+      </c>
+      <c r="I10" s="14">
+        <f>B10/WATERS_PER_DAY</f>
+        <v>9.0000000000000178</v>
+      </c>
+      <c r="J10" s="14">
+        <f>I10+J9</f>
+        <v>45.000000000000085</v>
+      </c>
+      <c r="K10" s="14">
+        <f>IF(A10&lt;10,5000*POWER(A10,2),(45000*A10)+801000)</f>
+        <v>405000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <f>A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="16">
+        <v>90</v>
+      </c>
+      <c r="C11" s="16">
+        <f>C10+(B11*A11)</f>
+        <v>3750.0000000000059</v>
+      </c>
+      <c r="D11" s="16">
+        <v>300</v>
+      </c>
+      <c r="E11" s="16">
+        <v>700</v>
+      </c>
+      <c r="F11" s="16">
+        <f>AVERAGE(D11:E11)</f>
+        <v>500</v>
+      </c>
+      <c r="G11" s="16">
+        <f>A11*B11*F11</f>
+        <v>450000</v>
+      </c>
+      <c r="H11" s="16">
+        <f>G11+H10</f>
+        <v>1875000.000000003</v>
+      </c>
+      <c r="I11" s="15">
+        <f>B11/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J11" s="15">
+        <f>I11+J10</f>
+        <v>54.000000000000085</v>
+      </c>
+      <c r="K11" s="14">
+        <f>IF(A11&lt;10,5000*POWER(A11,2),(45000*(A11-9))+405000)</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="16">
+        <v>90</v>
+      </c>
+      <c r="C12" s="16">
+        <f>C11+(B12*A12)</f>
+        <v>4740.0000000000055</v>
+      </c>
+      <c r="D12" s="16">
+        <v>300</v>
+      </c>
+      <c r="E12" s="16">
+        <v>700</v>
+      </c>
+      <c r="F12" s="16">
+        <f>AVERAGE(D12:E12)</f>
+        <v>500</v>
+      </c>
+      <c r="G12" s="16">
+        <f>A12*B12*F12</f>
+        <v>495000</v>
+      </c>
+      <c r="H12" s="16">
+        <f>G12+H11</f>
+        <v>2370000.0000000028</v>
+      </c>
+      <c r="I12" s="15">
+        <f>B12/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J12" s="15">
+        <f>I12+J11</f>
+        <v>63.000000000000085</v>
+      </c>
+      <c r="K12" s="14">
+        <f>IF(A12&lt;10,5000*POWER(A12,2),(45000*(A12-9))+405000)</f>
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <f>A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="16">
+        <v>90</v>
+      </c>
+      <c r="C13" s="16">
+        <f>C12+(B13*A13)</f>
+        <v>5820.0000000000055</v>
+      </c>
+      <c r="D13" s="16">
+        <v>300</v>
+      </c>
+      <c r="E13" s="16">
+        <v>700</v>
+      </c>
+      <c r="F13" s="16">
+        <f>AVERAGE(D13:E13)</f>
+        <v>500</v>
+      </c>
+      <c r="G13" s="16">
+        <f>A13*B13*F13</f>
+        <v>540000</v>
+      </c>
+      <c r="H13" s="16">
+        <f>G13+H12</f>
+        <v>2910000.0000000028</v>
+      </c>
+      <c r="I13" s="15">
+        <f>B13/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J13" s="15">
+        <f>I13+J12</f>
+        <v>72.000000000000085</v>
+      </c>
+      <c r="K13" s="14">
+        <f>IF(A13&lt;10,5000*POWER(A13,2),(45000*(A13-9))+405000)</f>
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <f>A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="16">
+        <v>90</v>
+      </c>
+      <c r="C14" s="16">
+        <f>C13+(B14*A14)</f>
+        <v>6990.0000000000055</v>
+      </c>
+      <c r="D14" s="16">
+        <v>300</v>
+      </c>
+      <c r="E14" s="16">
+        <v>700</v>
+      </c>
+      <c r="F14" s="16">
+        <f>AVERAGE(D14:E14)</f>
+        <v>500</v>
+      </c>
+      <c r="G14" s="16">
+        <f>A14*B14*F14</f>
+        <v>585000</v>
+      </c>
+      <c r="H14" s="16">
+        <f>G14+H13</f>
+        <v>3495000.0000000028</v>
+      </c>
+      <c r="I14" s="15">
+        <f>B14/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J14" s="15">
+        <f>I14+J13</f>
+        <v>81.000000000000085</v>
+      </c>
+      <c r="K14" s="14">
+        <f>IF(A14&lt;10,5000*POWER(A14,2),(45000*(A14-9))+405000)</f>
+        <v>585000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <f>A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="16">
+        <v>90</v>
+      </c>
+      <c r="C15" s="16">
+        <f>C14+(B15*A15)</f>
+        <v>8250.0000000000055</v>
+      </c>
+      <c r="D15" s="16">
+        <v>300</v>
+      </c>
+      <c r="E15" s="16">
+        <v>700</v>
+      </c>
+      <c r="F15" s="16">
+        <f>AVERAGE(D15:E15)</f>
+        <v>500</v>
+      </c>
+      <c r="G15" s="16">
+        <f>A15*B15*F15</f>
+        <v>630000</v>
+      </c>
+      <c r="H15" s="16">
+        <f>G15+H14</f>
+        <v>4125000.0000000028</v>
+      </c>
+      <c r="I15" s="15">
+        <f>B15/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J15" s="15">
+        <f>I15+J14</f>
+        <v>90.000000000000085</v>
+      </c>
+      <c r="K15" s="14">
+        <f>IF(A15&lt;10,5000*POWER(A15,2),(45000*(A15-9))+405000)</f>
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <f>A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="16">
+        <v>90</v>
+      </c>
+      <c r="C16" s="16">
+        <f>C15+(B16*A16)</f>
+        <v>9600.0000000000055</v>
+      </c>
+      <c r="D16" s="16">
+        <v>300</v>
+      </c>
+      <c r="E16" s="16">
+        <v>700</v>
+      </c>
+      <c r="F16" s="16">
+        <f>AVERAGE(D16:E16)</f>
+        <v>500</v>
+      </c>
+      <c r="G16" s="16">
+        <f>A16*B16*F16</f>
+        <v>675000</v>
+      </c>
+      <c r="H16" s="16">
+        <f>G16+H15</f>
+        <v>4800000.0000000028</v>
+      </c>
+      <c r="I16" s="15">
+        <f>B16/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J16" s="15">
+        <f>I16+J15</f>
+        <v>99.000000000000085</v>
+      </c>
+      <c r="K16" s="14">
+        <f>IF(A16&lt;10,5000*POWER(A16,2),(45000*(A16-9))+405000)</f>
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <f>A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="16">
+        <v>90</v>
+      </c>
+      <c r="C17" s="16">
+        <f>C16+(B17*A17)</f>
+        <v>11040.000000000005</v>
+      </c>
+      <c r="D17" s="16">
+        <v>300</v>
+      </c>
+      <c r="E17" s="16">
+        <v>700</v>
+      </c>
+      <c r="F17" s="16">
+        <f>AVERAGE(D17:E17)</f>
+        <v>500</v>
+      </c>
+      <c r="G17" s="16">
+        <f>A17*B17*F17</f>
+        <v>720000</v>
+      </c>
+      <c r="H17" s="16">
+        <f>G17+H16</f>
+        <v>5520000.0000000028</v>
+      </c>
+      <c r="I17" s="15">
+        <f>B17/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J17" s="15">
+        <f>I17+J16</f>
+        <v>108.00000000000009</v>
+      </c>
+      <c r="K17" s="14">
+        <f>IF(A17&lt;10,5000*POWER(A17,2),(45000*(A17-9))+405000)</f>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <f>A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="16">
+        <v>90</v>
+      </c>
+      <c r="C18" s="16">
+        <f>C17+(B18*A18)</f>
+        <v>12570.000000000005</v>
+      </c>
+      <c r="D18" s="16">
+        <v>300</v>
+      </c>
+      <c r="E18" s="16">
+        <v>700</v>
+      </c>
+      <c r="F18" s="16">
+        <f>AVERAGE(D18:E18)</f>
+        <v>500</v>
+      </c>
+      <c r="G18" s="16">
+        <f>A18*B18*F18</f>
+        <v>765000</v>
+      </c>
+      <c r="H18" s="16">
+        <f>G18+H17</f>
+        <v>6285000.0000000028</v>
+      </c>
+      <c r="I18" s="15">
+        <f>B18/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J18" s="15">
+        <f>I18+J17</f>
+        <v>117.00000000000009</v>
+      </c>
+      <c r="K18" s="14">
+        <f>IF(A18&lt;10,5000*POWER(A18,2),(45000*(A18-9))+405000)</f>
+        <v>765000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <f>A18+1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="16">
+        <v>90</v>
+      </c>
+      <c r="C19" s="16">
+        <f>C18+(B19*A19)</f>
+        <v>14190.000000000005</v>
+      </c>
+      <c r="D19" s="16">
+        <v>300</v>
+      </c>
+      <c r="E19" s="16">
+        <v>700</v>
+      </c>
+      <c r="F19" s="16">
+        <f>AVERAGE(D19:E19)</f>
+        <v>500</v>
+      </c>
+      <c r="G19" s="16">
+        <f>A19*B19*F19</f>
+        <v>810000</v>
+      </c>
+      <c r="H19" s="16">
+        <f>G19+H18</f>
+        <v>7095000.0000000028</v>
+      </c>
+      <c r="I19" s="15">
+        <f>B19/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J19" s="15">
+        <f>I19+J18</f>
+        <v>126.00000000000009</v>
+      </c>
+      <c r="K19" s="14">
+        <f>IF(A19&lt;10,5000*POWER(A19,2),(45000*(A19-9))+405000)</f>
+        <v>810000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <f>A19+1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="16">
+        <v>90</v>
+      </c>
+      <c r="C20" s="16">
+        <f>C19+(B20*A20)</f>
+        <v>15900.000000000005</v>
+      </c>
+      <c r="D20" s="16">
+        <v>300</v>
+      </c>
+      <c r="E20" s="16">
+        <v>700</v>
+      </c>
+      <c r="F20" s="16">
+        <f>AVERAGE(D20:E20)</f>
+        <v>500</v>
+      </c>
+      <c r="G20" s="16">
+        <f>A20*B20*F20</f>
+        <v>855000</v>
+      </c>
+      <c r="H20" s="16">
+        <f>G20+H19</f>
+        <v>7950000.0000000028</v>
+      </c>
+      <c r="I20" s="15">
+        <f>B20/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J20" s="15">
+        <f>I20+J19</f>
+        <v>135.00000000000009</v>
+      </c>
+      <c r="K20" s="14">
+        <f>IF(A20&lt;10,5000*POWER(A20,2),(45000*(A20-9))+405000)</f>
+        <v>855000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <f>A20+1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="16">
+        <v>90</v>
+      </c>
+      <c r="C21" s="16">
+        <f>C20+(B21*A21)</f>
+        <v>17700.000000000007</v>
+      </c>
+      <c r="D21" s="16">
+        <v>300</v>
+      </c>
+      <c r="E21" s="16">
+        <v>700</v>
+      </c>
+      <c r="F21" s="16">
+        <f>AVERAGE(D21:E21)</f>
+        <v>500</v>
+      </c>
+      <c r="G21" s="16">
+        <f>A21*B21*F21</f>
+        <v>900000</v>
+      </c>
+      <c r="H21" s="16">
+        <f>G21+H20</f>
+        <v>8850000.0000000037</v>
+      </c>
+      <c r="I21" s="15">
+        <f>B21/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J21" s="15">
+        <f>I21+J20</f>
+        <v>144.00000000000009</v>
+      </c>
+      <c r="K21" s="14">
+        <f>IF(A21&lt;10,5000*POWER(A21,2),(45000*(A21-9))+405000)</f>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <f>A21+1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="16">
+        <v>90</v>
+      </c>
+      <c r="C22" s="16">
+        <f>C21+(B22*A22)</f>
+        <v>19590.000000000007</v>
+      </c>
+      <c r="D22" s="16">
+        <v>300</v>
+      </c>
+      <c r="E22" s="16">
+        <v>700</v>
+      </c>
+      <c r="F22" s="16">
+        <f>AVERAGE(D22:E22)</f>
+        <v>500</v>
+      </c>
+      <c r="G22" s="16">
+        <f>A22*B22*F22</f>
+        <v>945000</v>
+      </c>
+      <c r="H22" s="16">
+        <f>G22+H21</f>
+        <v>9795000.0000000037</v>
+      </c>
+      <c r="I22" s="15">
+        <f>B22/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J22" s="15">
+        <f>I22+J21</f>
+        <v>153.00000000000009</v>
+      </c>
+      <c r="K22" s="14">
+        <f>IF(A22&lt;10,5000*POWER(A22,2),(45000*(A22-9))+405000)</f>
+        <v>945000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <f>A22+1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="16">
+        <v>90</v>
+      </c>
+      <c r="C23" s="16">
+        <f>C22+(B23*A23)</f>
+        <v>21570.000000000007</v>
+      </c>
+      <c r="D23" s="16">
+        <v>300</v>
+      </c>
+      <c r="E23" s="16">
+        <v>700</v>
+      </c>
+      <c r="F23" s="16">
+        <f>AVERAGE(D23:E23)</f>
+        <v>500</v>
+      </c>
+      <c r="G23" s="16">
+        <f>A23*B23*F23</f>
+        <v>990000</v>
+      </c>
+      <c r="H23" s="16">
+        <f>G23+H22</f>
+        <v>10785000.000000004</v>
+      </c>
+      <c r="I23" s="15">
+        <f>B23/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J23" s="15">
+        <f>I23+J22</f>
+        <v>162.00000000000009</v>
+      </c>
+      <c r="K23" s="14">
+        <f>IF(A23&lt;10,5000*POWER(A23,2),(45000*(A23-9))+405000)</f>
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <f>A23+1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="16">
+        <v>90</v>
+      </c>
+      <c r="C24" s="16">
+        <f>C23+(B24*A24)</f>
+        <v>23640.000000000007</v>
+      </c>
+      <c r="D24" s="16">
+        <v>300</v>
+      </c>
+      <c r="E24" s="16">
+        <v>700</v>
+      </c>
+      <c r="F24" s="16">
+        <f>AVERAGE(D24:E24)</f>
+        <v>500</v>
+      </c>
+      <c r="G24" s="16">
+        <f>A24*B24*F24</f>
+        <v>1035000</v>
+      </c>
+      <c r="H24" s="16">
+        <f>G24+H23</f>
+        <v>11820000.000000004</v>
+      </c>
+      <c r="I24" s="15">
+        <f>B24/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J24" s="15">
+        <f>I24+J23</f>
+        <v>171.00000000000009</v>
+      </c>
+      <c r="K24" s="14">
+        <f>IF(A24&lt;10,5000*POWER(A24,2),(45000*(A24-9))+405000)</f>
+        <v>1035000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <f>A24+1</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="16">
+        <v>90</v>
+      </c>
+      <c r="C25" s="16">
+        <f>C24+(B25*A25)</f>
+        <v>25800.000000000007</v>
+      </c>
+      <c r="D25" s="16">
+        <v>300</v>
+      </c>
+      <c r="E25" s="16">
+        <v>700</v>
+      </c>
+      <c r="F25" s="16">
+        <f>AVERAGE(D25:E25)</f>
+        <v>500</v>
+      </c>
+      <c r="G25" s="16">
+        <f>A25*B25*F25</f>
+        <v>1080000</v>
+      </c>
+      <c r="H25" s="16">
+        <f>G25+H24</f>
+        <v>12900000.000000004</v>
+      </c>
+      <c r="I25" s="15">
+        <f>B25/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J25" s="15">
+        <f>I25+J24</f>
+        <v>180.00000000000009</v>
+      </c>
+      <c r="K25" s="14">
+        <f>IF(A25&lt;10,5000*POWER(A25,2),(45000*(A25-9))+405000)</f>
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <f>A25+1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="16">
+        <v>90</v>
+      </c>
+      <c r="C26" s="16">
+        <f>C25+(B26*A26)</f>
+        <v>28050.000000000007</v>
+      </c>
+      <c r="D26" s="16">
+        <v>300</v>
+      </c>
+      <c r="E26" s="16">
+        <v>700</v>
+      </c>
+      <c r="F26" s="16">
+        <f>AVERAGE(D26:E26)</f>
+        <v>500</v>
+      </c>
+      <c r="G26" s="16">
+        <f>A26*B26*F26</f>
+        <v>1125000</v>
+      </c>
+      <c r="H26" s="16">
+        <f>G26+H25</f>
+        <v>14025000.000000004</v>
+      </c>
+      <c r="I26" s="15">
+        <f>B26/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J26" s="15">
+        <f>I26+J25</f>
+        <v>189.00000000000009</v>
+      </c>
+      <c r="K26" s="14">
+        <f>IF(A26&lt;10,5000*POWER(A26,2),(45000*(A26-9))+405000)</f>
+        <v>1125000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <f>A26+1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="16">
+        <v>90</v>
+      </c>
+      <c r="C27" s="16">
+        <f>C26+(B27*A27)</f>
+        <v>30390.000000000007</v>
+      </c>
+      <c r="D27" s="16">
+        <v>300</v>
+      </c>
+      <c r="E27" s="16">
+        <v>700</v>
+      </c>
+      <c r="F27" s="16">
+        <f>AVERAGE(D27:E27)</f>
+        <v>500</v>
+      </c>
+      <c r="G27" s="16">
+        <f>A27*B27*F27</f>
+        <v>1170000</v>
+      </c>
+      <c r="H27" s="16">
+        <f>G27+H26</f>
+        <v>15195000.000000004</v>
+      </c>
+      <c r="I27" s="15">
+        <f>B27/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J27" s="15">
+        <f>I27+J26</f>
+        <v>198.00000000000009</v>
+      </c>
+      <c r="K27" s="14">
+        <f>IF(A27&lt;10,5000*POWER(A27,2),(45000*(A27-9))+405000)</f>
+        <v>1170000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <f>A27+1</f>
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B28" s="16">
+        <v>90</v>
+      </c>
+      <c r="C28" s="16">
+        <f>C27+(B28*A28)</f>
+        <v>32820.000000000007</v>
+      </c>
+      <c r="D28" s="16">
+        <v>300</v>
+      </c>
+      <c r="E28" s="16">
+        <v>700</v>
+      </c>
+      <c r="F28" s="16">
+        <f>AVERAGE(D28:E28)</f>
+        <v>500</v>
+      </c>
+      <c r="G28" s="16">
+        <f>A28*B28*F28</f>
+        <v>1215000</v>
+      </c>
+      <c r="H28" s="16">
+        <f>G28+H27</f>
+        <v>16410000.000000004</v>
+      </c>
+      <c r="I28" s="15">
+        <f>B28/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J28" s="15">
+        <f>I28+J27</f>
+        <v>207.00000000000009</v>
+      </c>
+      <c r="K28" s="14">
+        <f>IF(A28&lt;10,5000*POWER(A28,2),(45000*(A28-9))+405000)</f>
+        <v>1215000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <f>A28+1</f>
         <v>28</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B2,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B2,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D2" s="6">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10">
-        <f t="shared" ref="E2:E28" si="0">VALUE(_xlfn.CONCAT(_xlfn.XLOOKUP(A2,$J$2:$J$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$K$2:$K$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$L$2:$L$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$M$2:$M$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$N$2:$N$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$O$2:$O$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$I$2:$I$5,$H$2:$H$5, "")))</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D3" s="6">
-        <v>16</v>
-      </c>
-      <c r="E3" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>7</v>
-      </c>
-      <c r="H3" s="12">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D4" s="6">
-        <v>4</v>
-      </c>
-      <c r="E4" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>7</v>
-      </c>
-      <c r="H4" s="12">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D5" s="6">
-        <v>16</v>
-      </c>
-      <c r="E5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>7</v>
-      </c>
-      <c r="H5" s="12">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D6" s="6">
-        <v>32</v>
-      </c>
-      <c r="E6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D7" s="6">
-        <v>24</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D11" s="6">
-        <v>16</v>
-      </c>
-      <c r="E11" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>7</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>7</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F15" s="1">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>8</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D17" s="6">
-        <v>16</v>
-      </c>
-      <c r="E17" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F17" s="1">
-        <v>7</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D19" s="6">
-        <v>16</v>
-      </c>
-      <c r="E19" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F19" s="1">
-        <v>7</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D20" s="6">
-        <v>32</v>
-      </c>
-      <c r="E20" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F20" s="1">
-        <v>7</v>
-      </c>
-      <c r="H20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D21" s="6">
-        <v>24</v>
-      </c>
-      <c r="E21" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F21" s="1">
-        <v>6</v>
-      </c>
-      <c r="H21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D22" s="6">
-        <v>24</v>
-      </c>
-      <c r="E22" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F23" s="1">
-        <v>8</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D24" s="6">
-        <v>16</v>
-      </c>
-      <c r="E24" s="10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F24" s="1">
-        <v>7</v>
-      </c>
-      <c r="H24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D25" s="6">
-        <v>16</v>
-      </c>
-      <c r="E25" s="10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F25" s="1">
-        <v>7</v>
-      </c>
-      <c r="H25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
-      </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F26" s="1">
-        <v>7</v>
-      </c>
-      <c r="H26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v>Link</v>
-      </c>
-      <c r="D27" s="6">
-        <v>24</v>
-      </c>
-      <c r="E27" s="10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="4" t="str">
-        <f>IF(_xlfn.XLOOKUP(B28,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B28,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
-        <v/>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F28" s="1">
-        <v>6</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>96</v>
-      </c>
-      <c r="J33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K33" t="s">
-        <v>101</v>
-      </c>
-      <c r="M33" t="s">
-        <v>97</v>
-      </c>
-      <c r="N33">
+      <c r="B29" s="16">
+        <v>90</v>
+      </c>
+      <c r="C29" s="16">
+        <f>C28+(B29*A29)</f>
+        <v>35340.000000000007</v>
+      </c>
+      <c r="D29" s="16">
+        <v>300</v>
+      </c>
+      <c r="E29" s="16">
+        <v>700</v>
+      </c>
+      <c r="F29" s="16">
+        <f>AVERAGE(D29:E29)</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="M34" t="s">
-        <v>99</v>
-      </c>
-      <c r="N34">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <f>N33</f>
-        <v>500</v>
-      </c>
-      <c r="J35">
-        <f>I35-I34</f>
-        <v>500</v>
-      </c>
-      <c r="K35">
-        <f>I35/J35</f>
-        <v>1</v>
-      </c>
-      <c r="M35" t="s">
-        <v>98</v>
-      </c>
-      <c r="N35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="I36">
-        <f t="shared" ref="I36:I54" si="1">FLOOR(I35*$N$34, 1)</f>
-        <v>1100</v>
-      </c>
-      <c r="J36">
-        <f t="shared" ref="J36:J54" si="2">I36-I35</f>
-        <v>600</v>
-      </c>
-      <c r="K36">
-        <f t="shared" ref="K36:K54" si="3">I36/J36</f>
-        <v>1.8333333333333333</v>
-      </c>
-    </row>
-    <row r="37" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="1"/>
-        <v>2420</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="2"/>
-        <v>1320</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="3"/>
-        <v>1.8333333333333333</v>
-      </c>
-    </row>
-    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H38">
-        <v>4</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="1"/>
-        <v>5324</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="2"/>
-        <v>2904</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="3"/>
-        <v>1.8333333333333333</v>
-      </c>
-    </row>
-    <row r="39" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H39">
-        <v>5</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="1"/>
-        <v>11712</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="2"/>
-        <v>6388</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="3"/>
-        <v>1.833437695679399</v>
-      </c>
-    </row>
-    <row r="40" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H40">
-        <v>6</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="1"/>
-        <v>25766</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="2"/>
-        <v>14054</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="3"/>
-        <v>1.8333570513732744</v>
-      </c>
-    </row>
-    <row r="41" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H41">
-        <v>7</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="1"/>
-        <v>56685</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="2"/>
-        <v>30919</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="3"/>
-        <v>1.833338723762088</v>
-      </c>
-    </row>
-    <row r="42" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H42">
-        <v>8</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="1"/>
-        <v>124707</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="2"/>
-        <v>68022</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="3"/>
-        <v>1.8333333333333333</v>
-      </c>
-    </row>
-    <row r="43" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H43">
+      <c r="G29" s="16">
+        <f>A29*B29*F29</f>
+        <v>1260000</v>
+      </c>
+      <c r="H29" s="16">
+        <f>G29+H28</f>
+        <v>17670000.000000004</v>
+      </c>
+      <c r="I29" s="15">
+        <f>B29/WATERS_PER_DAY</f>
         <v>9</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="1"/>
-        <v>274355</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="2"/>
-        <v>149648</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="3"/>
-        <v>1.8333355607826365</v>
-      </c>
-    </row>
-    <row r="44" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H44">
-        <v>10</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="1"/>
-        <v>603581</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="2"/>
-        <v>329226</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="3"/>
-        <v>1.8333333333333333</v>
-      </c>
-    </row>
-    <row r="45" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H45">
-        <v>11</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="1"/>
-        <v>1327878</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="2"/>
-        <v>724297</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="3"/>
-        <v>1.8333335634415164</v>
-      </c>
-    </row>
-    <row r="46" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H46">
-        <v>12</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="1"/>
-        <v>2921331</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="2"/>
-        <v>1593453</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="3"/>
-        <v>1.8333336471172981</v>
-      </c>
-    </row>
-    <row r="47" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H47">
-        <v>13</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="1"/>
-        <v>6426928</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="2"/>
-        <v>3505597</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="3"/>
-        <v>1.8333333808763528</v>
-      </c>
-    </row>
-    <row r="48" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H48">
-        <v>14</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="1"/>
-        <v>14139241</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="2"/>
-        <v>7712313</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="3"/>
-        <v>1.8333333981647271</v>
-      </c>
-    </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H49">
-        <v>15</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="1"/>
-        <v>31106330</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="2"/>
-        <v>16967089</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="3"/>
-        <v>1.8333333431562715</v>
-      </c>
-    </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H50">
-        <v>16</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="1"/>
-        <v>68433926</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="2"/>
-        <v>37327596</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="3"/>
-        <v>1.8333333333333333</v>
-      </c>
-    </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H51">
-        <v>17</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="1"/>
-        <v>150554637</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="2"/>
-        <v>82120711</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="3"/>
-        <v>1.833333335362866</v>
-      </c>
-    </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H52">
-        <v>18</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="1"/>
-        <v>331220201</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="2"/>
-        <v>180665564</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="3"/>
-        <v>1.8333333351783629</v>
-      </c>
-    </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H53">
-        <v>19</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="1"/>
-        <v>728684442</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="2"/>
-        <v>397464241</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="3"/>
-        <v>1.8333333337526583</v>
-      </c>
-    </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H54">
-        <v>20</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="1"/>
-        <v>1603105772</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="2"/>
-        <v>874421330</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="3"/>
-        <v>1.8333333337145379</v>
+      <c r="J29" s="15">
+        <f>I29+J28</f>
+        <v>216.00000000000009</v>
+      </c>
+      <c r="K29" s="14">
+        <f>IF(A29&lt;10,5000*POWER(A29,2),(45000*(A29-9))+405000)</f>
+        <v>1260000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F21" xr:uid="{DE796829-81F8-4DDB-A026-28A5EA19C969}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
-      <sortCondition ref="E1:E21"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="I1:O1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3903,4 +5586,1208 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1418663-B0D9-4839-A0F9-92369B0C3610}">
+  <dimension ref="A1:O54"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B2,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B2,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D2" s="6">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10">
+        <f t="shared" ref="E2:E28" si="0">VALUE(_xlfn.CONCAT(_xlfn.XLOOKUP(A2,$J$2:$J$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$K$2:$K$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$L$2:$L$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$M$2:$M$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$N$2:$N$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$O$2:$O$5,$H$2:$H$5, ""), _xlfn.XLOOKUP(A2,$I$2:$I$5,$H$2:$H$5, "")))</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B3,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D3" s="6">
+        <v>16</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="12">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B4,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="12">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B5,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D5" s="6">
+        <v>16</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="12">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B6,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D6" s="6">
+        <v>32</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B7,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D7" s="6">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B8,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B9,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B10,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B11,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D11" s="6">
+        <v>16</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B12,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B13,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B14,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B16,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B17,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D17" s="6">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B18,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B19,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D19" s="6">
+        <v>16</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B20,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D20" s="6">
+        <v>32</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B21,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D21" s="6">
+        <v>24</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B22,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D22" s="6">
+        <v>24</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B23,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B24,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D24" s="6">
+        <v>16</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B25,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D25" s="6">
+        <v>16</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B26,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B27,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v>Link</v>
+      </c>
+      <c r="D27" s="6">
+        <v>24</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>IF(_xlfn.XLOOKUP(B28,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, "")&lt;&gt;"", HYPERLINK(_xlfn.XLOOKUP(B28,'Artist Links'!$A$1:$A$5,'Artist Links'!$C$1:$C$5, ""), "Link"), "")</f>
+        <v/>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F28" s="1">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>99</v>
+      </c>
+      <c r="N34">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f>N33</f>
+        <v>500</v>
+      </c>
+      <c r="J35">
+        <f>I35-I34</f>
+        <v>500</v>
+      </c>
+      <c r="K35">
+        <f>I35/J35</f>
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>98</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I54" si="1">FLOOR(I35*$N$34, 1)</f>
+        <v>1100</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:J54" si="2">I36-I35</f>
+        <v>600</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:K54" si="3">I36/J36</f>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>2420</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>1320</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>5324</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>2904</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>11712</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>6388</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>1.833437695679399</v>
+      </c>
+    </row>
+    <row r="40" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>25766</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>14054</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>1.8333570513732744</v>
+      </c>
+    </row>
+    <row r="41" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>56685</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>30919</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>1.833338723762088</v>
+      </c>
+    </row>
+    <row r="42" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>124707</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>68022</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>274355</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>149648</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>1.8333355607826365</v>
+      </c>
+    </row>
+    <row r="44" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>603581</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>329226</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>11</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>1327878</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>724297</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>1.8333335634415164</v>
+      </c>
+    </row>
+    <row r="46" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>12</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>2921331</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>1593453</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>1.8333336471172981</v>
+      </c>
+    </row>
+    <row r="47" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>13</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>6426928</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>3505597</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>1.8333333808763528</v>
+      </c>
+    </row>
+    <row r="48" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>14139241</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>7712313</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>1.8333333981647271</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>31106330</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>16967089</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>1.8333333431562715</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>68433926</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>37327596</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>17</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>150554637</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>82120711</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>1.833333335362866</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>18</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>331220201</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>180665564</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>1.8333333351783629</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>19</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>728684442</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>397464241</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>1.8333333337526583</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>20</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>1603105772</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="2"/>
+        <v>874421330</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>1.8333333337145379</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F21" xr:uid="{DE796829-81F8-4DDB-A026-28A5EA19C969}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
+      <sortCondition ref="E1:E21"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="I1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA8D30A-43C8-4F99-8E7C-79E6CF75E648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76366372-ED98-437D-9C31-BD7E8D480D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
@@ -575,15 +575,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -729,36 +729,252 @@
           </c:trendline>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="10"/>
+              <c:ptCount val="82"/>
               <c:pt idx="0">
-                <c:v>10</c:v>
+                <c:v> 10 </c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>11</c:v>
+                <c:v> 11 </c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>12</c:v>
+                <c:v> 12 </c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>13</c:v>
+                <c:v> 13 </c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>14</c:v>
+                <c:v> 14 </c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>15</c:v>
+                <c:v> 15 </c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>16</c:v>
+                <c:v> 16 </c:v>
               </c:pt>
               <c:pt idx="7">
-                <c:v>17</c:v>
+                <c:v> 17 </c:v>
               </c:pt>
               <c:pt idx="8">
-                <c:v>18</c:v>
+                <c:v> 18 </c:v>
               </c:pt>
               <c:pt idx="9">
-                <c:v>19</c:v>
+                <c:v> 19 </c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v> 20 </c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v> 21 </c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v> 22 </c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v> 23 </c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v> 24 </c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v> 25 </c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v> 26 </c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v> 27 </c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v> 28 </c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v> 29 </c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v> 30 </c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v> 31 </c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v> 32 </c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v> 33 </c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v> 34 </c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v> 35 </c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v> 36 </c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v> 37 </c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v> 38 </c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v> 39 </c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v> 40 </c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v> 41 </c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v> 42 </c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v> 43 </c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v> 44 </c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v> 45 </c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v> 46 </c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v> 47 </c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v> 48 </c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v> 49 </c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v> 50 </c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v> 51 </c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v> 52 </c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v> 53 </c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v> 54 </c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v> 55 </c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v> 56 </c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v> 57 </c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v> 58 </c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v> 59 </c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v> 60 </c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v> 61 </c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v> 62 </c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v> 63 </c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v> 64 </c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v> 65 </c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v> 66 </c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v> 67 </c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v> 68 </c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v> 69 </c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v> 70 </c:v>
+              </c:pt>
+              <c:pt idx="61">
+                <c:v> 71 </c:v>
+              </c:pt>
+              <c:pt idx="62">
+                <c:v> 72 </c:v>
+              </c:pt>
+              <c:pt idx="63">
+                <c:v> 73 </c:v>
+              </c:pt>
+              <c:pt idx="64">
+                <c:v> 74 </c:v>
+              </c:pt>
+              <c:pt idx="65">
+                <c:v> 75 </c:v>
+              </c:pt>
+              <c:pt idx="66">
+                <c:v> 76 </c:v>
+              </c:pt>
+              <c:pt idx="67">
+                <c:v> 77 </c:v>
+              </c:pt>
+              <c:pt idx="68">
+                <c:v> 78 </c:v>
+              </c:pt>
+              <c:pt idx="69">
+                <c:v> 79 </c:v>
+              </c:pt>
+              <c:pt idx="70">
+                <c:v> 80 </c:v>
+              </c:pt>
+              <c:pt idx="71">
+                <c:v> 81 </c:v>
+              </c:pt>
+              <c:pt idx="72">
+                <c:v> 82 </c:v>
+              </c:pt>
+              <c:pt idx="73">
+                <c:v> 83 </c:v>
+              </c:pt>
+              <c:pt idx="74">
+                <c:v> 84 </c:v>
+              </c:pt>
+              <c:pt idx="75">
+                <c:v> 85 </c:v>
+              </c:pt>
+              <c:pt idx="76">
+                <c:v> 86 </c:v>
+              </c:pt>
+              <c:pt idx="77">
+                <c:v> 87 </c:v>
+              </c:pt>
+              <c:pt idx="78">
+                <c:v> 88 </c:v>
+              </c:pt>
+              <c:pt idx="79">
+                <c:v> 89 </c:v>
+              </c:pt>
+              <c:pt idx="80">
+                <c:v> 90 </c:v>
+              </c:pt>
+              <c:pt idx="81">
+                <c:v> 91 </c:v>
               </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -772,14 +988,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'New Pot Prices Workout'!$G$11:$G$29</c15:sqref>
+                    <c15:sqref>'New Pot Prices Workout'!$G$11:$G$101</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'New Pot Prices Workout'!$G$20:$G$29</c:f>
+              <c:f>'New Pot Prices Workout'!$G$20:$G$101</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>855000</c:v>
                 </c:pt>
@@ -809,6 +1025,222 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1260000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1305000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1350000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1395000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1440000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1485000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1530000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1575000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1620000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1665000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1710000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1755000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1845000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1890000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1935000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1980000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2025000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2070000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2115000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2160000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2205000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2250000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2295000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2340000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2385000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2430000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2475000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2520000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2565000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2610000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2655000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2700000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2745000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2790000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2835000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2880000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2925000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2970000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3015000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3060000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3105000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3150000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3195000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3240000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3285000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3330000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3375000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3420000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3465000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3510000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3555000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3600000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3645000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3690000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3735000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3780000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3825000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3870000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3915000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3960000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4005000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4050000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4095000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4140000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4185000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4230000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4275000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4320000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4365000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4410000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4455000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,16 +1303,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'New Pot Prices Workout'!$A$11:$A$29</c15:sqref>
+                          <c15:sqref>'New Pot Prices Workout'!$A$11:$A$101</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'New Pot Prices Workout'!$A$20:$A$29</c15:sqref>
+                          <c15:sqref>'New Pot Prices Workout'!$A$20:$A$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="82"/>
                       <c:pt idx="0">
                         <c:v>19</c:v>
                       </c:pt>
@@ -910,6 +1342,222 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>100</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -960,16 +1608,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'New Pot Prices Workout'!$B$11:$B$29</c15:sqref>
+                          <c15:sqref>'New Pot Prices Workout'!$B$11:$B$101</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'New Pot Prices Workout'!$B$20:$B$29</c15:sqref>
+                          <c15:sqref>'New Pot Prices Workout'!$B$20:$B$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="82"/>
                       <c:pt idx="0">
                         <c:v>90</c:v>
                       </c:pt>
@@ -998,13 +1646,229 @@
                         <c:v>90</c:v>
                       </c:pt>
                       <c:pt idx="9">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
                         <c:v>90</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-B29A-4064-88BF-9C112A83C00E}"/>
                   </c:ext>
@@ -1049,16 +1913,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'New Pot Prices Workout'!$C$11:$C$29</c15:sqref>
+                          <c15:sqref>'New Pot Prices Workout'!$C$11:$C$101</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'New Pot Prices Workout'!$C$20:$C$29</c15:sqref>
+                          <c15:sqref>'New Pot Prices Workout'!$C$20:$C$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="82"/>
                       <c:pt idx="0">
                         <c:v>15900.000000000005</c:v>
                       </c:pt>
@@ -1088,12 +1952,228 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>35340.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>37950.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>40650.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>43440.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>46320.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>49290.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>52350.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>55500.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>58740.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>62070.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>65490.000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>69000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>72600</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>76290</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>80070</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>83940</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>87900</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>91950</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>96090</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>100320</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>104640</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>109050</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>113550</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>118140</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>122820</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>127590</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>132450</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>137400</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>142440</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>147570</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>152790</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>158100</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>163500</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>168990</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>174570</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>180240</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>186000</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>191850</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>197790</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>203820</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>209940</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>216150</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>222450</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>228840</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>235320</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>241890</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>248550</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>255300</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>262140</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>269070</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>276090</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>283200</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>290400</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>297690</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>305070</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>312540</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>320100</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>327750</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>335490</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>343320</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>351240</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>359250</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>367350</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>375540</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>383820</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>392190</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>400650</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>409200</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>417840</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>426570</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>435390</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>444300</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>453300</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-B29A-4064-88BF-9C112A83C00E}"/>
                   </c:ext>
@@ -1138,16 +2218,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'New Pot Prices Workout'!$D$11:$D$29</c15:sqref>
+                          <c15:sqref>'New Pot Prices Workout'!$D$11:$D$101</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'New Pot Prices Workout'!$D$20:$D$29</c15:sqref>
+                          <c15:sqref>'New Pot Prices Workout'!$D$20:$D$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="82"/>
                       <c:pt idx="0">
                         <c:v>300</c:v>
                       </c:pt>
@@ -1176,13 +2256,229 @@
                         <c:v>300</c:v>
                       </c:pt>
                       <c:pt idx="9">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
                         <c:v>300</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-B29A-4064-88BF-9C112A83C00E}"/>
                   </c:ext>
@@ -1227,16 +2523,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'New Pot Prices Workout'!$E$11:$E$29</c15:sqref>
+                          <c15:sqref>'New Pot Prices Workout'!$E$11:$E$101</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'New Pot Prices Workout'!$E$20:$E$29</c15:sqref>
+                          <c15:sqref>'New Pot Prices Workout'!$E$20:$E$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="82"/>
                       <c:pt idx="0">
                         <c:v>700</c:v>
                       </c:pt>
@@ -1265,13 +2561,229 @@
                         <c:v>700</c:v>
                       </c:pt>
                       <c:pt idx="9">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
                         <c:v>700</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-B29A-4064-88BF-9C112A83C00E}"/>
                   </c:ext>
@@ -1316,16 +2828,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>'New Pot Prices Workout'!$F$11:$F$29</c15:sqref>
+                          <c15:sqref>'New Pot Prices Workout'!$F$11:$F$101</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>'New Pot Prices Workout'!$F$20:$F$29</c15:sqref>
+                          <c15:sqref>'New Pot Prices Workout'!$F$20:$F$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="82"/>
                       <c:pt idx="0">
                         <c:v>500</c:v>
                       </c:pt>
@@ -1354,13 +2866,229 @@
                         <c:v>500</c:v>
                       </c:pt>
                       <c:pt idx="9">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
                         <c:v>500</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-B29A-4064-88BF-9C112A83C00E}"/>
                   </c:ext>
@@ -2083,15 +3811,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3626,10 +5354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEDDD2A-07A2-46D8-B082-8643F7EA4834}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3655,40 +5383,40 @@
       <c r="A1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>134</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3696,42 +5424,42 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
-        <f>6*A2*WATER_COUNT_MULTIPLIER</f>
+      <c r="B2" s="17">
+        <f t="shared" ref="B2:B10" si="0">6*A2*WATER_COUNT_MULTIPLIER</f>
         <v>10.000000000000021</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <f>B2</f>
         <v>10.000000000000021</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>300</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>700</v>
       </c>
-      <c r="F2" s="18">
-        <f>AVERAGE(D2:E2)</f>
+      <c r="F2" s="17">
+        <f t="shared" ref="F2:F29" si="1">AVERAGE(D2:E2)</f>
         <v>500</v>
       </c>
-      <c r="G2" s="18">
-        <f>A2*B2*F2</f>
+      <c r="G2" s="17">
+        <f t="shared" ref="G2:G29" si="2">A2*B2*F2</f>
         <v>5000.0000000000109</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <f>G2</f>
         <v>5000.0000000000109</v>
       </c>
-      <c r="I2" s="14">
-        <f>B2/WATERS_PER_DAY</f>
+      <c r="I2" s="13">
+        <f t="shared" ref="I2:I29" si="3">B2/WATERS_PER_DAY</f>
         <v>1.0000000000000022</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <f>I2</f>
         <v>1.0000000000000022</v>
       </c>
-      <c r="K2" s="14">
-        <f>IF(A2&lt;10,5000*POWER(A2,2),(45000*A2)+801000)</f>
+      <c r="K2" s="13">
+        <f t="shared" ref="K2:K10" si="4">IF(A2&lt;10,5000*POWER(A2,2),(45000*A2)+801000)</f>
         <v>5000</v>
       </c>
       <c r="M2">
@@ -3743,89 +5471,89 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A29" si="5">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="18">
-        <f>6*A3*WATER_COUNT_MULTIPLIER</f>
+      <c r="B3" s="17">
+        <f t="shared" si="0"/>
         <v>20.000000000000043</v>
       </c>
-      <c r="C3" s="18">
-        <f>C2+(B3*A3)</f>
+      <c r="C3" s="17">
+        <f t="shared" ref="C3:C29" si="6">C2+(B3*A3)</f>
         <v>50.000000000000107</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>300</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>700</v>
       </c>
-      <c r="F3" s="18">
-        <f>AVERAGE(D3:E3)</f>
+      <c r="F3" s="17">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G3" s="18">
-        <f>A3*B3*F3</f>
+      <c r="G3" s="17">
+        <f t="shared" si="2"/>
         <v>20000.000000000044</v>
       </c>
-      <c r="H3" s="18">
-        <f>G3+H2</f>
+      <c r="H3" s="17">
+        <f t="shared" ref="H3:H29" si="7">G3+H2</f>
         <v>25000.000000000055</v>
       </c>
-      <c r="I3" s="14">
-        <f>B3/WATERS_PER_DAY</f>
+      <c r="I3" s="13">
+        <f t="shared" si="3"/>
         <v>2.0000000000000044</v>
       </c>
-      <c r="J3" s="14">
-        <f>I3+J2</f>
+      <c r="J3" s="13">
+        <f t="shared" ref="J3:J29" si="8">I3+J2</f>
         <v>3.0000000000000067</v>
       </c>
-      <c r="K3" s="14">
-        <f>IF(A3&lt;10,5000*POWER(A3,2),(45000*A3)+801000)</f>
+      <c r="K3" s="13">
+        <f t="shared" si="4"/>
         <v>20000</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A3+1</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="B4" s="18">
-        <f>6*A4*WATER_COUNT_MULTIPLIER</f>
+      <c r="B4" s="17">
+        <f t="shared" si="0"/>
         <v>30.00000000000006</v>
       </c>
-      <c r="C4" s="18">
-        <f>C3+(B4*A4)</f>
+      <c r="C4" s="17">
+        <f t="shared" si="6"/>
         <v>140.00000000000028</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>300</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>700</v>
       </c>
-      <c r="F4" s="18">
-        <f>AVERAGE(D4:E4)</f>
+      <c r="F4" s="17">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G4" s="18">
-        <f>A4*B4*F4</f>
+      <c r="G4" s="17">
+        <f t="shared" si="2"/>
         <v>45000.000000000095</v>
       </c>
-      <c r="H4" s="18">
-        <f>G4+H3</f>
+      <c r="H4" s="17">
+        <f t="shared" si="7"/>
         <v>70000.000000000146</v>
       </c>
-      <c r="I4" s="14">
-        <f>B4/WATERS_PER_DAY</f>
+      <c r="I4" s="13">
+        <f t="shared" si="3"/>
         <v>3.0000000000000062</v>
       </c>
-      <c r="J4" s="14">
-        <f>I4+J3</f>
+      <c r="J4" s="13">
+        <f t="shared" si="8"/>
         <v>6.0000000000000124</v>
       </c>
-      <c r="K4" s="14">
-        <f>IF(A4&lt;10,5000*POWER(A4,2),(45000*A4)+801000)</f>
+      <c r="K4" s="13">
+        <f t="shared" si="4"/>
         <v>45000</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -3834,45 +5562,45 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>A4+1</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B5" s="18">
-        <f>6*A5*WATER_COUNT_MULTIPLIER</f>
+      <c r="B5" s="17">
+        <f t="shared" si="0"/>
         <v>40.000000000000085</v>
       </c>
-      <c r="C5" s="18">
-        <f>C4+(B5*A5)</f>
+      <c r="C5" s="17">
+        <f t="shared" si="6"/>
         <v>300.00000000000063</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>300</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>700</v>
       </c>
-      <c r="F5" s="18">
-        <f>AVERAGE(D5:E5)</f>
+      <c r="F5" s="17">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G5" s="18">
-        <f>A5*B5*F5</f>
+      <c r="G5" s="17">
+        <f t="shared" si="2"/>
         <v>80000.000000000175</v>
       </c>
-      <c r="H5" s="18">
-        <f>G5+H4</f>
+      <c r="H5" s="17">
+        <f t="shared" si="7"/>
         <v>150000.00000000032</v>
       </c>
-      <c r="I5" s="14">
-        <f>B5/WATERS_PER_DAY</f>
+      <c r="I5" s="13">
+        <f t="shared" si="3"/>
         <v>4.0000000000000089</v>
       </c>
-      <c r="J5" s="14">
-        <f>I5+J4</f>
+      <c r="J5" s="13">
+        <f t="shared" si="8"/>
         <v>10.000000000000021</v>
       </c>
-      <c r="K5" s="14">
-        <f>IF(A5&lt;10,5000*POWER(A5,2),(45000*A5)+801000)</f>
+      <c r="K5" s="13">
+        <f t="shared" si="4"/>
         <v>80000</v>
       </c>
       <c r="N5">
@@ -3881,1039 +5609,4135 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5+1</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B6" s="18">
-        <f>6*A6*WATER_COUNT_MULTIPLIER</f>
+      <c r="B6" s="17">
+        <f t="shared" si="0"/>
         <v>50.000000000000099</v>
       </c>
-      <c r="C6" s="18">
-        <f>C5+(B6*A6)</f>
+      <c r="C6" s="17">
+        <f t="shared" si="6"/>
         <v>550.00000000000114</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>300</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>700</v>
       </c>
-      <c r="F6" s="18">
-        <f>AVERAGE(D6:E6)</f>
+      <c r="F6" s="17">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G6" s="18">
-        <f>A6*B6*F6</f>
+      <c r="G6" s="17">
+        <f t="shared" si="2"/>
         <v>125000.00000000026</v>
       </c>
-      <c r="H6" s="18">
-        <f>G6+H5</f>
+      <c r="H6" s="17">
+        <f t="shared" si="7"/>
         <v>275000.00000000058</v>
       </c>
-      <c r="I6" s="14">
-        <f>B6/WATERS_PER_DAY</f>
+      <c r="I6" s="13">
+        <f t="shared" si="3"/>
         <v>5.0000000000000098</v>
       </c>
-      <c r="J6" s="14">
-        <f>I6+J5</f>
+      <c r="J6" s="13">
+        <f t="shared" si="8"/>
         <v>15.000000000000032</v>
       </c>
-      <c r="K6" s="14">
-        <f>IF(A6&lt;10,5000*POWER(A6,2),(45000*A6)+801000)</f>
+      <c r="K6" s="13">
+        <f t="shared" si="4"/>
         <v>125000</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6+1</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B7" s="18">
-        <f>6*A7*WATER_COUNT_MULTIPLIER</f>
+      <c r="B7" s="17">
+        <f t="shared" si="0"/>
         <v>60.000000000000121</v>
       </c>
-      <c r="C7" s="18">
-        <f>C6+(B7*A7)</f>
+      <c r="C7" s="17">
+        <f t="shared" si="6"/>
         <v>910.00000000000182</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>300</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>700</v>
       </c>
-      <c r="F7" s="18">
-        <f>AVERAGE(D7:E7)</f>
+      <c r="F7" s="17">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G7" s="18">
-        <f>A7*B7*F7</f>
+      <c r="G7" s="17">
+        <f t="shared" si="2"/>
         <v>180000.00000000038</v>
       </c>
-      <c r="H7" s="18">
-        <f>G7+H6</f>
+      <c r="H7" s="17">
+        <f t="shared" si="7"/>
         <v>455000.00000000093</v>
       </c>
-      <c r="I7" s="14">
-        <f>B7/WATERS_PER_DAY</f>
+      <c r="I7" s="13">
+        <f t="shared" si="3"/>
         <v>6.0000000000000124</v>
       </c>
-      <c r="J7" s="14">
-        <f>I7+J6</f>
+      <c r="J7" s="13">
+        <f t="shared" si="8"/>
         <v>21.000000000000043</v>
       </c>
-      <c r="K7" s="14">
-        <f>IF(A7&lt;10,5000*POWER(A7,2),(45000*A7)+801000)</f>
+      <c r="K7" s="13">
+        <f t="shared" si="4"/>
         <v>180000</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7+1</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B8" s="18">
-        <f>6*A8*WATER_COUNT_MULTIPLIER</f>
+      <c r="B8" s="17">
+        <f t="shared" si="0"/>
         <v>70.000000000000142</v>
       </c>
-      <c r="C8" s="18">
-        <f>C7+(B8*A8)</f>
+      <c r="C8" s="17">
+        <f t="shared" si="6"/>
         <v>1400.0000000000027</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>300</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>700</v>
       </c>
-      <c r="F8" s="18">
-        <f>AVERAGE(D8:E8)</f>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G8" s="18">
-        <f>A8*B8*F8</f>
+      <c r="G8" s="17">
+        <f t="shared" si="2"/>
         <v>245000.00000000052</v>
       </c>
-      <c r="H8" s="18">
-        <f>G8+H7</f>
+      <c r="H8" s="17">
+        <f t="shared" si="7"/>
         <v>700000.0000000014</v>
       </c>
-      <c r="I8" s="14">
-        <f>B8/WATERS_PER_DAY</f>
+      <c r="I8" s="13">
+        <f t="shared" si="3"/>
         <v>7.0000000000000142</v>
       </c>
-      <c r="J8" s="14">
-        <f>I8+J7</f>
+      <c r="J8" s="13">
+        <f t="shared" si="8"/>
         <v>28.000000000000057</v>
       </c>
-      <c r="K8" s="14">
-        <f>IF(A8&lt;10,5000*POWER(A8,2),(45000*A8)+801000)</f>
+      <c r="K8" s="13">
+        <f t="shared" si="4"/>
         <v>245000</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8+1</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B9" s="18">
-        <f>6*A9*WATER_COUNT_MULTIPLIER</f>
+      <c r="B9" s="17">
+        <f t="shared" si="0"/>
         <v>80.000000000000171</v>
       </c>
-      <c r="C9" s="18">
-        <f>C8+(B9*A9)</f>
+      <c r="C9" s="17">
+        <f t="shared" si="6"/>
         <v>2040.0000000000041</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>300</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>700</v>
       </c>
-      <c r="F9" s="18">
-        <f>AVERAGE(D9:E9)</f>
+      <c r="F9" s="17">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G9" s="18">
-        <f>A9*B9*F9</f>
+      <c r="G9" s="17">
+        <f t="shared" si="2"/>
         <v>320000.0000000007</v>
       </c>
-      <c r="H9" s="18">
-        <f>G9+H8</f>
+      <c r="H9" s="17">
+        <f t="shared" si="7"/>
         <v>1020000.0000000021</v>
       </c>
-      <c r="I9" s="14">
-        <f>B9/WATERS_PER_DAY</f>
+      <c r="I9" s="13">
+        <f t="shared" si="3"/>
         <v>8.0000000000000178</v>
       </c>
-      <c r="J9" s="14">
-        <f>I9+J8</f>
+      <c r="J9" s="13">
+        <f t="shared" si="8"/>
         <v>36.000000000000071</v>
       </c>
-      <c r="K9" s="14">
-        <f>IF(A9&lt;10,5000*POWER(A9,2),(45000*A9)+801000)</f>
+      <c r="K9" s="13">
+        <f t="shared" si="4"/>
         <v>320000</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9+1</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B10" s="18">
-        <f>6*A10*WATER_COUNT_MULTIPLIER</f>
+      <c r="B10" s="17">
+        <f t="shared" si="0"/>
         <v>90.000000000000185</v>
       </c>
-      <c r="C10" s="18">
-        <f>C9+(B10*A10)</f>
+      <c r="C10" s="17">
+        <f t="shared" si="6"/>
         <v>2850.0000000000059</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>300</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>700</v>
       </c>
-      <c r="F10" s="18">
-        <f>AVERAGE(D10:E10)</f>
+      <c r="F10" s="17">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G10" s="18">
-        <f>A10*B10*F10</f>
+      <c r="G10" s="17">
+        <f t="shared" si="2"/>
         <v>405000.00000000087</v>
       </c>
-      <c r="H10" s="18">
-        <f>G10+H9</f>
+      <c r="H10" s="17">
+        <f t="shared" si="7"/>
         <v>1425000.000000003</v>
       </c>
-      <c r="I10" s="14">
-        <f>B10/WATERS_PER_DAY</f>
+      <c r="I10" s="13">
+        <f t="shared" si="3"/>
         <v>9.0000000000000178</v>
       </c>
-      <c r="J10" s="14">
-        <f>I10+J9</f>
+      <c r="J10" s="13">
+        <f t="shared" si="8"/>
         <v>45.000000000000085</v>
       </c>
-      <c r="K10" s="14">
-        <f>IF(A10&lt;10,5000*POWER(A10,2),(45000*A10)+801000)</f>
+      <c r="K10" s="13">
+        <f t="shared" si="4"/>
         <v>405000</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <f>A10+1</f>
+      <c r="A11" s="16">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>90</v>
       </c>
-      <c r="C11" s="16">
-        <f>C10+(B11*A11)</f>
+      <c r="C11" s="15">
+        <f t="shared" si="6"/>
         <v>3750.0000000000059</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>300</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>700</v>
       </c>
-      <c r="F11" s="16">
-        <f>AVERAGE(D11:E11)</f>
+      <c r="F11" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G11" s="16">
-        <f>A11*B11*F11</f>
+      <c r="G11" s="15">
+        <f t="shared" si="2"/>
         <v>450000</v>
       </c>
-      <c r="H11" s="16">
-        <f>G11+H10</f>
+      <c r="H11" s="15">
+        <f t="shared" si="7"/>
         <v>1875000.000000003</v>
       </c>
-      <c r="I11" s="15">
-        <f>B11/WATERS_PER_DAY</f>
+      <c r="I11" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J11" s="15">
-        <f>I11+J10</f>
+      <c r="J11" s="14">
+        <f t="shared" si="8"/>
         <v>54.000000000000085</v>
       </c>
-      <c r="K11" s="14">
-        <f>IF(A11&lt;10,5000*POWER(A11,2),(45000*(A11-9))+405000)</f>
+      <c r="K11" s="13">
+        <f t="shared" ref="K11:K29" si="9">IF(A11&lt;10,5000*POWER(A11,2),(45000*(A11-9))+405000)</f>
         <v>450000</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <f>A11+1</f>
+      <c r="A12" s="16">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>90</v>
       </c>
-      <c r="C12" s="16">
-        <f>C11+(B12*A12)</f>
+      <c r="C12" s="15">
+        <f t="shared" si="6"/>
         <v>4740.0000000000055</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>300</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>700</v>
       </c>
-      <c r="F12" s="16">
-        <f>AVERAGE(D12:E12)</f>
+      <c r="F12" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G12" s="16">
-        <f>A12*B12*F12</f>
+      <c r="G12" s="15">
+        <f t="shared" si="2"/>
         <v>495000</v>
       </c>
-      <c r="H12" s="16">
-        <f>G12+H11</f>
+      <c r="H12" s="15">
+        <f t="shared" si="7"/>
         <v>2370000.0000000028</v>
       </c>
-      <c r="I12" s="15">
-        <f>B12/WATERS_PER_DAY</f>
+      <c r="I12" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J12" s="15">
-        <f>I12+J11</f>
+      <c r="J12" s="14">
+        <f t="shared" si="8"/>
         <v>63.000000000000085</v>
       </c>
-      <c r="K12" s="14">
-        <f>IF(A12&lt;10,5000*POWER(A12,2),(45000*(A12-9))+405000)</f>
+      <c r="K12" s="13">
+        <f t="shared" si="9"/>
         <v>495000</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <f>A12+1</f>
+      <c r="A13" s="16">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>90</v>
       </c>
-      <c r="C13" s="16">
-        <f>C12+(B13*A13)</f>
+      <c r="C13" s="15">
+        <f t="shared" si="6"/>
         <v>5820.0000000000055</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>300</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>700</v>
       </c>
-      <c r="F13" s="16">
-        <f>AVERAGE(D13:E13)</f>
+      <c r="F13" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G13" s="16">
-        <f>A13*B13*F13</f>
+      <c r="G13" s="15">
+        <f t="shared" si="2"/>
         <v>540000</v>
       </c>
-      <c r="H13" s="16">
-        <f>G13+H12</f>
+      <c r="H13" s="15">
+        <f t="shared" si="7"/>
         <v>2910000.0000000028</v>
       </c>
-      <c r="I13" s="15">
-        <f>B13/WATERS_PER_DAY</f>
+      <c r="I13" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J13" s="15">
-        <f>I13+J12</f>
+      <c r="J13" s="14">
+        <f t="shared" si="8"/>
         <v>72.000000000000085</v>
       </c>
-      <c r="K13" s="14">
-        <f>IF(A13&lt;10,5000*POWER(A13,2),(45000*(A13-9))+405000)</f>
+      <c r="K13" s="13">
+        <f t="shared" si="9"/>
         <v>540000</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <f>A13+1</f>
+      <c r="A14" s="16">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>90</v>
       </c>
-      <c r="C14" s="16">
-        <f>C13+(B14*A14)</f>
+      <c r="C14" s="15">
+        <f t="shared" si="6"/>
         <v>6990.0000000000055</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>300</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>700</v>
       </c>
-      <c r="F14" s="16">
-        <f>AVERAGE(D14:E14)</f>
+      <c r="F14" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G14" s="16">
-        <f>A14*B14*F14</f>
+      <c r="G14" s="15">
+        <f t="shared" si="2"/>
         <v>585000</v>
       </c>
-      <c r="H14" s="16">
-        <f>G14+H13</f>
+      <c r="H14" s="15">
+        <f t="shared" si="7"/>
         <v>3495000.0000000028</v>
       </c>
-      <c r="I14" s="15">
-        <f>B14/WATERS_PER_DAY</f>
+      <c r="I14" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J14" s="15">
-        <f>I14+J13</f>
+      <c r="J14" s="14">
+        <f t="shared" si="8"/>
         <v>81.000000000000085</v>
       </c>
-      <c r="K14" s="14">
-        <f>IF(A14&lt;10,5000*POWER(A14,2),(45000*(A14-9))+405000)</f>
+      <c r="K14" s="13">
+        <f t="shared" si="9"/>
         <v>585000</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <f>A14+1</f>
+      <c r="A15" s="16">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>90</v>
       </c>
-      <c r="C15" s="16">
-        <f>C14+(B15*A15)</f>
+      <c r="C15" s="15">
+        <f t="shared" si="6"/>
         <v>8250.0000000000055</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>300</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>700</v>
       </c>
-      <c r="F15" s="16">
-        <f>AVERAGE(D15:E15)</f>
+      <c r="F15" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G15" s="16">
-        <f>A15*B15*F15</f>
+      <c r="G15" s="15">
+        <f t="shared" si="2"/>
         <v>630000</v>
       </c>
-      <c r="H15" s="16">
-        <f>G15+H14</f>
+      <c r="H15" s="15">
+        <f t="shared" si="7"/>
         <v>4125000.0000000028</v>
       </c>
-      <c r="I15" s="15">
-        <f>B15/WATERS_PER_DAY</f>
+      <c r="I15" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J15" s="15">
-        <f>I15+J14</f>
+      <c r="J15" s="14">
+        <f t="shared" si="8"/>
         <v>90.000000000000085</v>
       </c>
-      <c r="K15" s="14">
-        <f>IF(A15&lt;10,5000*POWER(A15,2),(45000*(A15-9))+405000)</f>
+      <c r="K15" s="13">
+        <f t="shared" si="9"/>
         <v>630000</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <f>A15+1</f>
+      <c r="A16" s="16">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>90</v>
       </c>
-      <c r="C16" s="16">
-        <f>C15+(B16*A16)</f>
+      <c r="C16" s="15">
+        <f t="shared" si="6"/>
         <v>9600.0000000000055</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>300</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>700</v>
       </c>
-      <c r="F16" s="16">
-        <f>AVERAGE(D16:E16)</f>
+      <c r="F16" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G16" s="16">
-        <f>A16*B16*F16</f>
+      <c r="G16" s="15">
+        <f t="shared" si="2"/>
         <v>675000</v>
       </c>
-      <c r="H16" s="16">
-        <f>G16+H15</f>
+      <c r="H16" s="15">
+        <f t="shared" si="7"/>
         <v>4800000.0000000028</v>
       </c>
-      <c r="I16" s="15">
-        <f>B16/WATERS_PER_DAY</f>
+      <c r="I16" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J16" s="15">
-        <f>I16+J15</f>
+      <c r="J16" s="14">
+        <f t="shared" si="8"/>
         <v>99.000000000000085</v>
       </c>
-      <c r="K16" s="14">
-        <f>IF(A16&lt;10,5000*POWER(A16,2),(45000*(A16-9))+405000)</f>
+      <c r="K16" s="13">
+        <f t="shared" si="9"/>
         <v>675000</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <f>A16+1</f>
+      <c r="A17" s="16">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>90</v>
       </c>
-      <c r="C17" s="16">
-        <f>C16+(B17*A17)</f>
+      <c r="C17" s="15">
+        <f t="shared" si="6"/>
         <v>11040.000000000005</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>300</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>700</v>
       </c>
-      <c r="F17" s="16">
-        <f>AVERAGE(D17:E17)</f>
+      <c r="F17" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G17" s="16">
-        <f>A17*B17*F17</f>
+      <c r="G17" s="15">
+        <f t="shared" si="2"/>
         <v>720000</v>
       </c>
-      <c r="H17" s="16">
-        <f>G17+H16</f>
+      <c r="H17" s="15">
+        <f t="shared" si="7"/>
         <v>5520000.0000000028</v>
       </c>
-      <c r="I17" s="15">
-        <f>B17/WATERS_PER_DAY</f>
+      <c r="I17" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J17" s="15">
-        <f>I17+J16</f>
+      <c r="J17" s="14">
+        <f t="shared" si="8"/>
         <v>108.00000000000009</v>
       </c>
-      <c r="K17" s="14">
-        <f>IF(A17&lt;10,5000*POWER(A17,2),(45000*(A17-9))+405000)</f>
+      <c r="K17" s="13">
+        <f t="shared" si="9"/>
         <v>720000</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <f>A17+1</f>
+      <c r="A18" s="16">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>90</v>
       </c>
-      <c r="C18" s="16">
-        <f>C17+(B18*A18)</f>
+      <c r="C18" s="15">
+        <f t="shared" si="6"/>
         <v>12570.000000000005</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>300</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>700</v>
       </c>
-      <c r="F18" s="16">
-        <f>AVERAGE(D18:E18)</f>
+      <c r="F18" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G18" s="16">
-        <f>A18*B18*F18</f>
+      <c r="G18" s="15">
+        <f t="shared" si="2"/>
         <v>765000</v>
       </c>
-      <c r="H18" s="16">
-        <f>G18+H17</f>
+      <c r="H18" s="15">
+        <f t="shared" si="7"/>
         <v>6285000.0000000028</v>
       </c>
-      <c r="I18" s="15">
-        <f>B18/WATERS_PER_DAY</f>
+      <c r="I18" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J18" s="15">
-        <f>I18+J17</f>
+      <c r="J18" s="14">
+        <f t="shared" si="8"/>
         <v>117.00000000000009</v>
       </c>
-      <c r="K18" s="14">
-        <f>IF(A18&lt;10,5000*POWER(A18,2),(45000*(A18-9))+405000)</f>
+      <c r="K18" s="13">
+        <f t="shared" si="9"/>
         <v>765000</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <f>A18+1</f>
+      <c r="A19" s="16">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>90</v>
       </c>
-      <c r="C19" s="16">
-        <f>C18+(B19*A19)</f>
+      <c r="C19" s="15">
+        <f t="shared" si="6"/>
         <v>14190.000000000005</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>300</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>700</v>
       </c>
-      <c r="F19" s="16">
-        <f>AVERAGE(D19:E19)</f>
+      <c r="F19" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G19" s="16">
-        <f>A19*B19*F19</f>
+      <c r="G19" s="15">
+        <f t="shared" si="2"/>
         <v>810000</v>
       </c>
-      <c r="H19" s="16">
-        <f>G19+H18</f>
+      <c r="H19" s="15">
+        <f t="shared" si="7"/>
         <v>7095000.0000000028</v>
       </c>
-      <c r="I19" s="15">
-        <f>B19/WATERS_PER_DAY</f>
+      <c r="I19" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J19" s="15">
-        <f>I19+J18</f>
+      <c r="J19" s="14">
+        <f t="shared" si="8"/>
         <v>126.00000000000009</v>
       </c>
-      <c r="K19" s="14">
-        <f>IF(A19&lt;10,5000*POWER(A19,2),(45000*(A19-9))+405000)</f>
+      <c r="K19" s="13">
+        <f t="shared" si="9"/>
         <v>810000</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <f>A19+1</f>
+      <c r="A20" s="16">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>90</v>
       </c>
-      <c r="C20" s="16">
-        <f>C19+(B20*A20)</f>
+      <c r="C20" s="15">
+        <f t="shared" si="6"/>
         <v>15900.000000000005</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>300</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>700</v>
       </c>
-      <c r="F20" s="16">
-        <f>AVERAGE(D20:E20)</f>
+      <c r="F20" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G20" s="16">
-        <f>A20*B20*F20</f>
+      <c r="G20" s="15">
+        <f t="shared" si="2"/>
         <v>855000</v>
       </c>
-      <c r="H20" s="16">
-        <f>G20+H19</f>
+      <c r="H20" s="15">
+        <f t="shared" si="7"/>
         <v>7950000.0000000028</v>
       </c>
-      <c r="I20" s="15">
-        <f>B20/WATERS_PER_DAY</f>
+      <c r="I20" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J20" s="15">
-        <f>I20+J19</f>
+      <c r="J20" s="14">
+        <f t="shared" si="8"/>
         <v>135.00000000000009</v>
       </c>
-      <c r="K20" s="14">
-        <f>IF(A20&lt;10,5000*POWER(A20,2),(45000*(A20-9))+405000)</f>
+      <c r="K20" s="13">
+        <f t="shared" si="9"/>
         <v>855000</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <f>A20+1</f>
+      <c r="A21" s="16">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>90</v>
       </c>
-      <c r="C21" s="16">
-        <f>C20+(B21*A21)</f>
+      <c r="C21" s="15">
+        <f t="shared" si="6"/>
         <v>17700.000000000007</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>300</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>700</v>
       </c>
-      <c r="F21" s="16">
-        <f>AVERAGE(D21:E21)</f>
+      <c r="F21" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G21" s="16">
-        <f>A21*B21*F21</f>
+      <c r="G21" s="15">
+        <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="H21" s="16">
-        <f>G21+H20</f>
+      <c r="H21" s="15">
+        <f t="shared" si="7"/>
         <v>8850000.0000000037</v>
       </c>
-      <c r="I21" s="15">
-        <f>B21/WATERS_PER_DAY</f>
+      <c r="I21" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J21" s="15">
-        <f>I21+J20</f>
+      <c r="J21" s="14">
+        <f t="shared" si="8"/>
         <v>144.00000000000009</v>
       </c>
-      <c r="K21" s="14">
-        <f>IF(A21&lt;10,5000*POWER(A21,2),(45000*(A21-9))+405000)</f>
+      <c r="K21" s="13">
+        <f t="shared" si="9"/>
         <v>900000</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <f>A21+1</f>
+      <c r="A22" s="16">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>90</v>
       </c>
-      <c r="C22" s="16">
-        <f>C21+(B22*A22)</f>
+      <c r="C22" s="15">
+        <f t="shared" si="6"/>
         <v>19590.000000000007</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>300</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>700</v>
       </c>
-      <c r="F22" s="16">
-        <f>AVERAGE(D22:E22)</f>
+      <c r="F22" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G22" s="16">
-        <f>A22*B22*F22</f>
+      <c r="G22" s="15">
+        <f t="shared" si="2"/>
         <v>945000</v>
       </c>
-      <c r="H22" s="16">
-        <f>G22+H21</f>
+      <c r="H22" s="15">
+        <f t="shared" si="7"/>
         <v>9795000.0000000037</v>
       </c>
-      <c r="I22" s="15">
-        <f>B22/WATERS_PER_DAY</f>
+      <c r="I22" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J22" s="15">
-        <f>I22+J21</f>
+      <c r="J22" s="14">
+        <f t="shared" si="8"/>
         <v>153.00000000000009</v>
       </c>
-      <c r="K22" s="14">
-        <f>IF(A22&lt;10,5000*POWER(A22,2),(45000*(A22-9))+405000)</f>
+      <c r="K22" s="13">
+        <f t="shared" si="9"/>
         <v>945000</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <f>A22+1</f>
+      <c r="A23" s="16">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>90</v>
       </c>
-      <c r="C23" s="16">
-        <f>C22+(B23*A23)</f>
+      <c r="C23" s="15">
+        <f t="shared" si="6"/>
         <v>21570.000000000007</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>300</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>700</v>
       </c>
-      <c r="F23" s="16">
-        <f>AVERAGE(D23:E23)</f>
+      <c r="F23" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G23" s="16">
-        <f>A23*B23*F23</f>
+      <c r="G23" s="15">
+        <f t="shared" si="2"/>
         <v>990000</v>
       </c>
-      <c r="H23" s="16">
-        <f>G23+H22</f>
+      <c r="H23" s="15">
+        <f t="shared" si="7"/>
         <v>10785000.000000004</v>
       </c>
-      <c r="I23" s="15">
-        <f>B23/WATERS_PER_DAY</f>
+      <c r="I23" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J23" s="15">
-        <f>I23+J22</f>
+      <c r="J23" s="14">
+        <f t="shared" si="8"/>
         <v>162.00000000000009</v>
       </c>
-      <c r="K23" s="14">
-        <f>IF(A23&lt;10,5000*POWER(A23,2),(45000*(A23-9))+405000)</f>
+      <c r="K23" s="13">
+        <f t="shared" si="9"/>
         <v>990000</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <f>A23+1</f>
+      <c r="A24" s="16">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>90</v>
       </c>
-      <c r="C24" s="16">
-        <f>C23+(B24*A24)</f>
+      <c r="C24" s="15">
+        <f t="shared" si="6"/>
         <v>23640.000000000007</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <v>300</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>700</v>
       </c>
-      <c r="F24" s="16">
-        <f>AVERAGE(D24:E24)</f>
+      <c r="F24" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G24" s="16">
-        <f>A24*B24*F24</f>
+      <c r="G24" s="15">
+        <f t="shared" si="2"/>
         <v>1035000</v>
       </c>
-      <c r="H24" s="16">
-        <f>G24+H23</f>
+      <c r="H24" s="15">
+        <f t="shared" si="7"/>
         <v>11820000.000000004</v>
       </c>
-      <c r="I24" s="15">
-        <f>B24/WATERS_PER_DAY</f>
+      <c r="I24" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J24" s="15">
-        <f>I24+J23</f>
+      <c r="J24" s="14">
+        <f t="shared" si="8"/>
         <v>171.00000000000009</v>
       </c>
-      <c r="K24" s="14">
-        <f>IF(A24&lt;10,5000*POWER(A24,2),(45000*(A24-9))+405000)</f>
+      <c r="K24" s="13">
+        <f t="shared" si="9"/>
         <v>1035000</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
-        <f>A24+1</f>
+      <c r="A25" s="16">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>90</v>
       </c>
-      <c r="C25" s="16">
-        <f>C24+(B25*A25)</f>
+      <c r="C25" s="15">
+        <f t="shared" si="6"/>
         <v>25800.000000000007</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <v>300</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <v>700</v>
       </c>
-      <c r="F25" s="16">
-        <f>AVERAGE(D25:E25)</f>
+      <c r="F25" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G25" s="16">
-        <f>A25*B25*F25</f>
+      <c r="G25" s="15">
+        <f t="shared" si="2"/>
         <v>1080000</v>
       </c>
-      <c r="H25" s="16">
-        <f>G25+H24</f>
+      <c r="H25" s="15">
+        <f t="shared" si="7"/>
         <v>12900000.000000004</v>
       </c>
-      <c r="I25" s="15">
-        <f>B25/WATERS_PER_DAY</f>
+      <c r="I25" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J25" s="15">
-        <f>I25+J24</f>
+      <c r="J25" s="14">
+        <f t="shared" si="8"/>
         <v>180.00000000000009</v>
       </c>
-      <c r="K25" s="14">
-        <f>IF(A25&lt;10,5000*POWER(A25,2),(45000*(A25-9))+405000)</f>
+      <c r="K25" s="13">
+        <f t="shared" si="9"/>
         <v>1080000</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <f>A25+1</f>
+      <c r="A26" s="16">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>90</v>
       </c>
-      <c r="C26" s="16">
-        <f>C25+(B26*A26)</f>
+      <c r="C26" s="15">
+        <f t="shared" si="6"/>
         <v>28050.000000000007</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15">
         <v>300</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>700</v>
       </c>
-      <c r="F26" s="16">
-        <f>AVERAGE(D26:E26)</f>
+      <c r="F26" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G26" s="16">
-        <f>A26*B26*F26</f>
+      <c r="G26" s="15">
+        <f t="shared" si="2"/>
         <v>1125000</v>
       </c>
-      <c r="H26" s="16">
-        <f>G26+H25</f>
+      <c r="H26" s="15">
+        <f t="shared" si="7"/>
         <v>14025000.000000004</v>
       </c>
-      <c r="I26" s="15">
-        <f>B26/WATERS_PER_DAY</f>
+      <c r="I26" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J26" s="15">
-        <f>I26+J25</f>
+      <c r="J26" s="14">
+        <f t="shared" si="8"/>
         <v>189.00000000000009</v>
       </c>
-      <c r="K26" s="14">
-        <f>IF(A26&lt;10,5000*POWER(A26,2),(45000*(A26-9))+405000)</f>
+      <c r="K26" s="13">
+        <f t="shared" si="9"/>
         <v>1125000</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <f>A26+1</f>
+      <c r="A27" s="16">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>90</v>
       </c>
-      <c r="C27" s="16">
-        <f>C26+(B27*A27)</f>
+      <c r="C27" s="15">
+        <f t="shared" si="6"/>
         <v>30390.000000000007</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <v>300</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <v>700</v>
       </c>
-      <c r="F27" s="16">
-        <f>AVERAGE(D27:E27)</f>
+      <c r="F27" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G27" s="16">
-        <f>A27*B27*F27</f>
+      <c r="G27" s="15">
+        <f t="shared" si="2"/>
         <v>1170000</v>
       </c>
-      <c r="H27" s="16">
-        <f>G27+H26</f>
+      <c r="H27" s="15">
+        <f t="shared" si="7"/>
         <v>15195000.000000004</v>
       </c>
-      <c r="I27" s="15">
-        <f>B27/WATERS_PER_DAY</f>
+      <c r="I27" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J27" s="15">
-        <f>I27+J26</f>
+      <c r="J27" s="14">
+        <f t="shared" si="8"/>
         <v>198.00000000000009</v>
       </c>
-      <c r="K27" s="14">
-        <f>IF(A27&lt;10,5000*POWER(A27,2),(45000*(A27-9))+405000)</f>
+      <c r="K27" s="13">
+        <f t="shared" si="9"/>
         <v>1170000</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <f>A27+1</f>
+      <c r="A28" s="16">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <v>90</v>
       </c>
-      <c r="C28" s="16">
-        <f>C27+(B28*A28)</f>
+      <c r="C28" s="15">
+        <f t="shared" si="6"/>
         <v>32820.000000000007</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <v>300</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <v>700</v>
       </c>
-      <c r="F28" s="16">
-        <f>AVERAGE(D28:E28)</f>
+      <c r="F28" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G28" s="16">
-        <f>A28*B28*F28</f>
+      <c r="G28" s="15">
+        <f t="shared" si="2"/>
         <v>1215000</v>
       </c>
-      <c r="H28" s="16">
-        <f>G28+H27</f>
+      <c r="H28" s="15">
+        <f t="shared" si="7"/>
         <v>16410000.000000004</v>
       </c>
-      <c r="I28" s="15">
-        <f>B28/WATERS_PER_DAY</f>
+      <c r="I28" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J28" s="15">
-        <f>I28+J27</f>
+      <c r="J28" s="14">
+        <f t="shared" si="8"/>
         <v>207.00000000000009</v>
       </c>
-      <c r="K28" s="14">
-        <f>IF(A28&lt;10,5000*POWER(A28,2),(45000*(A28-9))+405000)</f>
+      <c r="K28" s="13">
+        <f t="shared" si="9"/>
         <v>1215000</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <f>A28+1</f>
+      <c r="A29" s="16">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>90</v>
       </c>
-      <c r="C29" s="16">
-        <f>C28+(B29*A29)</f>
+      <c r="C29" s="15">
+        <f t="shared" si="6"/>
         <v>35340.000000000007</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <v>300</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <v>700</v>
       </c>
-      <c r="F29" s="16">
-        <f>AVERAGE(D29:E29)</f>
+      <c r="F29" s="15">
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="G29" s="16">
-        <f>A29*B29*F29</f>
+      <c r="G29" s="15">
+        <f t="shared" si="2"/>
         <v>1260000</v>
       </c>
-      <c r="H29" s="16">
-        <f>G29+H28</f>
+      <c r="H29" s="15">
+        <f t="shared" si="7"/>
         <v>17670000.000000004</v>
       </c>
-      <c r="I29" s="15">
-        <f>B29/WATERS_PER_DAY</f>
+      <c r="I29" s="14">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J29" s="15">
-        <f>I29+J28</f>
+      <c r="J29" s="14">
+        <f t="shared" si="8"/>
         <v>216.00000000000009</v>
       </c>
-      <c r="K29" s="14">
-        <f>IF(A29&lt;10,5000*POWER(A29,2),(45000*(A29-9))+405000)</f>
+      <c r="K29" s="13">
+        <f t="shared" si="9"/>
         <v>1260000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <f t="shared" ref="A30:A93" si="10">A29+1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="15">
+        <v>90</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" ref="C30:C93" si="11">C29+(B30*A30)</f>
+        <v>37950.000000000007</v>
+      </c>
+      <c r="D30" s="15">
+        <v>300</v>
+      </c>
+      <c r="E30" s="15">
+        <v>700</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" ref="F30:F93" si="12">AVERAGE(D30:E30)</f>
+        <v>500</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" ref="G30:G93" si="13">A30*B30*F30</f>
+        <v>1305000</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" ref="H30:H93" si="14">G30+H29</f>
+        <v>18975000.000000004</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" ref="I30:I93" si="15">B30/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" ref="J30:J93" si="16">I30+J29</f>
+        <v>225.00000000000009</v>
+      </c>
+      <c r="K30" s="13">
+        <f t="shared" ref="K30:K93" si="17">IF(A30&lt;10,5000*POWER(A30,2),(45000*(A30-9))+405000)</f>
+        <v>1305000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="15">
+        <v>90</v>
+      </c>
+      <c r="C31" s="15">
+        <f t="shared" si="11"/>
+        <v>40650.000000000007</v>
+      </c>
+      <c r="D31" s="15">
+        <v>300</v>
+      </c>
+      <c r="E31" s="15">
+        <v>700</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G31" s="15">
+        <f t="shared" si="13"/>
+        <v>1350000</v>
+      </c>
+      <c r="H31" s="15">
+        <f t="shared" si="14"/>
+        <v>20325000.000000004</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="16"/>
+        <v>234.00000000000009</v>
+      </c>
+      <c r="K31" s="13">
+        <f t="shared" si="17"/>
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="15">
+        <v>90</v>
+      </c>
+      <c r="C32" s="15">
+        <f t="shared" si="11"/>
+        <v>43440.000000000007</v>
+      </c>
+      <c r="D32" s="15">
+        <v>300</v>
+      </c>
+      <c r="E32" s="15">
+        <v>700</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="13"/>
+        <v>1395000</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="14"/>
+        <v>21720000.000000004</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J32" s="14">
+        <f t="shared" si="16"/>
+        <v>243.00000000000009</v>
+      </c>
+      <c r="K32" s="13">
+        <f t="shared" si="17"/>
+        <v>1395000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="15">
+        <v>90</v>
+      </c>
+      <c r="C33" s="15">
+        <f t="shared" si="11"/>
+        <v>46320.000000000007</v>
+      </c>
+      <c r="D33" s="15">
+        <v>300</v>
+      </c>
+      <c r="E33" s="15">
+        <v>700</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="13"/>
+        <v>1440000</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="14"/>
+        <v>23160000.000000004</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J33" s="14">
+        <f t="shared" si="16"/>
+        <v>252.00000000000009</v>
+      </c>
+      <c r="K33" s="13">
+        <f t="shared" si="17"/>
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="15">
+        <v>90</v>
+      </c>
+      <c r="C34" s="15">
+        <f t="shared" si="11"/>
+        <v>49290.000000000007</v>
+      </c>
+      <c r="D34" s="15">
+        <v>300</v>
+      </c>
+      <c r="E34" s="15">
+        <v>700</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="13"/>
+        <v>1485000</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="14"/>
+        <v>24645000.000000004</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J34" s="14">
+        <f t="shared" si="16"/>
+        <v>261.00000000000011</v>
+      </c>
+      <c r="K34" s="13">
+        <f t="shared" si="17"/>
+        <v>1485000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="15">
+        <v>90</v>
+      </c>
+      <c r="C35" s="15">
+        <f t="shared" si="11"/>
+        <v>52350.000000000007</v>
+      </c>
+      <c r="D35" s="15">
+        <v>300</v>
+      </c>
+      <c r="E35" s="15">
+        <v>700</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="13"/>
+        <v>1530000</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" si="14"/>
+        <v>26175000.000000004</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J35" s="14">
+        <f t="shared" si="16"/>
+        <v>270.00000000000011</v>
+      </c>
+      <c r="K35" s="13">
+        <f t="shared" si="17"/>
+        <v>1530000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="15">
+        <v>90</v>
+      </c>
+      <c r="C36" s="15">
+        <f t="shared" si="11"/>
+        <v>55500.000000000007</v>
+      </c>
+      <c r="D36" s="15">
+        <v>300</v>
+      </c>
+      <c r="E36" s="15">
+        <v>700</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="13"/>
+        <v>1575000</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="14"/>
+        <v>27750000.000000004</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J36" s="14">
+        <f t="shared" si="16"/>
+        <v>279.00000000000011</v>
+      </c>
+      <c r="K36" s="13">
+        <f t="shared" si="17"/>
+        <v>1575000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="15">
+        <v>90</v>
+      </c>
+      <c r="C37" s="15">
+        <f t="shared" si="11"/>
+        <v>58740.000000000007</v>
+      </c>
+      <c r="D37" s="15">
+        <v>300</v>
+      </c>
+      <c r="E37" s="15">
+        <v>700</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="13"/>
+        <v>1620000</v>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="14"/>
+        <v>29370000.000000004</v>
+      </c>
+      <c r="I37" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J37" s="14">
+        <f t="shared" si="16"/>
+        <v>288.00000000000011</v>
+      </c>
+      <c r="K37" s="13">
+        <f t="shared" si="17"/>
+        <v>1620000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="15">
+        <v>90</v>
+      </c>
+      <c r="C38" s="15">
+        <f t="shared" si="11"/>
+        <v>62070.000000000007</v>
+      </c>
+      <c r="D38" s="15">
+        <v>300</v>
+      </c>
+      <c r="E38" s="15">
+        <v>700</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" si="13"/>
+        <v>1665000</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="14"/>
+        <v>31035000.000000004</v>
+      </c>
+      <c r="I38" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J38" s="14">
+        <f t="shared" si="16"/>
+        <v>297.00000000000011</v>
+      </c>
+      <c r="K38" s="13">
+        <f t="shared" si="17"/>
+        <v>1665000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="15">
+        <v>90</v>
+      </c>
+      <c r="C39" s="15">
+        <f t="shared" si="11"/>
+        <v>65490.000000000007</v>
+      </c>
+      <c r="D39" s="15">
+        <v>300</v>
+      </c>
+      <c r="E39" s="15">
+        <v>700</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G39" s="15">
+        <f t="shared" si="13"/>
+        <v>1710000</v>
+      </c>
+      <c r="H39" s="15">
+        <f t="shared" si="14"/>
+        <v>32745000.000000004</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J39" s="14">
+        <f t="shared" si="16"/>
+        <v>306.00000000000011</v>
+      </c>
+      <c r="K39" s="13">
+        <f t="shared" si="17"/>
+        <v>1710000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="15">
+        <v>90</v>
+      </c>
+      <c r="C40" s="15">
+        <f t="shared" si="11"/>
+        <v>69000</v>
+      </c>
+      <c r="D40" s="15">
+        <v>300</v>
+      </c>
+      <c r="E40" s="15">
+        <v>700</v>
+      </c>
+      <c r="F40" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G40" s="15">
+        <f t="shared" si="13"/>
+        <v>1755000</v>
+      </c>
+      <c r="H40" s="15">
+        <f t="shared" si="14"/>
+        <v>34500000</v>
+      </c>
+      <c r="I40" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J40" s="14">
+        <f t="shared" si="16"/>
+        <v>315.00000000000011</v>
+      </c>
+      <c r="K40" s="13">
+        <f t="shared" si="17"/>
+        <v>1755000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="15">
+        <v>90</v>
+      </c>
+      <c r="C41" s="15">
+        <f t="shared" si="11"/>
+        <v>72600</v>
+      </c>
+      <c r="D41" s="15">
+        <v>300</v>
+      </c>
+      <c r="E41" s="15">
+        <v>700</v>
+      </c>
+      <c r="F41" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G41" s="15">
+        <f t="shared" si="13"/>
+        <v>1800000</v>
+      </c>
+      <c r="H41" s="15">
+        <f t="shared" si="14"/>
+        <v>36300000</v>
+      </c>
+      <c r="I41" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J41" s="14">
+        <f t="shared" si="16"/>
+        <v>324.00000000000011</v>
+      </c>
+      <c r="K41" s="13">
+        <f t="shared" si="17"/>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <f t="shared" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="15">
+        <v>90</v>
+      </c>
+      <c r="C42" s="15">
+        <f t="shared" si="11"/>
+        <v>76290</v>
+      </c>
+      <c r="D42" s="15">
+        <v>300</v>
+      </c>
+      <c r="E42" s="15">
+        <v>700</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G42" s="15">
+        <f t="shared" si="13"/>
+        <v>1845000</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="14"/>
+        <v>38145000</v>
+      </c>
+      <c r="I42" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J42" s="14">
+        <f t="shared" si="16"/>
+        <v>333.00000000000011</v>
+      </c>
+      <c r="K42" s="13">
+        <f t="shared" si="17"/>
+        <v>1845000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="15">
+        <v>90</v>
+      </c>
+      <c r="C43" s="15">
+        <f t="shared" si="11"/>
+        <v>80070</v>
+      </c>
+      <c r="D43" s="15">
+        <v>300</v>
+      </c>
+      <c r="E43" s="15">
+        <v>700</v>
+      </c>
+      <c r="F43" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G43" s="15">
+        <f t="shared" si="13"/>
+        <v>1890000</v>
+      </c>
+      <c r="H43" s="15">
+        <f t="shared" si="14"/>
+        <v>40035000</v>
+      </c>
+      <c r="I43" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J43" s="14">
+        <f t="shared" si="16"/>
+        <v>342.00000000000011</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" si="17"/>
+        <v>1890000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <f t="shared" si="10"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="15">
+        <v>90</v>
+      </c>
+      <c r="C44" s="15">
+        <f t="shared" si="11"/>
+        <v>83940</v>
+      </c>
+      <c r="D44" s="15">
+        <v>300</v>
+      </c>
+      <c r="E44" s="15">
+        <v>700</v>
+      </c>
+      <c r="F44" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G44" s="15">
+        <f t="shared" si="13"/>
+        <v>1935000</v>
+      </c>
+      <c r="H44" s="15">
+        <f t="shared" si="14"/>
+        <v>41970000</v>
+      </c>
+      <c r="I44" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J44" s="14">
+        <f t="shared" si="16"/>
+        <v>351.00000000000011</v>
+      </c>
+      <c r="K44" s="13">
+        <f t="shared" si="17"/>
+        <v>1935000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="15">
+        <v>90</v>
+      </c>
+      <c r="C45" s="15">
+        <f t="shared" si="11"/>
+        <v>87900</v>
+      </c>
+      <c r="D45" s="15">
+        <v>300</v>
+      </c>
+      <c r="E45" s="15">
+        <v>700</v>
+      </c>
+      <c r="F45" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G45" s="15">
+        <f t="shared" si="13"/>
+        <v>1980000</v>
+      </c>
+      <c r="H45" s="15">
+        <f t="shared" si="14"/>
+        <v>43950000</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J45" s="14">
+        <f t="shared" si="16"/>
+        <v>360.00000000000011</v>
+      </c>
+      <c r="K45" s="13">
+        <f t="shared" si="17"/>
+        <v>1980000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="15">
+        <v>90</v>
+      </c>
+      <c r="C46" s="15">
+        <f t="shared" si="11"/>
+        <v>91950</v>
+      </c>
+      <c r="D46" s="15">
+        <v>300</v>
+      </c>
+      <c r="E46" s="15">
+        <v>700</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G46" s="15">
+        <f t="shared" si="13"/>
+        <v>2025000</v>
+      </c>
+      <c r="H46" s="15">
+        <f t="shared" si="14"/>
+        <v>45975000</v>
+      </c>
+      <c r="I46" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J46" s="14">
+        <f t="shared" si="16"/>
+        <v>369.00000000000011</v>
+      </c>
+      <c r="K46" s="13">
+        <f t="shared" si="17"/>
+        <v>2025000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="15">
+        <v>90</v>
+      </c>
+      <c r="C47" s="15">
+        <f t="shared" si="11"/>
+        <v>96090</v>
+      </c>
+      <c r="D47" s="15">
+        <v>300</v>
+      </c>
+      <c r="E47" s="15">
+        <v>700</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" si="13"/>
+        <v>2070000</v>
+      </c>
+      <c r="H47" s="15">
+        <f t="shared" si="14"/>
+        <v>48045000</v>
+      </c>
+      <c r="I47" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J47" s="14">
+        <f t="shared" si="16"/>
+        <v>378.00000000000011</v>
+      </c>
+      <c r="K47" s="13">
+        <f t="shared" si="17"/>
+        <v>2070000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="15">
+        <v>90</v>
+      </c>
+      <c r="C48" s="15">
+        <f t="shared" si="11"/>
+        <v>100320</v>
+      </c>
+      <c r="D48" s="15">
+        <v>300</v>
+      </c>
+      <c r="E48" s="15">
+        <v>700</v>
+      </c>
+      <c r="F48" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G48" s="15">
+        <f t="shared" si="13"/>
+        <v>2115000</v>
+      </c>
+      <c r="H48" s="15">
+        <f t="shared" si="14"/>
+        <v>50160000</v>
+      </c>
+      <c r="I48" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J48" s="14">
+        <f t="shared" si="16"/>
+        <v>387.00000000000011</v>
+      </c>
+      <c r="K48" s="13">
+        <f t="shared" si="17"/>
+        <v>2115000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="15">
+        <v>90</v>
+      </c>
+      <c r="C49" s="15">
+        <f t="shared" si="11"/>
+        <v>104640</v>
+      </c>
+      <c r="D49" s="15">
+        <v>300</v>
+      </c>
+      <c r="E49" s="15">
+        <v>700</v>
+      </c>
+      <c r="F49" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G49" s="15">
+        <f t="shared" si="13"/>
+        <v>2160000</v>
+      </c>
+      <c r="H49" s="15">
+        <f t="shared" si="14"/>
+        <v>52320000</v>
+      </c>
+      <c r="I49" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J49" s="14">
+        <f t="shared" si="16"/>
+        <v>396.00000000000011</v>
+      </c>
+      <c r="K49" s="13">
+        <f t="shared" si="17"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="15">
+        <v>90</v>
+      </c>
+      <c r="C50" s="15">
+        <f t="shared" si="11"/>
+        <v>109050</v>
+      </c>
+      <c r="D50" s="15">
+        <v>300</v>
+      </c>
+      <c r="E50" s="15">
+        <v>700</v>
+      </c>
+      <c r="F50" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G50" s="15">
+        <f t="shared" si="13"/>
+        <v>2205000</v>
+      </c>
+      <c r="H50" s="15">
+        <f t="shared" si="14"/>
+        <v>54525000</v>
+      </c>
+      <c r="I50" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J50" s="14">
+        <f t="shared" si="16"/>
+        <v>405.00000000000011</v>
+      </c>
+      <c r="K50" s="13">
+        <f t="shared" si="17"/>
+        <v>2205000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="15">
+        <v>90</v>
+      </c>
+      <c r="C51" s="15">
+        <f t="shared" si="11"/>
+        <v>113550</v>
+      </c>
+      <c r="D51" s="15">
+        <v>300</v>
+      </c>
+      <c r="E51" s="15">
+        <v>700</v>
+      </c>
+      <c r="F51" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G51" s="15">
+        <f t="shared" si="13"/>
+        <v>2250000</v>
+      </c>
+      <c r="H51" s="15">
+        <f t="shared" si="14"/>
+        <v>56775000</v>
+      </c>
+      <c r="I51" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J51" s="14">
+        <f t="shared" si="16"/>
+        <v>414.00000000000011</v>
+      </c>
+      <c r="K51" s="13">
+        <f t="shared" si="17"/>
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <f t="shared" si="10"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="15">
+        <v>90</v>
+      </c>
+      <c r="C52" s="15">
+        <f t="shared" si="11"/>
+        <v>118140</v>
+      </c>
+      <c r="D52" s="15">
+        <v>300</v>
+      </c>
+      <c r="E52" s="15">
+        <v>700</v>
+      </c>
+      <c r="F52" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G52" s="15">
+        <f t="shared" si="13"/>
+        <v>2295000</v>
+      </c>
+      <c r="H52" s="15">
+        <f t="shared" si="14"/>
+        <v>59070000</v>
+      </c>
+      <c r="I52" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J52" s="14">
+        <f t="shared" si="16"/>
+        <v>423.00000000000011</v>
+      </c>
+      <c r="K52" s="13">
+        <f t="shared" si="17"/>
+        <v>2295000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <f t="shared" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="15">
+        <v>90</v>
+      </c>
+      <c r="C53" s="15">
+        <f t="shared" si="11"/>
+        <v>122820</v>
+      </c>
+      <c r="D53" s="15">
+        <v>300</v>
+      </c>
+      <c r="E53" s="15">
+        <v>700</v>
+      </c>
+      <c r="F53" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G53" s="15">
+        <f t="shared" si="13"/>
+        <v>2340000</v>
+      </c>
+      <c r="H53" s="15">
+        <f t="shared" si="14"/>
+        <v>61410000</v>
+      </c>
+      <c r="I53" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J53" s="14">
+        <f t="shared" si="16"/>
+        <v>432.00000000000011</v>
+      </c>
+      <c r="K53" s="13">
+        <f t="shared" si="17"/>
+        <v>2340000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <f t="shared" si="10"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="15">
+        <v>90</v>
+      </c>
+      <c r="C54" s="15">
+        <f t="shared" si="11"/>
+        <v>127590</v>
+      </c>
+      <c r="D54" s="15">
+        <v>300</v>
+      </c>
+      <c r="E54" s="15">
+        <v>700</v>
+      </c>
+      <c r="F54" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G54" s="15">
+        <f t="shared" si="13"/>
+        <v>2385000</v>
+      </c>
+      <c r="H54" s="15">
+        <f t="shared" si="14"/>
+        <v>63795000</v>
+      </c>
+      <c r="I54" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J54" s="14">
+        <f t="shared" si="16"/>
+        <v>441.00000000000011</v>
+      </c>
+      <c r="K54" s="13">
+        <f t="shared" si="17"/>
+        <v>2385000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="15">
+        <v>90</v>
+      </c>
+      <c r="C55" s="15">
+        <f t="shared" si="11"/>
+        <v>132450</v>
+      </c>
+      <c r="D55" s="15">
+        <v>300</v>
+      </c>
+      <c r="E55" s="15">
+        <v>700</v>
+      </c>
+      <c r="F55" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G55" s="15">
+        <f t="shared" si="13"/>
+        <v>2430000</v>
+      </c>
+      <c r="H55" s="15">
+        <f t="shared" si="14"/>
+        <v>66225000</v>
+      </c>
+      <c r="I55" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J55" s="14">
+        <f t="shared" si="16"/>
+        <v>450.00000000000011</v>
+      </c>
+      <c r="K55" s="13">
+        <f t="shared" si="17"/>
+        <v>2430000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="15">
+        <v>90</v>
+      </c>
+      <c r="C56" s="15">
+        <f t="shared" si="11"/>
+        <v>137400</v>
+      </c>
+      <c r="D56" s="15">
+        <v>300</v>
+      </c>
+      <c r="E56" s="15">
+        <v>700</v>
+      </c>
+      <c r="F56" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G56" s="15">
+        <f t="shared" si="13"/>
+        <v>2475000</v>
+      </c>
+      <c r="H56" s="15">
+        <f t="shared" si="14"/>
+        <v>68700000</v>
+      </c>
+      <c r="I56" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J56" s="14">
+        <f t="shared" si="16"/>
+        <v>459.00000000000011</v>
+      </c>
+      <c r="K56" s="13">
+        <f t="shared" si="17"/>
+        <v>2475000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="15">
+        <v>90</v>
+      </c>
+      <c r="C57" s="15">
+        <f t="shared" si="11"/>
+        <v>142440</v>
+      </c>
+      <c r="D57" s="15">
+        <v>300</v>
+      </c>
+      <c r="E57" s="15">
+        <v>700</v>
+      </c>
+      <c r="F57" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G57" s="15">
+        <f t="shared" si="13"/>
+        <v>2520000</v>
+      </c>
+      <c r="H57" s="15">
+        <f t="shared" si="14"/>
+        <v>71220000</v>
+      </c>
+      <c r="I57" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J57" s="14">
+        <f t="shared" si="16"/>
+        <v>468.00000000000011</v>
+      </c>
+      <c r="K57" s="13">
+        <f t="shared" si="17"/>
+        <v>2520000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <f t="shared" si="10"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="15">
+        <v>90</v>
+      </c>
+      <c r="C58" s="15">
+        <f t="shared" si="11"/>
+        <v>147570</v>
+      </c>
+      <c r="D58" s="15">
+        <v>300</v>
+      </c>
+      <c r="E58" s="15">
+        <v>700</v>
+      </c>
+      <c r="F58" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G58" s="15">
+        <f t="shared" si="13"/>
+        <v>2565000</v>
+      </c>
+      <c r="H58" s="15">
+        <f t="shared" si="14"/>
+        <v>73785000</v>
+      </c>
+      <c r="I58" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J58" s="14">
+        <f t="shared" si="16"/>
+        <v>477.00000000000011</v>
+      </c>
+      <c r="K58" s="13">
+        <f t="shared" si="17"/>
+        <v>2565000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <f t="shared" si="10"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="15">
+        <v>90</v>
+      </c>
+      <c r="C59" s="15">
+        <f t="shared" si="11"/>
+        <v>152790</v>
+      </c>
+      <c r="D59" s="15">
+        <v>300</v>
+      </c>
+      <c r="E59" s="15">
+        <v>700</v>
+      </c>
+      <c r="F59" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G59" s="15">
+        <f t="shared" si="13"/>
+        <v>2610000</v>
+      </c>
+      <c r="H59" s="15">
+        <f t="shared" si="14"/>
+        <v>76395000</v>
+      </c>
+      <c r="I59" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J59" s="14">
+        <f t="shared" si="16"/>
+        <v>486.00000000000011</v>
+      </c>
+      <c r="K59" s="13">
+        <f t="shared" si="17"/>
+        <v>2610000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <f t="shared" si="10"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="15">
+        <v>90</v>
+      </c>
+      <c r="C60" s="15">
+        <f t="shared" si="11"/>
+        <v>158100</v>
+      </c>
+      <c r="D60" s="15">
+        <v>300</v>
+      </c>
+      <c r="E60" s="15">
+        <v>700</v>
+      </c>
+      <c r="F60" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G60" s="15">
+        <f t="shared" si="13"/>
+        <v>2655000</v>
+      </c>
+      <c r="H60" s="15">
+        <f t="shared" si="14"/>
+        <v>79050000</v>
+      </c>
+      <c r="I60" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J60" s="14">
+        <f t="shared" si="16"/>
+        <v>495.00000000000011</v>
+      </c>
+      <c r="K60" s="13">
+        <f t="shared" si="17"/>
+        <v>2655000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="15">
+        <v>90</v>
+      </c>
+      <c r="C61" s="15">
+        <f t="shared" si="11"/>
+        <v>163500</v>
+      </c>
+      <c r="D61" s="15">
+        <v>300</v>
+      </c>
+      <c r="E61" s="15">
+        <v>700</v>
+      </c>
+      <c r="F61" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G61" s="15">
+        <f t="shared" si="13"/>
+        <v>2700000</v>
+      </c>
+      <c r="H61" s="15">
+        <f t="shared" si="14"/>
+        <v>81750000</v>
+      </c>
+      <c r="I61" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J61" s="14">
+        <f t="shared" si="16"/>
+        <v>504.00000000000011</v>
+      </c>
+      <c r="K61" s="13">
+        <f t="shared" si="17"/>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <f t="shared" si="10"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="15">
+        <v>90</v>
+      </c>
+      <c r="C62" s="15">
+        <f t="shared" si="11"/>
+        <v>168990</v>
+      </c>
+      <c r="D62" s="15">
+        <v>300</v>
+      </c>
+      <c r="E62" s="15">
+        <v>700</v>
+      </c>
+      <c r="F62" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G62" s="15">
+        <f t="shared" si="13"/>
+        <v>2745000</v>
+      </c>
+      <c r="H62" s="15">
+        <f t="shared" si="14"/>
+        <v>84495000</v>
+      </c>
+      <c r="I62" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J62" s="14">
+        <f t="shared" si="16"/>
+        <v>513.00000000000011</v>
+      </c>
+      <c r="K62" s="13">
+        <f t="shared" si="17"/>
+        <v>2745000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <f t="shared" si="10"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="15">
+        <v>90</v>
+      </c>
+      <c r="C63" s="15">
+        <f t="shared" si="11"/>
+        <v>174570</v>
+      </c>
+      <c r="D63" s="15">
+        <v>300</v>
+      </c>
+      <c r="E63" s="15">
+        <v>700</v>
+      </c>
+      <c r="F63" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G63" s="15">
+        <f t="shared" si="13"/>
+        <v>2790000</v>
+      </c>
+      <c r="H63" s="15">
+        <f t="shared" si="14"/>
+        <v>87285000</v>
+      </c>
+      <c r="I63" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J63" s="14">
+        <f t="shared" si="16"/>
+        <v>522.00000000000011</v>
+      </c>
+      <c r="K63" s="13">
+        <f t="shared" si="17"/>
+        <v>2790000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <f t="shared" si="10"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="15">
+        <v>90</v>
+      </c>
+      <c r="C64" s="15">
+        <f t="shared" si="11"/>
+        <v>180240</v>
+      </c>
+      <c r="D64" s="15">
+        <v>300</v>
+      </c>
+      <c r="E64" s="15">
+        <v>700</v>
+      </c>
+      <c r="F64" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G64" s="15">
+        <f t="shared" si="13"/>
+        <v>2835000</v>
+      </c>
+      <c r="H64" s="15">
+        <f t="shared" si="14"/>
+        <v>90120000</v>
+      </c>
+      <c r="I64" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J64" s="14">
+        <f t="shared" si="16"/>
+        <v>531.00000000000011</v>
+      </c>
+      <c r="K64" s="13">
+        <f t="shared" si="17"/>
+        <v>2835000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="15">
+        <v>90</v>
+      </c>
+      <c r="C65" s="15">
+        <f t="shared" si="11"/>
+        <v>186000</v>
+      </c>
+      <c r="D65" s="15">
+        <v>300</v>
+      </c>
+      <c r="E65" s="15">
+        <v>700</v>
+      </c>
+      <c r="F65" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G65" s="15">
+        <f t="shared" si="13"/>
+        <v>2880000</v>
+      </c>
+      <c r="H65" s="15">
+        <f t="shared" si="14"/>
+        <v>93000000</v>
+      </c>
+      <c r="I65" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J65" s="14">
+        <f t="shared" si="16"/>
+        <v>540.00000000000011</v>
+      </c>
+      <c r="K65" s="13">
+        <f t="shared" si="17"/>
+        <v>2880000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <f t="shared" si="10"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="15">
+        <v>90</v>
+      </c>
+      <c r="C66" s="15">
+        <f t="shared" si="11"/>
+        <v>191850</v>
+      </c>
+      <c r="D66" s="15">
+        <v>300</v>
+      </c>
+      <c r="E66" s="15">
+        <v>700</v>
+      </c>
+      <c r="F66" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G66" s="15">
+        <f t="shared" si="13"/>
+        <v>2925000</v>
+      </c>
+      <c r="H66" s="15">
+        <f t="shared" si="14"/>
+        <v>95925000</v>
+      </c>
+      <c r="I66" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J66" s="14">
+        <f t="shared" si="16"/>
+        <v>549.00000000000011</v>
+      </c>
+      <c r="K66" s="13">
+        <f t="shared" si="17"/>
+        <v>2925000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="15">
+        <v>90</v>
+      </c>
+      <c r="C67" s="15">
+        <f t="shared" si="11"/>
+        <v>197790</v>
+      </c>
+      <c r="D67" s="15">
+        <v>300</v>
+      </c>
+      <c r="E67" s="15">
+        <v>700</v>
+      </c>
+      <c r="F67" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G67" s="15">
+        <f t="shared" si="13"/>
+        <v>2970000</v>
+      </c>
+      <c r="H67" s="15">
+        <f t="shared" si="14"/>
+        <v>98895000</v>
+      </c>
+      <c r="I67" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J67" s="14">
+        <f t="shared" si="16"/>
+        <v>558.00000000000011</v>
+      </c>
+      <c r="K67" s="13">
+        <f t="shared" si="17"/>
+        <v>2970000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <f t="shared" si="10"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="15">
+        <v>90</v>
+      </c>
+      <c r="C68" s="15">
+        <f t="shared" si="11"/>
+        <v>203820</v>
+      </c>
+      <c r="D68" s="15">
+        <v>300</v>
+      </c>
+      <c r="E68" s="15">
+        <v>700</v>
+      </c>
+      <c r="F68" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G68" s="15">
+        <f t="shared" si="13"/>
+        <v>3015000</v>
+      </c>
+      <c r="H68" s="15">
+        <f t="shared" si="14"/>
+        <v>101910000</v>
+      </c>
+      <c r="I68" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J68" s="14">
+        <f t="shared" si="16"/>
+        <v>567.00000000000011</v>
+      </c>
+      <c r="K68" s="13">
+        <f t="shared" si="17"/>
+        <v>3015000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="15">
+        <v>90</v>
+      </c>
+      <c r="C69" s="15">
+        <f t="shared" si="11"/>
+        <v>209940</v>
+      </c>
+      <c r="D69" s="15">
+        <v>300</v>
+      </c>
+      <c r="E69" s="15">
+        <v>700</v>
+      </c>
+      <c r="F69" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G69" s="15">
+        <f t="shared" si="13"/>
+        <v>3060000</v>
+      </c>
+      <c r="H69" s="15">
+        <f t="shared" si="14"/>
+        <v>104970000</v>
+      </c>
+      <c r="I69" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J69" s="14">
+        <f t="shared" si="16"/>
+        <v>576.00000000000011</v>
+      </c>
+      <c r="K69" s="13">
+        <f t="shared" si="17"/>
+        <v>3060000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="15">
+        <v>90</v>
+      </c>
+      <c r="C70" s="15">
+        <f t="shared" si="11"/>
+        <v>216150</v>
+      </c>
+      <c r="D70" s="15">
+        <v>300</v>
+      </c>
+      <c r="E70" s="15">
+        <v>700</v>
+      </c>
+      <c r="F70" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G70" s="15">
+        <f t="shared" si="13"/>
+        <v>3105000</v>
+      </c>
+      <c r="H70" s="15">
+        <f t="shared" si="14"/>
+        <v>108075000</v>
+      </c>
+      <c r="I70" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J70" s="14">
+        <f t="shared" si="16"/>
+        <v>585.00000000000011</v>
+      </c>
+      <c r="K70" s="13">
+        <f t="shared" si="17"/>
+        <v>3105000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="15">
+        <v>90</v>
+      </c>
+      <c r="C71" s="15">
+        <f t="shared" si="11"/>
+        <v>222450</v>
+      </c>
+      <c r="D71" s="15">
+        <v>300</v>
+      </c>
+      <c r="E71" s="15">
+        <v>700</v>
+      </c>
+      <c r="F71" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G71" s="15">
+        <f t="shared" si="13"/>
+        <v>3150000</v>
+      </c>
+      <c r="H71" s="15">
+        <f t="shared" si="14"/>
+        <v>111225000</v>
+      </c>
+      <c r="I71" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J71" s="14">
+        <f t="shared" si="16"/>
+        <v>594.00000000000011</v>
+      </c>
+      <c r="K71" s="13">
+        <f t="shared" si="17"/>
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <f t="shared" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="15">
+        <v>90</v>
+      </c>
+      <c r="C72" s="15">
+        <f t="shared" si="11"/>
+        <v>228840</v>
+      </c>
+      <c r="D72" s="15">
+        <v>300</v>
+      </c>
+      <c r="E72" s="15">
+        <v>700</v>
+      </c>
+      <c r="F72" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G72" s="15">
+        <f t="shared" si="13"/>
+        <v>3195000</v>
+      </c>
+      <c r="H72" s="15">
+        <f t="shared" si="14"/>
+        <v>114420000</v>
+      </c>
+      <c r="I72" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J72" s="14">
+        <f t="shared" si="16"/>
+        <v>603.00000000000011</v>
+      </c>
+      <c r="K72" s="13">
+        <f t="shared" si="17"/>
+        <v>3195000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="15">
+        <v>90</v>
+      </c>
+      <c r="C73" s="15">
+        <f t="shared" si="11"/>
+        <v>235320</v>
+      </c>
+      <c r="D73" s="15">
+        <v>300</v>
+      </c>
+      <c r="E73" s="15">
+        <v>700</v>
+      </c>
+      <c r="F73" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G73" s="15">
+        <f t="shared" si="13"/>
+        <v>3240000</v>
+      </c>
+      <c r="H73" s="15">
+        <f t="shared" si="14"/>
+        <v>117660000</v>
+      </c>
+      <c r="I73" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J73" s="14">
+        <f t="shared" si="16"/>
+        <v>612.00000000000011</v>
+      </c>
+      <c r="K73" s="13">
+        <f t="shared" si="17"/>
+        <v>3240000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <f t="shared" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="15">
+        <v>90</v>
+      </c>
+      <c r="C74" s="15">
+        <f t="shared" si="11"/>
+        <v>241890</v>
+      </c>
+      <c r="D74" s="15">
+        <v>300</v>
+      </c>
+      <c r="E74" s="15">
+        <v>700</v>
+      </c>
+      <c r="F74" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G74" s="15">
+        <f t="shared" si="13"/>
+        <v>3285000</v>
+      </c>
+      <c r="H74" s="15">
+        <f t="shared" si="14"/>
+        <v>120945000</v>
+      </c>
+      <c r="I74" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J74" s="14">
+        <f t="shared" si="16"/>
+        <v>621.00000000000011</v>
+      </c>
+      <c r="K74" s="13">
+        <f t="shared" si="17"/>
+        <v>3285000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="15">
+        <v>90</v>
+      </c>
+      <c r="C75" s="15">
+        <f t="shared" si="11"/>
+        <v>248550</v>
+      </c>
+      <c r="D75" s="15">
+        <v>300</v>
+      </c>
+      <c r="E75" s="15">
+        <v>700</v>
+      </c>
+      <c r="F75" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G75" s="15">
+        <f t="shared" si="13"/>
+        <v>3330000</v>
+      </c>
+      <c r="H75" s="15">
+        <f t="shared" si="14"/>
+        <v>124275000</v>
+      </c>
+      <c r="I75" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J75" s="14">
+        <f t="shared" si="16"/>
+        <v>630.00000000000011</v>
+      </c>
+      <c r="K75" s="13">
+        <f t="shared" si="17"/>
+        <v>3330000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="15">
+        <v>90</v>
+      </c>
+      <c r="C76" s="15">
+        <f t="shared" si="11"/>
+        <v>255300</v>
+      </c>
+      <c r="D76" s="15">
+        <v>300</v>
+      </c>
+      <c r="E76" s="15">
+        <v>700</v>
+      </c>
+      <c r="F76" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G76" s="15">
+        <f t="shared" si="13"/>
+        <v>3375000</v>
+      </c>
+      <c r="H76" s="15">
+        <f t="shared" si="14"/>
+        <v>127650000</v>
+      </c>
+      <c r="I76" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J76" s="14">
+        <f t="shared" si="16"/>
+        <v>639.00000000000011</v>
+      </c>
+      <c r="K76" s="13">
+        <f t="shared" si="17"/>
+        <v>3375000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="15">
+        <v>90</v>
+      </c>
+      <c r="C77" s="15">
+        <f t="shared" si="11"/>
+        <v>262140</v>
+      </c>
+      <c r="D77" s="15">
+        <v>300</v>
+      </c>
+      <c r="E77" s="15">
+        <v>700</v>
+      </c>
+      <c r="F77" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G77" s="15">
+        <f t="shared" si="13"/>
+        <v>3420000</v>
+      </c>
+      <c r="H77" s="15">
+        <f t="shared" si="14"/>
+        <v>131070000</v>
+      </c>
+      <c r="I77" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J77" s="14">
+        <f t="shared" si="16"/>
+        <v>648.00000000000011</v>
+      </c>
+      <c r="K77" s="13">
+        <f t="shared" si="17"/>
+        <v>3420000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
+        <f t="shared" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="15">
+        <v>90</v>
+      </c>
+      <c r="C78" s="15">
+        <f t="shared" si="11"/>
+        <v>269070</v>
+      </c>
+      <c r="D78" s="15">
+        <v>300</v>
+      </c>
+      <c r="E78" s="15">
+        <v>700</v>
+      </c>
+      <c r="F78" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G78" s="15">
+        <f t="shared" si="13"/>
+        <v>3465000</v>
+      </c>
+      <c r="H78" s="15">
+        <f t="shared" si="14"/>
+        <v>134535000</v>
+      </c>
+      <c r="I78" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J78" s="14">
+        <f t="shared" si="16"/>
+        <v>657.00000000000011</v>
+      </c>
+      <c r="K78" s="13">
+        <f t="shared" si="17"/>
+        <v>3465000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="16">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="15">
+        <v>90</v>
+      </c>
+      <c r="C79" s="15">
+        <f t="shared" si="11"/>
+        <v>276090</v>
+      </c>
+      <c r="D79" s="15">
+        <v>300</v>
+      </c>
+      <c r="E79" s="15">
+        <v>700</v>
+      </c>
+      <c r="F79" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G79" s="15">
+        <f t="shared" si="13"/>
+        <v>3510000</v>
+      </c>
+      <c r="H79" s="15">
+        <f t="shared" si="14"/>
+        <v>138045000</v>
+      </c>
+      <c r="I79" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J79" s="14">
+        <f t="shared" si="16"/>
+        <v>666.00000000000011</v>
+      </c>
+      <c r="K79" s="13">
+        <f t="shared" si="17"/>
+        <v>3510000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="15">
+        <v>90</v>
+      </c>
+      <c r="C80" s="15">
+        <f t="shared" si="11"/>
+        <v>283200</v>
+      </c>
+      <c r="D80" s="15">
+        <v>300</v>
+      </c>
+      <c r="E80" s="15">
+        <v>700</v>
+      </c>
+      <c r="F80" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G80" s="15">
+        <f t="shared" si="13"/>
+        <v>3555000</v>
+      </c>
+      <c r="H80" s="15">
+        <f t="shared" si="14"/>
+        <v>141600000</v>
+      </c>
+      <c r="I80" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J80" s="14">
+        <f t="shared" si="16"/>
+        <v>675.00000000000011</v>
+      </c>
+      <c r="K80" s="13">
+        <f t="shared" si="17"/>
+        <v>3555000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="16">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="15">
+        <v>90</v>
+      </c>
+      <c r="C81" s="15">
+        <f t="shared" si="11"/>
+        <v>290400</v>
+      </c>
+      <c r="D81" s="15">
+        <v>300</v>
+      </c>
+      <c r="E81" s="15">
+        <v>700</v>
+      </c>
+      <c r="F81" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G81" s="15">
+        <f t="shared" si="13"/>
+        <v>3600000</v>
+      </c>
+      <c r="H81" s="15">
+        <f t="shared" si="14"/>
+        <v>145200000</v>
+      </c>
+      <c r="I81" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J81" s="14">
+        <f t="shared" si="16"/>
+        <v>684.00000000000011</v>
+      </c>
+      <c r="K81" s="13">
+        <f t="shared" si="17"/>
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
+        <f t="shared" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="15">
+        <v>90</v>
+      </c>
+      <c r="C82" s="15">
+        <f t="shared" si="11"/>
+        <v>297690</v>
+      </c>
+      <c r="D82" s="15">
+        <v>300</v>
+      </c>
+      <c r="E82" s="15">
+        <v>700</v>
+      </c>
+      <c r="F82" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G82" s="15">
+        <f t="shared" si="13"/>
+        <v>3645000</v>
+      </c>
+      <c r="H82" s="15">
+        <f t="shared" si="14"/>
+        <v>148845000</v>
+      </c>
+      <c r="I82" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J82" s="14">
+        <f t="shared" si="16"/>
+        <v>693.00000000000011</v>
+      </c>
+      <c r="K82" s="13">
+        <f t="shared" si="17"/>
+        <v>3645000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="16">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="15">
+        <v>90</v>
+      </c>
+      <c r="C83" s="15">
+        <f t="shared" si="11"/>
+        <v>305070</v>
+      </c>
+      <c r="D83" s="15">
+        <v>300</v>
+      </c>
+      <c r="E83" s="15">
+        <v>700</v>
+      </c>
+      <c r="F83" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G83" s="15">
+        <f t="shared" si="13"/>
+        <v>3690000</v>
+      </c>
+      <c r="H83" s="15">
+        <f t="shared" si="14"/>
+        <v>152535000</v>
+      </c>
+      <c r="I83" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J83" s="14">
+        <f t="shared" si="16"/>
+        <v>702.00000000000011</v>
+      </c>
+      <c r="K83" s="13">
+        <f t="shared" si="17"/>
+        <v>3690000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
+        <f t="shared" si="10"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="15">
+        <v>90</v>
+      </c>
+      <c r="C84" s="15">
+        <f t="shared" si="11"/>
+        <v>312540</v>
+      </c>
+      <c r="D84" s="15">
+        <v>300</v>
+      </c>
+      <c r="E84" s="15">
+        <v>700</v>
+      </c>
+      <c r="F84" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G84" s="15">
+        <f t="shared" si="13"/>
+        <v>3735000</v>
+      </c>
+      <c r="H84" s="15">
+        <f t="shared" si="14"/>
+        <v>156270000</v>
+      </c>
+      <c r="I84" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J84" s="14">
+        <f t="shared" si="16"/>
+        <v>711.00000000000011</v>
+      </c>
+      <c r="K84" s="13">
+        <f t="shared" si="17"/>
+        <v>3735000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="16">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="15">
+        <v>90</v>
+      </c>
+      <c r="C85" s="15">
+        <f t="shared" si="11"/>
+        <v>320100</v>
+      </c>
+      <c r="D85" s="15">
+        <v>300</v>
+      </c>
+      <c r="E85" s="15">
+        <v>700</v>
+      </c>
+      <c r="F85" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G85" s="15">
+        <f t="shared" si="13"/>
+        <v>3780000</v>
+      </c>
+      <c r="H85" s="15">
+        <f t="shared" si="14"/>
+        <v>160050000</v>
+      </c>
+      <c r="I85" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J85" s="14">
+        <f t="shared" si="16"/>
+        <v>720.00000000000011</v>
+      </c>
+      <c r="K85" s="13">
+        <f t="shared" si="17"/>
+        <v>3780000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="16">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="15">
+        <v>90</v>
+      </c>
+      <c r="C86" s="15">
+        <f t="shared" si="11"/>
+        <v>327750</v>
+      </c>
+      <c r="D86" s="15">
+        <v>300</v>
+      </c>
+      <c r="E86" s="15">
+        <v>700</v>
+      </c>
+      <c r="F86" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G86" s="15">
+        <f t="shared" si="13"/>
+        <v>3825000</v>
+      </c>
+      <c r="H86" s="15">
+        <f t="shared" si="14"/>
+        <v>163875000</v>
+      </c>
+      <c r="I86" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J86" s="14">
+        <f t="shared" si="16"/>
+        <v>729.00000000000011</v>
+      </c>
+      <c r="K86" s="13">
+        <f t="shared" si="17"/>
+        <v>3825000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="16">
+        <f t="shared" si="10"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="15">
+        <v>90</v>
+      </c>
+      <c r="C87" s="15">
+        <f t="shared" si="11"/>
+        <v>335490</v>
+      </c>
+      <c r="D87" s="15">
+        <v>300</v>
+      </c>
+      <c r="E87" s="15">
+        <v>700</v>
+      </c>
+      <c r="F87" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G87" s="15">
+        <f t="shared" si="13"/>
+        <v>3870000</v>
+      </c>
+      <c r="H87" s="15">
+        <f t="shared" si="14"/>
+        <v>167745000</v>
+      </c>
+      <c r="I87" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J87" s="14">
+        <f t="shared" si="16"/>
+        <v>738.00000000000011</v>
+      </c>
+      <c r="K87" s="13">
+        <f t="shared" si="17"/>
+        <v>3870000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="16">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="15">
+        <v>90</v>
+      </c>
+      <c r="C88" s="15">
+        <f t="shared" si="11"/>
+        <v>343320</v>
+      </c>
+      <c r="D88" s="15">
+        <v>300</v>
+      </c>
+      <c r="E88" s="15">
+        <v>700</v>
+      </c>
+      <c r="F88" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G88" s="15">
+        <f t="shared" si="13"/>
+        <v>3915000</v>
+      </c>
+      <c r="H88" s="15">
+        <f t="shared" si="14"/>
+        <v>171660000</v>
+      </c>
+      <c r="I88" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J88" s="14">
+        <f t="shared" si="16"/>
+        <v>747.00000000000011</v>
+      </c>
+      <c r="K88" s="13">
+        <f t="shared" si="17"/>
+        <v>3915000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="16">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="15">
+        <v>90</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="11"/>
+        <v>351240</v>
+      </c>
+      <c r="D89" s="15">
+        <v>300</v>
+      </c>
+      <c r="E89" s="15">
+        <v>700</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="13"/>
+        <v>3960000</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="14"/>
+        <v>175620000</v>
+      </c>
+      <c r="I89" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J89" s="14">
+        <f t="shared" si="16"/>
+        <v>756.00000000000011</v>
+      </c>
+      <c r="K89" s="13">
+        <f t="shared" si="17"/>
+        <v>3960000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="16">
+        <f t="shared" si="10"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="15">
+        <v>90</v>
+      </c>
+      <c r="C90" s="15">
+        <f t="shared" si="11"/>
+        <v>359250</v>
+      </c>
+      <c r="D90" s="15">
+        <v>300</v>
+      </c>
+      <c r="E90" s="15">
+        <v>700</v>
+      </c>
+      <c r="F90" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G90" s="15">
+        <f t="shared" si="13"/>
+        <v>4005000</v>
+      </c>
+      <c r="H90" s="15">
+        <f t="shared" si="14"/>
+        <v>179625000</v>
+      </c>
+      <c r="I90" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J90" s="14">
+        <f t="shared" si="16"/>
+        <v>765.00000000000011</v>
+      </c>
+      <c r="K90" s="13">
+        <f t="shared" si="17"/>
+        <v>4005000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="16">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="15">
+        <v>90</v>
+      </c>
+      <c r="C91" s="15">
+        <f t="shared" si="11"/>
+        <v>367350</v>
+      </c>
+      <c r="D91" s="15">
+        <v>300</v>
+      </c>
+      <c r="E91" s="15">
+        <v>700</v>
+      </c>
+      <c r="F91" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G91" s="15">
+        <f t="shared" si="13"/>
+        <v>4050000</v>
+      </c>
+      <c r="H91" s="15">
+        <f t="shared" si="14"/>
+        <v>183675000</v>
+      </c>
+      <c r="I91" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J91" s="14">
+        <f t="shared" si="16"/>
+        <v>774.00000000000011</v>
+      </c>
+      <c r="K91" s="13">
+        <f t="shared" si="17"/>
+        <v>4050000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="16">
+        <f t="shared" si="10"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="15">
+        <v>90</v>
+      </c>
+      <c r="C92" s="15">
+        <f t="shared" si="11"/>
+        <v>375540</v>
+      </c>
+      <c r="D92" s="15">
+        <v>300</v>
+      </c>
+      <c r="E92" s="15">
+        <v>700</v>
+      </c>
+      <c r="F92" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G92" s="15">
+        <f t="shared" si="13"/>
+        <v>4095000</v>
+      </c>
+      <c r="H92" s="15">
+        <f t="shared" si="14"/>
+        <v>187770000</v>
+      </c>
+      <c r="I92" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J92" s="14">
+        <f t="shared" si="16"/>
+        <v>783.00000000000011</v>
+      </c>
+      <c r="K92" s="13">
+        <f t="shared" si="17"/>
+        <v>4095000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="16">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="15">
+        <v>90</v>
+      </c>
+      <c r="C93" s="15">
+        <f t="shared" si="11"/>
+        <v>383820</v>
+      </c>
+      <c r="D93" s="15">
+        <v>300</v>
+      </c>
+      <c r="E93" s="15">
+        <v>700</v>
+      </c>
+      <c r="F93" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G93" s="15">
+        <f t="shared" si="13"/>
+        <v>4140000</v>
+      </c>
+      <c r="H93" s="15">
+        <f t="shared" si="14"/>
+        <v>191910000</v>
+      </c>
+      <c r="I93" s="14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J93" s="14">
+        <f t="shared" si="16"/>
+        <v>792.00000000000011</v>
+      </c>
+      <c r="K93" s="13">
+        <f t="shared" si="17"/>
+        <v>4140000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="16">
+        <f t="shared" ref="A94:A101" si="18">A93+1</f>
+        <v>93</v>
+      </c>
+      <c r="B94" s="15">
+        <v>90</v>
+      </c>
+      <c r="C94" s="15">
+        <f t="shared" ref="C94:C101" si="19">C93+(B94*A94)</f>
+        <v>392190</v>
+      </c>
+      <c r="D94" s="15">
+        <v>300</v>
+      </c>
+      <c r="E94" s="15">
+        <v>700</v>
+      </c>
+      <c r="F94" s="15">
+        <f t="shared" ref="F94:F101" si="20">AVERAGE(D94:E94)</f>
+        <v>500</v>
+      </c>
+      <c r="G94" s="15">
+        <f t="shared" ref="G94:G101" si="21">A94*B94*F94</f>
+        <v>4185000</v>
+      </c>
+      <c r="H94" s="15">
+        <f t="shared" ref="H94:H101" si="22">G94+H93</f>
+        <v>196095000</v>
+      </c>
+      <c r="I94" s="14">
+        <f t="shared" ref="I94:I101" si="23">B94/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="J94" s="14">
+        <f t="shared" ref="J94:J101" si="24">I94+J93</f>
+        <v>801.00000000000011</v>
+      </c>
+      <c r="K94" s="13">
+        <f t="shared" ref="K94:K101" si="25">IF(A94&lt;10,5000*POWER(A94,2),(45000*(A94-9))+405000)</f>
+        <v>4185000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="16">
+        <f t="shared" si="18"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="15">
+        <v>90</v>
+      </c>
+      <c r="C95" s="15">
+        <f t="shared" si="19"/>
+        <v>400650</v>
+      </c>
+      <c r="D95" s="15">
+        <v>300</v>
+      </c>
+      <c r="E95" s="15">
+        <v>700</v>
+      </c>
+      <c r="F95" s="15">
+        <f t="shared" si="20"/>
+        <v>500</v>
+      </c>
+      <c r="G95" s="15">
+        <f t="shared" si="21"/>
+        <v>4230000</v>
+      </c>
+      <c r="H95" s="15">
+        <f t="shared" si="22"/>
+        <v>200325000</v>
+      </c>
+      <c r="I95" s="14">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="J95" s="14">
+        <f t="shared" si="24"/>
+        <v>810.00000000000011</v>
+      </c>
+      <c r="K95" s="13">
+        <f t="shared" si="25"/>
+        <v>4230000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="16">
+        <f t="shared" si="18"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="15">
+        <v>90</v>
+      </c>
+      <c r="C96" s="15">
+        <f t="shared" si="19"/>
+        <v>409200</v>
+      </c>
+      <c r="D96" s="15">
+        <v>300</v>
+      </c>
+      <c r="E96" s="15">
+        <v>700</v>
+      </c>
+      <c r="F96" s="15">
+        <f t="shared" si="20"/>
+        <v>500</v>
+      </c>
+      <c r="G96" s="15">
+        <f t="shared" si="21"/>
+        <v>4275000</v>
+      </c>
+      <c r="H96" s="15">
+        <f t="shared" si="22"/>
+        <v>204600000</v>
+      </c>
+      <c r="I96" s="14">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="J96" s="14">
+        <f t="shared" si="24"/>
+        <v>819.00000000000011</v>
+      </c>
+      <c r="K96" s="13">
+        <f t="shared" si="25"/>
+        <v>4275000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="16">
+        <f t="shared" si="18"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="15">
+        <v>90</v>
+      </c>
+      <c r="C97" s="15">
+        <f t="shared" si="19"/>
+        <v>417840</v>
+      </c>
+      <c r="D97" s="15">
+        <v>300</v>
+      </c>
+      <c r="E97" s="15">
+        <v>700</v>
+      </c>
+      <c r="F97" s="15">
+        <f t="shared" si="20"/>
+        <v>500</v>
+      </c>
+      <c r="G97" s="15">
+        <f t="shared" si="21"/>
+        <v>4320000</v>
+      </c>
+      <c r="H97" s="15">
+        <f t="shared" si="22"/>
+        <v>208920000</v>
+      </c>
+      <c r="I97" s="14">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="J97" s="14">
+        <f t="shared" si="24"/>
+        <v>828.00000000000011</v>
+      </c>
+      <c r="K97" s="13">
+        <f t="shared" si="25"/>
+        <v>4320000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="16">
+        <f t="shared" si="18"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="15">
+        <v>90</v>
+      </c>
+      <c r="C98" s="15">
+        <f t="shared" si="19"/>
+        <v>426570</v>
+      </c>
+      <c r="D98" s="15">
+        <v>300</v>
+      </c>
+      <c r="E98" s="15">
+        <v>700</v>
+      </c>
+      <c r="F98" s="15">
+        <f t="shared" si="20"/>
+        <v>500</v>
+      </c>
+      <c r="G98" s="15">
+        <f t="shared" si="21"/>
+        <v>4365000</v>
+      </c>
+      <c r="H98" s="15">
+        <f t="shared" si="22"/>
+        <v>213285000</v>
+      </c>
+      <c r="I98" s="14">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="J98" s="14">
+        <f t="shared" si="24"/>
+        <v>837.00000000000011</v>
+      </c>
+      <c r="K98" s="13">
+        <f t="shared" si="25"/>
+        <v>4365000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="16">
+        <f t="shared" si="18"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="15">
+        <v>90</v>
+      </c>
+      <c r="C99" s="15">
+        <f t="shared" si="19"/>
+        <v>435390</v>
+      </c>
+      <c r="D99" s="15">
+        <v>300</v>
+      </c>
+      <c r="E99" s="15">
+        <v>700</v>
+      </c>
+      <c r="F99" s="15">
+        <f t="shared" si="20"/>
+        <v>500</v>
+      </c>
+      <c r="G99" s="15">
+        <f t="shared" si="21"/>
+        <v>4410000</v>
+      </c>
+      <c r="H99" s="15">
+        <f t="shared" si="22"/>
+        <v>217695000</v>
+      </c>
+      <c r="I99" s="14">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="J99" s="14">
+        <f t="shared" si="24"/>
+        <v>846.00000000000011</v>
+      </c>
+      <c r="K99" s="13">
+        <f t="shared" si="25"/>
+        <v>4410000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="16">
+        <f t="shared" si="18"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="15">
+        <v>90</v>
+      </c>
+      <c r="C100" s="15">
+        <f t="shared" si="19"/>
+        <v>444300</v>
+      </c>
+      <c r="D100" s="15">
+        <v>300</v>
+      </c>
+      <c r="E100" s="15">
+        <v>700</v>
+      </c>
+      <c r="F100" s="15">
+        <f t="shared" si="20"/>
+        <v>500</v>
+      </c>
+      <c r="G100" s="15">
+        <f t="shared" si="21"/>
+        <v>4455000</v>
+      </c>
+      <c r="H100" s="15">
+        <f t="shared" si="22"/>
+        <v>222150000</v>
+      </c>
+      <c r="I100" s="14">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="J100" s="14">
+        <f t="shared" si="24"/>
+        <v>855.00000000000011</v>
+      </c>
+      <c r="K100" s="13">
+        <f t="shared" si="25"/>
+        <v>4455000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="16">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="15">
+        <v>90</v>
+      </c>
+      <c r="C101" s="15">
+        <f t="shared" si="19"/>
+        <v>453300</v>
+      </c>
+      <c r="D101" s="15">
+        <v>300</v>
+      </c>
+      <c r="E101" s="15">
+        <v>700</v>
+      </c>
+      <c r="F101" s="15">
+        <f t="shared" si="20"/>
+        <v>500</v>
+      </c>
+      <c r="G101" s="15">
+        <f t="shared" si="21"/>
+        <v>4500000</v>
+      </c>
+      <c r="H101" s="15">
+        <f t="shared" si="22"/>
+        <v>226650000</v>
+      </c>
+      <c r="I101" s="14">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="J101" s="14">
+        <f t="shared" si="24"/>
+        <v>864.00000000000011</v>
+      </c>
+      <c r="K101" s="13">
+        <f t="shared" si="25"/>
+        <v>4500000</v>
       </c>
     </row>
   </sheetData>
@@ -5630,15 +10454,15 @@
       <c r="H1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76366372-ED98-437D-9C31-BD7E8D480D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33308F95-DDCA-411B-BB0D-C12934BF8FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
+    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Plant Level Tracking" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,19 @@
     <sheet name="Exp Gain Per Water (Baseline)" sheetId="4" r:id="rId4"/>
     <sheet name="Exp Gain Per Water (Multiple)" sheetId="5" r:id="rId5"/>
     <sheet name="Plant Level Tracking OLD NEW" sheetId="6" r:id="rId6"/>
+    <sheet name="AAAA" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plant Level Tracking'!$A$1:$F$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Plant Level Tracking OLD NEW'!$A$1:$F$21</definedName>
+    <definedName name="EXP_GAIN_AVERAGE" localSheetId="6">AAAA!#REF!</definedName>
     <definedName name="EXP_GAIN_AVERAGE">'New Pot Prices Workout'!#REF!</definedName>
     <definedName name="TotalMultiplier">'Exp Gain Per Water (Multiple)'!$K$2</definedName>
+    <definedName name="WATER_COUNT_DIVISOR" localSheetId="6">AAAA!$P$2</definedName>
     <definedName name="WATER_COUNT_DIVISOR">'New Pot Prices Workout'!$O$2</definedName>
+    <definedName name="WATER_COUNT_MULTIPLIER" localSheetId="6">AAAA!$O$2</definedName>
     <definedName name="WATER_COUNT_MULTIPLIER">'New Pot Prices Workout'!$N$2</definedName>
+    <definedName name="WATERS_PER_DAY" localSheetId="6">AAAA!$N$2</definedName>
     <definedName name="WATERS_PER_DAY">'New Pot Prices Workout'!$M$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="146">
   <si>
     <t>Plant</t>
   </si>
@@ -482,6 +487,9 @@
   </si>
   <si>
     <t>Plants owned at start</t>
+  </si>
+  <si>
+    <t>OLD EXP</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1584,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Pot Prices Workout'!$B$1</c15:sqref>
@@ -1881,7 +1889,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Pot Prices Workout'!$C$1</c15:sqref>
@@ -2186,7 +2194,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Pot Prices Workout'!$D$1</c15:sqref>
@@ -2491,7 +2499,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Pot Prices Workout'!$E$1</c15:sqref>
@@ -2796,7 +2804,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'New Pot Prices Workout'!$F$1</c15:sqref>
@@ -3250,7 +3258,875 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AAAA!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Exp gained over 10 waters (cost of next pot) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>AAAA!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5000.0000000000109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000.000000000044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45000.000000000095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000.000000000175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125000.00000000026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180000.00000000038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>245000.00000000052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320000.0000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>405000.00000000087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2614-4F26-B9D5-C9AB43C7B8DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AAAA!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> OLD EXP </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>AAAA!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>364500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1093500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3280500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2614-4F26-B9D5-C9AB43C7B8DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1560521295"/>
+        <c:axId val="1822859471"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>AAAA!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Plants owned at start</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>AAAA!$A$2:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-2614-4F26-B9D5-C9AB43C7B8DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>AAAA!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v> Number of waters (per plant) to get new </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>AAAA!$B$2:$B$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>10.000000000000021</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20.000000000000043</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30.00000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40.000000000000085</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50.000000000000099</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60.000000000000121</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70.000000000000142</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80.000000000000171</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90.000000000000185</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-2614-4F26-B9D5-C9AB43C7B8DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>AAAA!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v> Total cumulative waters </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>AAAA!$C$2:$C$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>10.000000000000021</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>50.000000000000107</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>140.00000000000028</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>300.00000000000063</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>550.00000000000114</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>910.00000000000182</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1400.0000000000027</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2040.0000000000041</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2850.0000000000059</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-2614-4F26-B9D5-C9AB43C7B8DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>AAAA!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v> Exp Gain Min </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>AAAA!$D$2:$D$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>300</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-2614-4F26-B9D5-C9AB43C7B8DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>AAAA!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v> Exp Gain Max </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>AAAA!$E$2:$E$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>700</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-2614-4F26-B9D5-C9AB43C7B8DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>AAAA!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v> Exp Gain Avg </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>AAAA!$F$2:$F$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-2614-4F26-B9D5-C9AB43C7B8DC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1560521295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1822859471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1822859471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1560521295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3806,20 +4682,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>962024</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3827,6 +5219,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917781EB-0B42-4FF6-9A64-6D49AD2CE3DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FFF1A3B-2F23-4D09-991E-F181957E603E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5357,7 +6792,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11614,4 +13049,4529 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3ABFE9-C5A9-4269-9C75-A3D3D2F88B32}">
+  <dimension ref="A1:O101"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="8" width="41.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="2.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <f t="shared" ref="B2:B10" si="0">6*A2*WATER_COUNT_MULTIPLIER</f>
+        <v>10.000000000000021</v>
+      </c>
+      <c r="C2" s="17">
+        <f>B2</f>
+        <v>10.000000000000021</v>
+      </c>
+      <c r="D2" s="17">
+        <v>300</v>
+      </c>
+      <c r="E2" s="17">
+        <v>700</v>
+      </c>
+      <c r="F2" s="17">
+        <f t="shared" ref="F2:F65" si="1">AVERAGE(D2:E2)</f>
+        <v>500</v>
+      </c>
+      <c r="G2" s="17">
+        <f t="shared" ref="G2:G65" si="2">A2*B2*F2</f>
+        <v>5000.0000000000109</v>
+      </c>
+      <c r="H2" s="17">
+        <f>50*(POWER(3, A2-1))*10</f>
+        <v>500</v>
+      </c>
+      <c r="I2" s="17">
+        <f>G2</f>
+        <v>5000.0000000000109</v>
+      </c>
+      <c r="J2" s="13">
+        <f t="shared" ref="J2:J29" si="3">B2/WATERS_PER_DAY</f>
+        <v>1.0000000000000022</v>
+      </c>
+      <c r="K2" s="13">
+        <f>J2</f>
+        <v>1.0000000000000022</v>
+      </c>
+      <c r="L2" s="13">
+        <f t="shared" ref="L2:L10" si="4">IF(A2&lt;10,5000*POWER(A2,2),(45000*A2)+801000)</f>
+        <v>5000</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>1.6666666666666701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="5">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="17">
+        <f t="shared" si="0"/>
+        <v>20.000000000000043</v>
+      </c>
+      <c r="C3" s="17">
+        <f t="shared" ref="C3:C66" si="6">C2+(B3*A3)</f>
+        <v>50.000000000000107</v>
+      </c>
+      <c r="D3" s="17">
+        <v>300</v>
+      </c>
+      <c r="E3" s="17">
+        <v>700</v>
+      </c>
+      <c r="F3" s="17">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" si="2"/>
+        <v>20000.000000000044</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ref="H3:H10" si="7">50*(POWER(3, A3-1))*10</f>
+        <v>1500</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" ref="I3:I66" si="8">G3+I2</f>
+        <v>25000.000000000055</v>
+      </c>
+      <c r="J3" s="13">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000044</v>
+      </c>
+      <c r="K3" s="13">
+        <f t="shared" ref="K3:K66" si="9">J3+K2</f>
+        <v>3.0000000000000067</v>
+      </c>
+      <c r="L3" s="13">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <f t="shared" si="0"/>
+        <v>30.00000000000006</v>
+      </c>
+      <c r="C4" s="17">
+        <f t="shared" si="6"/>
+        <v>140.00000000000028</v>
+      </c>
+      <c r="D4" s="17">
+        <v>300</v>
+      </c>
+      <c r="E4" s="17">
+        <v>700</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" si="2"/>
+        <v>45000.000000000095</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="7"/>
+        <v>4500</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" si="8"/>
+        <v>70000.000000000146</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000062</v>
+      </c>
+      <c r="K4" s="13">
+        <f t="shared" si="9"/>
+        <v>6.0000000000000124</v>
+      </c>
+      <c r="L4" s="13">
+        <f t="shared" si="4"/>
+        <v>45000</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
+        <f t="shared" si="0"/>
+        <v>40.000000000000085</v>
+      </c>
+      <c r="C5" s="17">
+        <f t="shared" si="6"/>
+        <v>300.00000000000063</v>
+      </c>
+      <c r="D5" s="17">
+        <v>300</v>
+      </c>
+      <c r="E5" s="17">
+        <v>700</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="2"/>
+        <v>80000.000000000175</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="7"/>
+        <v>13500</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="8"/>
+        <v>150000.00000000032</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000089</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" si="9"/>
+        <v>10.000000000000021</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" si="4"/>
+        <v>80000</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <f t="shared" si="0"/>
+        <v>50.000000000000099</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" si="6"/>
+        <v>550.00000000000114</v>
+      </c>
+      <c r="D6" s="17">
+        <v>300</v>
+      </c>
+      <c r="E6" s="17">
+        <v>700</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="2"/>
+        <v>125000.00000000026</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="7"/>
+        <v>40500</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="8"/>
+        <v>275000.00000000058</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000098</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="9"/>
+        <v>15.000000000000032</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="4"/>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <f t="shared" si="0"/>
+        <v>60.000000000000121</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="6"/>
+        <v>910.00000000000182</v>
+      </c>
+      <c r="D7" s="17">
+        <v>300</v>
+      </c>
+      <c r="E7" s="17">
+        <v>700</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="2"/>
+        <v>180000.00000000038</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="7"/>
+        <v>121500</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="8"/>
+        <v>455000.00000000093</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000124</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" si="9"/>
+        <v>21.000000000000043</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="4"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="17">
+        <f t="shared" si="0"/>
+        <v>70.000000000000142</v>
+      </c>
+      <c r="C8" s="17">
+        <f t="shared" si="6"/>
+        <v>1400.0000000000027</v>
+      </c>
+      <c r="D8" s="17">
+        <v>300</v>
+      </c>
+      <c r="E8" s="17">
+        <v>700</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="2"/>
+        <v>245000.00000000052</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="7"/>
+        <v>364500</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="8"/>
+        <v>700000.0000000014</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000142</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="9"/>
+        <v>28.000000000000057</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="4"/>
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="17">
+        <f t="shared" si="0"/>
+        <v>80.000000000000171</v>
+      </c>
+      <c r="C9" s="17">
+        <f t="shared" si="6"/>
+        <v>2040.0000000000041</v>
+      </c>
+      <c r="D9" s="17">
+        <v>300</v>
+      </c>
+      <c r="E9" s="17">
+        <v>700</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="2"/>
+        <v>320000.0000000007</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="7"/>
+        <v>1093500</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="8"/>
+        <v>1020000.0000000021</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000178</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="9"/>
+        <v>36.000000000000071</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="4"/>
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="17">
+        <f t="shared" si="0"/>
+        <v>90.000000000000185</v>
+      </c>
+      <c r="C10" s="17">
+        <f t="shared" si="6"/>
+        <v>2850.0000000000059</v>
+      </c>
+      <c r="D10" s="17">
+        <v>300</v>
+      </c>
+      <c r="E10" s="17">
+        <v>700</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="2"/>
+        <v>405000.00000000087</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="7"/>
+        <v>3280500</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="8"/>
+        <v>1425000.000000003</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="3"/>
+        <v>9.0000000000000178</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="9"/>
+        <v>45.000000000000085</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="4"/>
+        <v>405000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="15">
+        <v>90</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" si="6"/>
+        <v>3750.0000000000059</v>
+      </c>
+      <c r="D11" s="15">
+        <v>300</v>
+      </c>
+      <c r="E11" s="15">
+        <v>700</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="2"/>
+        <v>450000</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15">
+        <f t="shared" si="8"/>
+        <v>1875000.000000003</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="9"/>
+        <v>54.000000000000085</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" ref="L11:L74" si="10">IF(A11&lt;10,5000*POWER(A11,2),(45000*(A11-9))+405000)</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
+        <v>90</v>
+      </c>
+      <c r="C12" s="15">
+        <f t="shared" si="6"/>
+        <v>4740.0000000000055</v>
+      </c>
+      <c r="D12" s="15">
+        <v>300</v>
+      </c>
+      <c r="E12" s="15">
+        <v>700</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="2"/>
+        <v>495000</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15">
+        <f t="shared" si="8"/>
+        <v>2370000.0000000028</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="9"/>
+        <v>63.000000000000085</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="10"/>
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>90</v>
+      </c>
+      <c r="C13" s="15">
+        <f t="shared" si="6"/>
+        <v>5820.0000000000055</v>
+      </c>
+      <c r="D13" s="15">
+        <v>300</v>
+      </c>
+      <c r="E13" s="15">
+        <v>700</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="2"/>
+        <v>540000</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15">
+        <f t="shared" si="8"/>
+        <v>2910000.0000000028</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="9"/>
+        <v>72.000000000000085</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" si="10"/>
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>90</v>
+      </c>
+      <c r="C14" s="15">
+        <f t="shared" si="6"/>
+        <v>6990.0000000000055</v>
+      </c>
+      <c r="D14" s="15">
+        <v>300</v>
+      </c>
+      <c r="E14" s="15">
+        <v>700</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="2"/>
+        <v>585000</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15">
+        <f t="shared" si="8"/>
+        <v>3495000.0000000028</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="9"/>
+        <v>81.000000000000085</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="10"/>
+        <v>585000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <v>90</v>
+      </c>
+      <c r="C15" s="15">
+        <f t="shared" si="6"/>
+        <v>8250.0000000000055</v>
+      </c>
+      <c r="D15" s="15">
+        <v>300</v>
+      </c>
+      <c r="E15" s="15">
+        <v>700</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="2"/>
+        <v>630000</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15">
+        <f t="shared" si="8"/>
+        <v>4125000.0000000028</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="9"/>
+        <v>90.000000000000085</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="10"/>
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <v>90</v>
+      </c>
+      <c r="C16" s="15">
+        <f t="shared" si="6"/>
+        <v>9600.0000000000055</v>
+      </c>
+      <c r="D16" s="15">
+        <v>300</v>
+      </c>
+      <c r="E16" s="15">
+        <v>700</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="2"/>
+        <v>675000</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15">
+        <f t="shared" si="8"/>
+        <v>4800000.0000000028</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="9"/>
+        <v>99.000000000000085</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="10"/>
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <v>90</v>
+      </c>
+      <c r="C17" s="15">
+        <f t="shared" si="6"/>
+        <v>11040.000000000005</v>
+      </c>
+      <c r="D17" s="15">
+        <v>300</v>
+      </c>
+      <c r="E17" s="15">
+        <v>700</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="2"/>
+        <v>720000</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15">
+        <f t="shared" si="8"/>
+        <v>5520000.0000000028</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="9"/>
+        <v>108.00000000000009</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="10"/>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>90</v>
+      </c>
+      <c r="C18" s="15">
+        <f t="shared" si="6"/>
+        <v>12570.000000000005</v>
+      </c>
+      <c r="D18" s="15">
+        <v>300</v>
+      </c>
+      <c r="E18" s="15">
+        <v>700</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="2"/>
+        <v>765000</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15">
+        <f t="shared" si="8"/>
+        <v>6285000.0000000028</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="9"/>
+        <v>117.00000000000009</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" si="10"/>
+        <v>765000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="15">
+        <v>90</v>
+      </c>
+      <c r="C19" s="15">
+        <f t="shared" si="6"/>
+        <v>14190.000000000005</v>
+      </c>
+      <c r="D19" s="15">
+        <v>300</v>
+      </c>
+      <c r="E19" s="15">
+        <v>700</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="2"/>
+        <v>810000</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15">
+        <f t="shared" si="8"/>
+        <v>7095000.0000000028</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="9"/>
+        <v>126.00000000000009</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="10"/>
+        <v>810000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="15">
+        <v>90</v>
+      </c>
+      <c r="C20" s="15">
+        <f t="shared" si="6"/>
+        <v>15900.000000000005</v>
+      </c>
+      <c r="D20" s="15">
+        <v>300</v>
+      </c>
+      <c r="E20" s="15">
+        <v>700</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="2"/>
+        <v>855000</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15">
+        <f t="shared" si="8"/>
+        <v>7950000.0000000028</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="9"/>
+        <v>135.00000000000009</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="10"/>
+        <v>855000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="15">
+        <v>90</v>
+      </c>
+      <c r="C21" s="15">
+        <f t="shared" si="6"/>
+        <v>17700.000000000007</v>
+      </c>
+      <c r="D21" s="15">
+        <v>300</v>
+      </c>
+      <c r="E21" s="15">
+        <v>700</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="2"/>
+        <v>900000</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15">
+        <f t="shared" si="8"/>
+        <v>8850000.0000000037</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="9"/>
+        <v>144.00000000000009</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="10"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="15">
+        <v>90</v>
+      </c>
+      <c r="C22" s="15">
+        <f t="shared" si="6"/>
+        <v>19590.000000000007</v>
+      </c>
+      <c r="D22" s="15">
+        <v>300</v>
+      </c>
+      <c r="E22" s="15">
+        <v>700</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="2"/>
+        <v>945000</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15">
+        <f t="shared" si="8"/>
+        <v>9795000.0000000037</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="9"/>
+        <v>153.00000000000009</v>
+      </c>
+      <c r="L22" s="13">
+        <f t="shared" si="10"/>
+        <v>945000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="15">
+        <v>90</v>
+      </c>
+      <c r="C23" s="15">
+        <f t="shared" si="6"/>
+        <v>21570.000000000007</v>
+      </c>
+      <c r="D23" s="15">
+        <v>300</v>
+      </c>
+      <c r="E23" s="15">
+        <v>700</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="2"/>
+        <v>990000</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15">
+        <f t="shared" si="8"/>
+        <v>10785000.000000004</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="9"/>
+        <v>162.00000000000009</v>
+      </c>
+      <c r="L23" s="13">
+        <f t="shared" si="10"/>
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="15">
+        <v>90</v>
+      </c>
+      <c r="C24" s="15">
+        <f t="shared" si="6"/>
+        <v>23640.000000000007</v>
+      </c>
+      <c r="D24" s="15">
+        <v>300</v>
+      </c>
+      <c r="E24" s="15">
+        <v>700</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="2"/>
+        <v>1035000</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15">
+        <f t="shared" si="8"/>
+        <v>11820000.000000004</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="9"/>
+        <v>171.00000000000009</v>
+      </c>
+      <c r="L24" s="13">
+        <f t="shared" si="10"/>
+        <v>1035000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="15">
+        <v>90</v>
+      </c>
+      <c r="C25" s="15">
+        <f t="shared" si="6"/>
+        <v>25800.000000000007</v>
+      </c>
+      <c r="D25" s="15">
+        <v>300</v>
+      </c>
+      <c r="E25" s="15">
+        <v>700</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15">
+        <f t="shared" si="8"/>
+        <v>12900000.000000004</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="9"/>
+        <v>180.00000000000009</v>
+      </c>
+      <c r="L25" s="13">
+        <f t="shared" si="10"/>
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="15">
+        <v>90</v>
+      </c>
+      <c r="C26" s="15">
+        <f t="shared" si="6"/>
+        <v>28050.000000000007</v>
+      </c>
+      <c r="D26" s="15">
+        <v>300</v>
+      </c>
+      <c r="E26" s="15">
+        <v>700</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="2"/>
+        <v>1125000</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15">
+        <f t="shared" si="8"/>
+        <v>14025000.000000004</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="9"/>
+        <v>189.00000000000009</v>
+      </c>
+      <c r="L26" s="13">
+        <f t="shared" si="10"/>
+        <v>1125000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="15">
+        <v>90</v>
+      </c>
+      <c r="C27" s="15">
+        <f t="shared" si="6"/>
+        <v>30390.000000000007</v>
+      </c>
+      <c r="D27" s="15">
+        <v>300</v>
+      </c>
+      <c r="E27" s="15">
+        <v>700</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="2"/>
+        <v>1170000</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15">
+        <f t="shared" si="8"/>
+        <v>15195000.000000004</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="9"/>
+        <v>198.00000000000009</v>
+      </c>
+      <c r="L27" s="13">
+        <f t="shared" si="10"/>
+        <v>1170000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="15">
+        <v>90</v>
+      </c>
+      <c r="C28" s="15">
+        <f t="shared" si="6"/>
+        <v>32820.000000000007</v>
+      </c>
+      <c r="D28" s="15">
+        <v>300</v>
+      </c>
+      <c r="E28" s="15">
+        <v>700</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="2"/>
+        <v>1215000</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15">
+        <f t="shared" si="8"/>
+        <v>16410000.000000004</v>
+      </c>
+      <c r="J28" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="9"/>
+        <v>207.00000000000009</v>
+      </c>
+      <c r="L28" s="13">
+        <f t="shared" si="10"/>
+        <v>1215000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="15">
+        <v>90</v>
+      </c>
+      <c r="C29" s="15">
+        <f t="shared" si="6"/>
+        <v>35340.000000000007</v>
+      </c>
+      <c r="D29" s="15">
+        <v>300</v>
+      </c>
+      <c r="E29" s="15">
+        <v>700</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="2"/>
+        <v>1260000</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15">
+        <f t="shared" si="8"/>
+        <v>17670000.000000004</v>
+      </c>
+      <c r="J29" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K29" s="14">
+        <f t="shared" si="9"/>
+        <v>216.00000000000009</v>
+      </c>
+      <c r="L29" s="13">
+        <f t="shared" si="10"/>
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="15">
+        <v>90</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" si="6"/>
+        <v>37950.000000000007</v>
+      </c>
+      <c r="D30" s="15">
+        <v>300</v>
+      </c>
+      <c r="E30" s="15">
+        <v>700</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="2"/>
+        <v>1305000</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15">
+        <f t="shared" si="8"/>
+        <v>18975000.000000004</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" ref="J30:J93" si="11">B30/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="K30" s="14">
+        <f t="shared" si="9"/>
+        <v>225.00000000000009</v>
+      </c>
+      <c r="L30" s="13">
+        <f t="shared" si="10"/>
+        <v>1305000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="15">
+        <v>90</v>
+      </c>
+      <c r="C31" s="15">
+        <f t="shared" si="6"/>
+        <v>40650.000000000007</v>
+      </c>
+      <c r="D31" s="15">
+        <v>300</v>
+      </c>
+      <c r="E31" s="15">
+        <v>700</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G31" s="15">
+        <f t="shared" si="2"/>
+        <v>1350000</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15">
+        <f t="shared" si="8"/>
+        <v>20325000.000000004</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" si="9"/>
+        <v>234.00000000000009</v>
+      </c>
+      <c r="L31" s="13">
+        <f t="shared" si="10"/>
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="15">
+        <v>90</v>
+      </c>
+      <c r="C32" s="15">
+        <f t="shared" si="6"/>
+        <v>43440.000000000007</v>
+      </c>
+      <c r="D32" s="15">
+        <v>300</v>
+      </c>
+      <c r="E32" s="15">
+        <v>700</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="2"/>
+        <v>1395000</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15">
+        <f t="shared" si="8"/>
+        <v>21720000.000000004</v>
+      </c>
+      <c r="J32" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="shared" si="9"/>
+        <v>243.00000000000009</v>
+      </c>
+      <c r="L32" s="13">
+        <f t="shared" si="10"/>
+        <v>1395000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="15">
+        <v>90</v>
+      </c>
+      <c r="C33" s="15">
+        <f t="shared" si="6"/>
+        <v>46320.000000000007</v>
+      </c>
+      <c r="D33" s="15">
+        <v>300</v>
+      </c>
+      <c r="E33" s="15">
+        <v>700</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="2"/>
+        <v>1440000</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15">
+        <f t="shared" si="8"/>
+        <v>23160000.000000004</v>
+      </c>
+      <c r="J33" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" si="9"/>
+        <v>252.00000000000009</v>
+      </c>
+      <c r="L33" s="13">
+        <f t="shared" si="10"/>
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="15">
+        <v>90</v>
+      </c>
+      <c r="C34" s="15">
+        <f t="shared" si="6"/>
+        <v>49290.000000000007</v>
+      </c>
+      <c r="D34" s="15">
+        <v>300</v>
+      </c>
+      <c r="E34" s="15">
+        <v>700</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="2"/>
+        <v>1485000</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15">
+        <f t="shared" si="8"/>
+        <v>24645000.000000004</v>
+      </c>
+      <c r="J34" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="shared" si="9"/>
+        <v>261.00000000000011</v>
+      </c>
+      <c r="L34" s="13">
+        <f t="shared" si="10"/>
+        <v>1485000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="15">
+        <v>90</v>
+      </c>
+      <c r="C35" s="15">
+        <f t="shared" si="6"/>
+        <v>52350.000000000007</v>
+      </c>
+      <c r="D35" s="15">
+        <v>300</v>
+      </c>
+      <c r="E35" s="15">
+        <v>700</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="2"/>
+        <v>1530000</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15">
+        <f t="shared" si="8"/>
+        <v>26175000.000000004</v>
+      </c>
+      <c r="J35" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K35" s="14">
+        <f t="shared" si="9"/>
+        <v>270.00000000000011</v>
+      </c>
+      <c r="L35" s="13">
+        <f t="shared" si="10"/>
+        <v>1530000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="15">
+        <v>90</v>
+      </c>
+      <c r="C36" s="15">
+        <f t="shared" si="6"/>
+        <v>55500.000000000007</v>
+      </c>
+      <c r="D36" s="15">
+        <v>300</v>
+      </c>
+      <c r="E36" s="15">
+        <v>700</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="2"/>
+        <v>1575000</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15">
+        <f t="shared" si="8"/>
+        <v>27750000.000000004</v>
+      </c>
+      <c r="J36" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K36" s="14">
+        <f t="shared" si="9"/>
+        <v>279.00000000000011</v>
+      </c>
+      <c r="L36" s="13">
+        <f t="shared" si="10"/>
+        <v>1575000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="15">
+        <v>90</v>
+      </c>
+      <c r="C37" s="15">
+        <f t="shared" si="6"/>
+        <v>58740.000000000007</v>
+      </c>
+      <c r="D37" s="15">
+        <v>300</v>
+      </c>
+      <c r="E37" s="15">
+        <v>700</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="2"/>
+        <v>1620000</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15">
+        <f t="shared" si="8"/>
+        <v>29370000.000000004</v>
+      </c>
+      <c r="J37" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K37" s="14">
+        <f t="shared" si="9"/>
+        <v>288.00000000000011</v>
+      </c>
+      <c r="L37" s="13">
+        <f t="shared" si="10"/>
+        <v>1620000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="15">
+        <v>90</v>
+      </c>
+      <c r="C38" s="15">
+        <f t="shared" si="6"/>
+        <v>62070.000000000007</v>
+      </c>
+      <c r="D38" s="15">
+        <v>300</v>
+      </c>
+      <c r="E38" s="15">
+        <v>700</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" si="2"/>
+        <v>1665000</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15">
+        <f t="shared" si="8"/>
+        <v>31035000.000000004</v>
+      </c>
+      <c r="J38" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K38" s="14">
+        <f t="shared" si="9"/>
+        <v>297.00000000000011</v>
+      </c>
+      <c r="L38" s="13">
+        <f t="shared" si="10"/>
+        <v>1665000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="15">
+        <v>90</v>
+      </c>
+      <c r="C39" s="15">
+        <f t="shared" si="6"/>
+        <v>65490.000000000007</v>
+      </c>
+      <c r="D39" s="15">
+        <v>300</v>
+      </c>
+      <c r="E39" s="15">
+        <v>700</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G39" s="15">
+        <f t="shared" si="2"/>
+        <v>1710000</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15">
+        <f t="shared" si="8"/>
+        <v>32745000.000000004</v>
+      </c>
+      <c r="J39" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K39" s="14">
+        <f t="shared" si="9"/>
+        <v>306.00000000000011</v>
+      </c>
+      <c r="L39" s="13">
+        <f t="shared" si="10"/>
+        <v>1710000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="15">
+        <v>90</v>
+      </c>
+      <c r="C40" s="15">
+        <f t="shared" si="6"/>
+        <v>69000</v>
+      </c>
+      <c r="D40" s="15">
+        <v>300</v>
+      </c>
+      <c r="E40" s="15">
+        <v>700</v>
+      </c>
+      <c r="F40" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G40" s="15">
+        <f t="shared" si="2"/>
+        <v>1755000</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15">
+        <f t="shared" si="8"/>
+        <v>34500000</v>
+      </c>
+      <c r="J40" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K40" s="14">
+        <f t="shared" si="9"/>
+        <v>315.00000000000011</v>
+      </c>
+      <c r="L40" s="13">
+        <f t="shared" si="10"/>
+        <v>1755000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="15">
+        <v>90</v>
+      </c>
+      <c r="C41" s="15">
+        <f t="shared" si="6"/>
+        <v>72600</v>
+      </c>
+      <c r="D41" s="15">
+        <v>300</v>
+      </c>
+      <c r="E41" s="15">
+        <v>700</v>
+      </c>
+      <c r="F41" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G41" s="15">
+        <f t="shared" si="2"/>
+        <v>1800000</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15">
+        <f t="shared" si="8"/>
+        <v>36300000</v>
+      </c>
+      <c r="J41" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K41" s="14">
+        <f t="shared" si="9"/>
+        <v>324.00000000000011</v>
+      </c>
+      <c r="L41" s="13">
+        <f t="shared" si="10"/>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="15">
+        <v>90</v>
+      </c>
+      <c r="C42" s="15">
+        <f t="shared" si="6"/>
+        <v>76290</v>
+      </c>
+      <c r="D42" s="15">
+        <v>300</v>
+      </c>
+      <c r="E42" s="15">
+        <v>700</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G42" s="15">
+        <f t="shared" si="2"/>
+        <v>1845000</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15">
+        <f t="shared" si="8"/>
+        <v>38145000</v>
+      </c>
+      <c r="J42" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K42" s="14">
+        <f t="shared" si="9"/>
+        <v>333.00000000000011</v>
+      </c>
+      <c r="L42" s="13">
+        <f t="shared" si="10"/>
+        <v>1845000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="15">
+        <v>90</v>
+      </c>
+      <c r="C43" s="15">
+        <f t="shared" si="6"/>
+        <v>80070</v>
+      </c>
+      <c r="D43" s="15">
+        <v>300</v>
+      </c>
+      <c r="E43" s="15">
+        <v>700</v>
+      </c>
+      <c r="F43" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G43" s="15">
+        <f t="shared" si="2"/>
+        <v>1890000</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15">
+        <f t="shared" si="8"/>
+        <v>40035000</v>
+      </c>
+      <c r="J43" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K43" s="14">
+        <f t="shared" si="9"/>
+        <v>342.00000000000011</v>
+      </c>
+      <c r="L43" s="13">
+        <f t="shared" si="10"/>
+        <v>1890000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="15">
+        <v>90</v>
+      </c>
+      <c r="C44" s="15">
+        <f t="shared" si="6"/>
+        <v>83940</v>
+      </c>
+      <c r="D44" s="15">
+        <v>300</v>
+      </c>
+      <c r="E44" s="15">
+        <v>700</v>
+      </c>
+      <c r="F44" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G44" s="15">
+        <f t="shared" si="2"/>
+        <v>1935000</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15">
+        <f t="shared" si="8"/>
+        <v>41970000</v>
+      </c>
+      <c r="J44" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K44" s="14">
+        <f t="shared" si="9"/>
+        <v>351.00000000000011</v>
+      </c>
+      <c r="L44" s="13">
+        <f t="shared" si="10"/>
+        <v>1935000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="15">
+        <v>90</v>
+      </c>
+      <c r="C45" s="15">
+        <f t="shared" si="6"/>
+        <v>87900</v>
+      </c>
+      <c r="D45" s="15">
+        <v>300</v>
+      </c>
+      <c r="E45" s="15">
+        <v>700</v>
+      </c>
+      <c r="F45" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G45" s="15">
+        <f t="shared" si="2"/>
+        <v>1980000</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15">
+        <f t="shared" si="8"/>
+        <v>43950000</v>
+      </c>
+      <c r="J45" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K45" s="14">
+        <f t="shared" si="9"/>
+        <v>360.00000000000011</v>
+      </c>
+      <c r="L45" s="13">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="15">
+        <v>90</v>
+      </c>
+      <c r="C46" s="15">
+        <f t="shared" si="6"/>
+        <v>91950</v>
+      </c>
+      <c r="D46" s="15">
+        <v>300</v>
+      </c>
+      <c r="E46" s="15">
+        <v>700</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G46" s="15">
+        <f t="shared" si="2"/>
+        <v>2025000</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15">
+        <f t="shared" si="8"/>
+        <v>45975000</v>
+      </c>
+      <c r="J46" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K46" s="14">
+        <f t="shared" si="9"/>
+        <v>369.00000000000011</v>
+      </c>
+      <c r="L46" s="13">
+        <f t="shared" si="10"/>
+        <v>2025000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="15">
+        <v>90</v>
+      </c>
+      <c r="C47" s="15">
+        <f t="shared" si="6"/>
+        <v>96090</v>
+      </c>
+      <c r="D47" s="15">
+        <v>300</v>
+      </c>
+      <c r="E47" s="15">
+        <v>700</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" si="2"/>
+        <v>2070000</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15">
+        <f t="shared" si="8"/>
+        <v>48045000</v>
+      </c>
+      <c r="J47" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K47" s="14">
+        <f t="shared" si="9"/>
+        <v>378.00000000000011</v>
+      </c>
+      <c r="L47" s="13">
+        <f t="shared" si="10"/>
+        <v>2070000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="15">
+        <v>90</v>
+      </c>
+      <c r="C48" s="15">
+        <f t="shared" si="6"/>
+        <v>100320</v>
+      </c>
+      <c r="D48" s="15">
+        <v>300</v>
+      </c>
+      <c r="E48" s="15">
+        <v>700</v>
+      </c>
+      <c r="F48" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G48" s="15">
+        <f t="shared" si="2"/>
+        <v>2115000</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15">
+        <f t="shared" si="8"/>
+        <v>50160000</v>
+      </c>
+      <c r="J48" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K48" s="14">
+        <f t="shared" si="9"/>
+        <v>387.00000000000011</v>
+      </c>
+      <c r="L48" s="13">
+        <f t="shared" si="10"/>
+        <v>2115000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="15">
+        <v>90</v>
+      </c>
+      <c r="C49" s="15">
+        <f t="shared" si="6"/>
+        <v>104640</v>
+      </c>
+      <c r="D49" s="15">
+        <v>300</v>
+      </c>
+      <c r="E49" s="15">
+        <v>700</v>
+      </c>
+      <c r="F49" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G49" s="15">
+        <f t="shared" si="2"/>
+        <v>2160000</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15">
+        <f t="shared" si="8"/>
+        <v>52320000</v>
+      </c>
+      <c r="J49" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K49" s="14">
+        <f t="shared" si="9"/>
+        <v>396.00000000000011</v>
+      </c>
+      <c r="L49" s="13">
+        <f t="shared" si="10"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="15">
+        <v>90</v>
+      </c>
+      <c r="C50" s="15">
+        <f t="shared" si="6"/>
+        <v>109050</v>
+      </c>
+      <c r="D50" s="15">
+        <v>300</v>
+      </c>
+      <c r="E50" s="15">
+        <v>700</v>
+      </c>
+      <c r="F50" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G50" s="15">
+        <f t="shared" si="2"/>
+        <v>2205000</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15">
+        <f t="shared" si="8"/>
+        <v>54525000</v>
+      </c>
+      <c r="J50" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K50" s="14">
+        <f t="shared" si="9"/>
+        <v>405.00000000000011</v>
+      </c>
+      <c r="L50" s="13">
+        <f t="shared" si="10"/>
+        <v>2205000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="15">
+        <v>90</v>
+      </c>
+      <c r="C51" s="15">
+        <f t="shared" si="6"/>
+        <v>113550</v>
+      </c>
+      <c r="D51" s="15">
+        <v>300</v>
+      </c>
+      <c r="E51" s="15">
+        <v>700</v>
+      </c>
+      <c r="F51" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G51" s="15">
+        <f t="shared" si="2"/>
+        <v>2250000</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15">
+        <f t="shared" si="8"/>
+        <v>56775000</v>
+      </c>
+      <c r="J51" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K51" s="14">
+        <f t="shared" si="9"/>
+        <v>414.00000000000011</v>
+      </c>
+      <c r="L51" s="13">
+        <f t="shared" si="10"/>
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="15">
+        <v>90</v>
+      </c>
+      <c r="C52" s="15">
+        <f t="shared" si="6"/>
+        <v>118140</v>
+      </c>
+      <c r="D52" s="15">
+        <v>300</v>
+      </c>
+      <c r="E52" s="15">
+        <v>700</v>
+      </c>
+      <c r="F52" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G52" s="15">
+        <f t="shared" si="2"/>
+        <v>2295000</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15">
+        <f t="shared" si="8"/>
+        <v>59070000</v>
+      </c>
+      <c r="J52" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K52" s="14">
+        <f t="shared" si="9"/>
+        <v>423.00000000000011</v>
+      </c>
+      <c r="L52" s="13">
+        <f t="shared" si="10"/>
+        <v>2295000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="15">
+        <v>90</v>
+      </c>
+      <c r="C53" s="15">
+        <f t="shared" si="6"/>
+        <v>122820</v>
+      </c>
+      <c r="D53" s="15">
+        <v>300</v>
+      </c>
+      <c r="E53" s="15">
+        <v>700</v>
+      </c>
+      <c r="F53" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G53" s="15">
+        <f t="shared" si="2"/>
+        <v>2340000</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15">
+        <f t="shared" si="8"/>
+        <v>61410000</v>
+      </c>
+      <c r="J53" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K53" s="14">
+        <f t="shared" si="9"/>
+        <v>432.00000000000011</v>
+      </c>
+      <c r="L53" s="13">
+        <f t="shared" si="10"/>
+        <v>2340000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="15">
+        <v>90</v>
+      </c>
+      <c r="C54" s="15">
+        <f t="shared" si="6"/>
+        <v>127590</v>
+      </c>
+      <c r="D54" s="15">
+        <v>300</v>
+      </c>
+      <c r="E54" s="15">
+        <v>700</v>
+      </c>
+      <c r="F54" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G54" s="15">
+        <f t="shared" si="2"/>
+        <v>2385000</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15">
+        <f t="shared" si="8"/>
+        <v>63795000</v>
+      </c>
+      <c r="J54" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K54" s="14">
+        <f t="shared" si="9"/>
+        <v>441.00000000000011</v>
+      </c>
+      <c r="L54" s="13">
+        <f t="shared" si="10"/>
+        <v>2385000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="15">
+        <v>90</v>
+      </c>
+      <c r="C55" s="15">
+        <f t="shared" si="6"/>
+        <v>132450</v>
+      </c>
+      <c r="D55" s="15">
+        <v>300</v>
+      </c>
+      <c r="E55" s="15">
+        <v>700</v>
+      </c>
+      <c r="F55" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G55" s="15">
+        <f t="shared" si="2"/>
+        <v>2430000</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15">
+        <f t="shared" si="8"/>
+        <v>66225000</v>
+      </c>
+      <c r="J55" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K55" s="14">
+        <f t="shared" si="9"/>
+        <v>450.00000000000011</v>
+      </c>
+      <c r="L55" s="13">
+        <f t="shared" si="10"/>
+        <v>2430000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="15">
+        <v>90</v>
+      </c>
+      <c r="C56" s="15">
+        <f t="shared" si="6"/>
+        <v>137400</v>
+      </c>
+      <c r="D56" s="15">
+        <v>300</v>
+      </c>
+      <c r="E56" s="15">
+        <v>700</v>
+      </c>
+      <c r="F56" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G56" s="15">
+        <f t="shared" si="2"/>
+        <v>2475000</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15">
+        <f t="shared" si="8"/>
+        <v>68700000</v>
+      </c>
+      <c r="J56" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K56" s="14">
+        <f t="shared" si="9"/>
+        <v>459.00000000000011</v>
+      </c>
+      <c r="L56" s="13">
+        <f t="shared" si="10"/>
+        <v>2475000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="15">
+        <v>90</v>
+      </c>
+      <c r="C57" s="15">
+        <f t="shared" si="6"/>
+        <v>142440</v>
+      </c>
+      <c r="D57" s="15">
+        <v>300</v>
+      </c>
+      <c r="E57" s="15">
+        <v>700</v>
+      </c>
+      <c r="F57" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G57" s="15">
+        <f t="shared" si="2"/>
+        <v>2520000</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15">
+        <f t="shared" si="8"/>
+        <v>71220000</v>
+      </c>
+      <c r="J57" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K57" s="14">
+        <f t="shared" si="9"/>
+        <v>468.00000000000011</v>
+      </c>
+      <c r="L57" s="13">
+        <f t="shared" si="10"/>
+        <v>2520000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="15">
+        <v>90</v>
+      </c>
+      <c r="C58" s="15">
+        <f t="shared" si="6"/>
+        <v>147570</v>
+      </c>
+      <c r="D58" s="15">
+        <v>300</v>
+      </c>
+      <c r="E58" s="15">
+        <v>700</v>
+      </c>
+      <c r="F58" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G58" s="15">
+        <f t="shared" si="2"/>
+        <v>2565000</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15">
+        <f t="shared" si="8"/>
+        <v>73785000</v>
+      </c>
+      <c r="J58" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K58" s="14">
+        <f t="shared" si="9"/>
+        <v>477.00000000000011</v>
+      </c>
+      <c r="L58" s="13">
+        <f t="shared" si="10"/>
+        <v>2565000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="15">
+        <v>90</v>
+      </c>
+      <c r="C59" s="15">
+        <f t="shared" si="6"/>
+        <v>152790</v>
+      </c>
+      <c r="D59" s="15">
+        <v>300</v>
+      </c>
+      <c r="E59" s="15">
+        <v>700</v>
+      </c>
+      <c r="F59" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G59" s="15">
+        <f t="shared" si="2"/>
+        <v>2610000</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15">
+        <f t="shared" si="8"/>
+        <v>76395000</v>
+      </c>
+      <c r="J59" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K59" s="14">
+        <f t="shared" si="9"/>
+        <v>486.00000000000011</v>
+      </c>
+      <c r="L59" s="13">
+        <f t="shared" si="10"/>
+        <v>2610000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="15">
+        <v>90</v>
+      </c>
+      <c r="C60" s="15">
+        <f t="shared" si="6"/>
+        <v>158100</v>
+      </c>
+      <c r="D60" s="15">
+        <v>300</v>
+      </c>
+      <c r="E60" s="15">
+        <v>700</v>
+      </c>
+      <c r="F60" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G60" s="15">
+        <f t="shared" si="2"/>
+        <v>2655000</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15">
+        <f t="shared" si="8"/>
+        <v>79050000</v>
+      </c>
+      <c r="J60" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K60" s="14">
+        <f t="shared" si="9"/>
+        <v>495.00000000000011</v>
+      </c>
+      <c r="L60" s="13">
+        <f t="shared" si="10"/>
+        <v>2655000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="15">
+        <v>90</v>
+      </c>
+      <c r="C61" s="15">
+        <f t="shared" si="6"/>
+        <v>163500</v>
+      </c>
+      <c r="D61" s="15">
+        <v>300</v>
+      </c>
+      <c r="E61" s="15">
+        <v>700</v>
+      </c>
+      <c r="F61" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G61" s="15">
+        <f t="shared" si="2"/>
+        <v>2700000</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15">
+        <f t="shared" si="8"/>
+        <v>81750000</v>
+      </c>
+      <c r="J61" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K61" s="14">
+        <f t="shared" si="9"/>
+        <v>504.00000000000011</v>
+      </c>
+      <c r="L61" s="13">
+        <f t="shared" si="10"/>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="15">
+        <v>90</v>
+      </c>
+      <c r="C62" s="15">
+        <f t="shared" si="6"/>
+        <v>168990</v>
+      </c>
+      <c r="D62" s="15">
+        <v>300</v>
+      </c>
+      <c r="E62" s="15">
+        <v>700</v>
+      </c>
+      <c r="F62" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G62" s="15">
+        <f t="shared" si="2"/>
+        <v>2745000</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15">
+        <f t="shared" si="8"/>
+        <v>84495000</v>
+      </c>
+      <c r="J62" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K62" s="14">
+        <f t="shared" si="9"/>
+        <v>513.00000000000011</v>
+      </c>
+      <c r="L62" s="13">
+        <f t="shared" si="10"/>
+        <v>2745000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="15">
+        <v>90</v>
+      </c>
+      <c r="C63" s="15">
+        <f t="shared" si="6"/>
+        <v>174570</v>
+      </c>
+      <c r="D63" s="15">
+        <v>300</v>
+      </c>
+      <c r="E63" s="15">
+        <v>700</v>
+      </c>
+      <c r="F63" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G63" s="15">
+        <f t="shared" si="2"/>
+        <v>2790000</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15">
+        <f t="shared" si="8"/>
+        <v>87285000</v>
+      </c>
+      <c r="J63" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K63" s="14">
+        <f t="shared" si="9"/>
+        <v>522.00000000000011</v>
+      </c>
+      <c r="L63" s="13">
+        <f t="shared" si="10"/>
+        <v>2790000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="15">
+        <v>90</v>
+      </c>
+      <c r="C64" s="15">
+        <f t="shared" si="6"/>
+        <v>180240</v>
+      </c>
+      <c r="D64" s="15">
+        <v>300</v>
+      </c>
+      <c r="E64" s="15">
+        <v>700</v>
+      </c>
+      <c r="F64" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G64" s="15">
+        <f t="shared" si="2"/>
+        <v>2835000</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15">
+        <f t="shared" si="8"/>
+        <v>90120000</v>
+      </c>
+      <c r="J64" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K64" s="14">
+        <f t="shared" si="9"/>
+        <v>531.00000000000011</v>
+      </c>
+      <c r="L64" s="13">
+        <f t="shared" si="10"/>
+        <v>2835000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="15">
+        <v>90</v>
+      </c>
+      <c r="C65" s="15">
+        <f t="shared" si="6"/>
+        <v>186000</v>
+      </c>
+      <c r="D65" s="15">
+        <v>300</v>
+      </c>
+      <c r="E65" s="15">
+        <v>700</v>
+      </c>
+      <c r="F65" s="15">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G65" s="15">
+        <f t="shared" si="2"/>
+        <v>2880000</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15">
+        <f t="shared" si="8"/>
+        <v>93000000</v>
+      </c>
+      <c r="J65" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K65" s="14">
+        <f t="shared" si="9"/>
+        <v>540.00000000000011</v>
+      </c>
+      <c r="L65" s="13">
+        <f t="shared" si="10"/>
+        <v>2880000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="15">
+        <v>90</v>
+      </c>
+      <c r="C66" s="15">
+        <f t="shared" si="6"/>
+        <v>191850</v>
+      </c>
+      <c r="D66" s="15">
+        <v>300</v>
+      </c>
+      <c r="E66" s="15">
+        <v>700</v>
+      </c>
+      <c r="F66" s="15">
+        <f t="shared" ref="F66:F129" si="12">AVERAGE(D66:E66)</f>
+        <v>500</v>
+      </c>
+      <c r="G66" s="15">
+        <f t="shared" ref="G66:G129" si="13">A66*B66*F66</f>
+        <v>2925000</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15">
+        <f t="shared" si="8"/>
+        <v>95925000</v>
+      </c>
+      <c r="J66" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K66" s="14">
+        <f t="shared" si="9"/>
+        <v>549.00000000000011</v>
+      </c>
+      <c r="L66" s="13">
+        <f t="shared" si="10"/>
+        <v>2925000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <f t="shared" ref="A67:A101" si="14">A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="15">
+        <v>90</v>
+      </c>
+      <c r="C67" s="15">
+        <f t="shared" ref="C67:C101" si="15">C66+(B67*A67)</f>
+        <v>197790</v>
+      </c>
+      <c r="D67" s="15">
+        <v>300</v>
+      </c>
+      <c r="E67" s="15">
+        <v>700</v>
+      </c>
+      <c r="F67" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G67" s="15">
+        <f t="shared" si="13"/>
+        <v>2970000</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15">
+        <f t="shared" ref="I67:I101" si="16">G67+I66</f>
+        <v>98895000</v>
+      </c>
+      <c r="J67" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K67" s="14">
+        <f t="shared" ref="K67:K101" si="17">J67+K66</f>
+        <v>558.00000000000011</v>
+      </c>
+      <c r="L67" s="13">
+        <f t="shared" si="10"/>
+        <v>2970000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <f t="shared" si="14"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="15">
+        <v>90</v>
+      </c>
+      <c r="C68" s="15">
+        <f t="shared" si="15"/>
+        <v>203820</v>
+      </c>
+      <c r="D68" s="15">
+        <v>300</v>
+      </c>
+      <c r="E68" s="15">
+        <v>700</v>
+      </c>
+      <c r="F68" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G68" s="15">
+        <f t="shared" si="13"/>
+        <v>3015000</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15">
+        <f t="shared" si="16"/>
+        <v>101910000</v>
+      </c>
+      <c r="J68" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K68" s="14">
+        <f t="shared" si="17"/>
+        <v>567.00000000000011</v>
+      </c>
+      <c r="L68" s="13">
+        <f t="shared" si="10"/>
+        <v>3015000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
+        <f t="shared" si="14"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="15">
+        <v>90</v>
+      </c>
+      <c r="C69" s="15">
+        <f t="shared" si="15"/>
+        <v>209940</v>
+      </c>
+      <c r="D69" s="15">
+        <v>300</v>
+      </c>
+      <c r="E69" s="15">
+        <v>700</v>
+      </c>
+      <c r="F69" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G69" s="15">
+        <f t="shared" si="13"/>
+        <v>3060000</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15">
+        <f t="shared" si="16"/>
+        <v>104970000</v>
+      </c>
+      <c r="J69" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K69" s="14">
+        <f t="shared" si="17"/>
+        <v>576.00000000000011</v>
+      </c>
+      <c r="L69" s="13">
+        <f t="shared" si="10"/>
+        <v>3060000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <f t="shared" si="14"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="15">
+        <v>90</v>
+      </c>
+      <c r="C70" s="15">
+        <f t="shared" si="15"/>
+        <v>216150</v>
+      </c>
+      <c r="D70" s="15">
+        <v>300</v>
+      </c>
+      <c r="E70" s="15">
+        <v>700</v>
+      </c>
+      <c r="F70" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G70" s="15">
+        <f t="shared" si="13"/>
+        <v>3105000</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15">
+        <f t="shared" si="16"/>
+        <v>108075000</v>
+      </c>
+      <c r="J70" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K70" s="14">
+        <f t="shared" si="17"/>
+        <v>585.00000000000011</v>
+      </c>
+      <c r="L70" s="13">
+        <f t="shared" si="10"/>
+        <v>3105000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="15">
+        <v>90</v>
+      </c>
+      <c r="C71" s="15">
+        <f t="shared" si="15"/>
+        <v>222450</v>
+      </c>
+      <c r="D71" s="15">
+        <v>300</v>
+      </c>
+      <c r="E71" s="15">
+        <v>700</v>
+      </c>
+      <c r="F71" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G71" s="15">
+        <f t="shared" si="13"/>
+        <v>3150000</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15">
+        <f t="shared" si="16"/>
+        <v>111225000</v>
+      </c>
+      <c r="J71" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K71" s="14">
+        <f t="shared" si="17"/>
+        <v>594.00000000000011</v>
+      </c>
+      <c r="L71" s="13">
+        <f t="shared" si="10"/>
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <f t="shared" si="14"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="15">
+        <v>90</v>
+      </c>
+      <c r="C72" s="15">
+        <f t="shared" si="15"/>
+        <v>228840</v>
+      </c>
+      <c r="D72" s="15">
+        <v>300</v>
+      </c>
+      <c r="E72" s="15">
+        <v>700</v>
+      </c>
+      <c r="F72" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G72" s="15">
+        <f t="shared" si="13"/>
+        <v>3195000</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15">
+        <f t="shared" si="16"/>
+        <v>114420000</v>
+      </c>
+      <c r="J72" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K72" s="14">
+        <f t="shared" si="17"/>
+        <v>603.00000000000011</v>
+      </c>
+      <c r="L72" s="13">
+        <f t="shared" si="10"/>
+        <v>3195000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <f t="shared" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="15">
+        <v>90</v>
+      </c>
+      <c r="C73" s="15">
+        <f t="shared" si="15"/>
+        <v>235320</v>
+      </c>
+      <c r="D73" s="15">
+        <v>300</v>
+      </c>
+      <c r="E73" s="15">
+        <v>700</v>
+      </c>
+      <c r="F73" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G73" s="15">
+        <f t="shared" si="13"/>
+        <v>3240000</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15">
+        <f t="shared" si="16"/>
+        <v>117660000</v>
+      </c>
+      <c r="J73" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K73" s="14">
+        <f t="shared" si="17"/>
+        <v>612.00000000000011</v>
+      </c>
+      <c r="L73" s="13">
+        <f t="shared" si="10"/>
+        <v>3240000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <f t="shared" si="14"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="15">
+        <v>90</v>
+      </c>
+      <c r="C74" s="15">
+        <f t="shared" si="15"/>
+        <v>241890</v>
+      </c>
+      <c r="D74" s="15">
+        <v>300</v>
+      </c>
+      <c r="E74" s="15">
+        <v>700</v>
+      </c>
+      <c r="F74" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G74" s="15">
+        <f t="shared" si="13"/>
+        <v>3285000</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15">
+        <f t="shared" si="16"/>
+        <v>120945000</v>
+      </c>
+      <c r="J74" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K74" s="14">
+        <f t="shared" si="17"/>
+        <v>621.00000000000011</v>
+      </c>
+      <c r="L74" s="13">
+        <f t="shared" si="10"/>
+        <v>3285000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <f t="shared" si="14"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="15">
+        <v>90</v>
+      </c>
+      <c r="C75" s="15">
+        <f t="shared" si="15"/>
+        <v>248550</v>
+      </c>
+      <c r="D75" s="15">
+        <v>300</v>
+      </c>
+      <c r="E75" s="15">
+        <v>700</v>
+      </c>
+      <c r="F75" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G75" s="15">
+        <f t="shared" si="13"/>
+        <v>3330000</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15">
+        <f t="shared" si="16"/>
+        <v>124275000</v>
+      </c>
+      <c r="J75" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K75" s="14">
+        <f t="shared" si="17"/>
+        <v>630.00000000000011</v>
+      </c>
+      <c r="L75" s="13">
+        <f t="shared" ref="L75:L138" si="18">IF(A75&lt;10,5000*POWER(A75,2),(45000*(A75-9))+405000)</f>
+        <v>3330000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="15">
+        <v>90</v>
+      </c>
+      <c r="C76" s="15">
+        <f t="shared" si="15"/>
+        <v>255300</v>
+      </c>
+      <c r="D76" s="15">
+        <v>300</v>
+      </c>
+      <c r="E76" s="15">
+        <v>700</v>
+      </c>
+      <c r="F76" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G76" s="15">
+        <f t="shared" si="13"/>
+        <v>3375000</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15">
+        <f t="shared" si="16"/>
+        <v>127650000</v>
+      </c>
+      <c r="J76" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K76" s="14">
+        <f t="shared" si="17"/>
+        <v>639.00000000000011</v>
+      </c>
+      <c r="L76" s="13">
+        <f t="shared" si="18"/>
+        <v>3375000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="15">
+        <v>90</v>
+      </c>
+      <c r="C77" s="15">
+        <f t="shared" si="15"/>
+        <v>262140</v>
+      </c>
+      <c r="D77" s="15">
+        <v>300</v>
+      </c>
+      <c r="E77" s="15">
+        <v>700</v>
+      </c>
+      <c r="F77" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G77" s="15">
+        <f t="shared" si="13"/>
+        <v>3420000</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15">
+        <f t="shared" si="16"/>
+        <v>131070000</v>
+      </c>
+      <c r="J77" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K77" s="14">
+        <f t="shared" si="17"/>
+        <v>648.00000000000011</v>
+      </c>
+      <c r="L77" s="13">
+        <f t="shared" si="18"/>
+        <v>3420000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
+        <f t="shared" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="15">
+        <v>90</v>
+      </c>
+      <c r="C78" s="15">
+        <f t="shared" si="15"/>
+        <v>269070</v>
+      </c>
+      <c r="D78" s="15">
+        <v>300</v>
+      </c>
+      <c r="E78" s="15">
+        <v>700</v>
+      </c>
+      <c r="F78" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G78" s="15">
+        <f t="shared" si="13"/>
+        <v>3465000</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15">
+        <f t="shared" si="16"/>
+        <v>134535000</v>
+      </c>
+      <c r="J78" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K78" s="14">
+        <f t="shared" si="17"/>
+        <v>657.00000000000011</v>
+      </c>
+      <c r="L78" s="13">
+        <f t="shared" si="18"/>
+        <v>3465000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="16">
+        <f t="shared" si="14"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="15">
+        <v>90</v>
+      </c>
+      <c r="C79" s="15">
+        <f t="shared" si="15"/>
+        <v>276090</v>
+      </c>
+      <c r="D79" s="15">
+        <v>300</v>
+      </c>
+      <c r="E79" s="15">
+        <v>700</v>
+      </c>
+      <c r="F79" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G79" s="15">
+        <f t="shared" si="13"/>
+        <v>3510000</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15">
+        <f t="shared" si="16"/>
+        <v>138045000</v>
+      </c>
+      <c r="J79" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K79" s="14">
+        <f t="shared" si="17"/>
+        <v>666.00000000000011</v>
+      </c>
+      <c r="L79" s="13">
+        <f t="shared" si="18"/>
+        <v>3510000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
+        <f t="shared" si="14"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="15">
+        <v>90</v>
+      </c>
+      <c r="C80" s="15">
+        <f t="shared" si="15"/>
+        <v>283200</v>
+      </c>
+      <c r="D80" s="15">
+        <v>300</v>
+      </c>
+      <c r="E80" s="15">
+        <v>700</v>
+      </c>
+      <c r="F80" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G80" s="15">
+        <f t="shared" si="13"/>
+        <v>3555000</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15">
+        <f t="shared" si="16"/>
+        <v>141600000</v>
+      </c>
+      <c r="J80" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K80" s="14">
+        <f t="shared" si="17"/>
+        <v>675.00000000000011</v>
+      </c>
+      <c r="L80" s="13">
+        <f t="shared" si="18"/>
+        <v>3555000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="16">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="15">
+        <v>90</v>
+      </c>
+      <c r="C81" s="15">
+        <f t="shared" si="15"/>
+        <v>290400</v>
+      </c>
+      <c r="D81" s="15">
+        <v>300</v>
+      </c>
+      <c r="E81" s="15">
+        <v>700</v>
+      </c>
+      <c r="F81" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G81" s="15">
+        <f t="shared" si="13"/>
+        <v>3600000</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15">
+        <f t="shared" si="16"/>
+        <v>145200000</v>
+      </c>
+      <c r="J81" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K81" s="14">
+        <f t="shared" si="17"/>
+        <v>684.00000000000011</v>
+      </c>
+      <c r="L81" s="13">
+        <f t="shared" si="18"/>
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
+        <f t="shared" si="14"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="15">
+        <v>90</v>
+      </c>
+      <c r="C82" s="15">
+        <f t="shared" si="15"/>
+        <v>297690</v>
+      </c>
+      <c r="D82" s="15">
+        <v>300</v>
+      </c>
+      <c r="E82" s="15">
+        <v>700</v>
+      </c>
+      <c r="F82" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G82" s="15">
+        <f t="shared" si="13"/>
+        <v>3645000</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15">
+        <f t="shared" si="16"/>
+        <v>148845000</v>
+      </c>
+      <c r="J82" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K82" s="14">
+        <f t="shared" si="17"/>
+        <v>693.00000000000011</v>
+      </c>
+      <c r="L82" s="13">
+        <f t="shared" si="18"/>
+        <v>3645000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="16">
+        <f t="shared" si="14"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="15">
+        <v>90</v>
+      </c>
+      <c r="C83" s="15">
+        <f t="shared" si="15"/>
+        <v>305070</v>
+      </c>
+      <c r="D83" s="15">
+        <v>300</v>
+      </c>
+      <c r="E83" s="15">
+        <v>700</v>
+      </c>
+      <c r="F83" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G83" s="15">
+        <f t="shared" si="13"/>
+        <v>3690000</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15">
+        <f t="shared" si="16"/>
+        <v>152535000</v>
+      </c>
+      <c r="J83" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K83" s="14">
+        <f t="shared" si="17"/>
+        <v>702.00000000000011</v>
+      </c>
+      <c r="L83" s="13">
+        <f t="shared" si="18"/>
+        <v>3690000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
+        <f t="shared" si="14"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="15">
+        <v>90</v>
+      </c>
+      <c r="C84" s="15">
+        <f t="shared" si="15"/>
+        <v>312540</v>
+      </c>
+      <c r="D84" s="15">
+        <v>300</v>
+      </c>
+      <c r="E84" s="15">
+        <v>700</v>
+      </c>
+      <c r="F84" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G84" s="15">
+        <f t="shared" si="13"/>
+        <v>3735000</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15">
+        <f t="shared" si="16"/>
+        <v>156270000</v>
+      </c>
+      <c r="J84" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K84" s="14">
+        <f t="shared" si="17"/>
+        <v>711.00000000000011</v>
+      </c>
+      <c r="L84" s="13">
+        <f t="shared" si="18"/>
+        <v>3735000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="16">
+        <f t="shared" si="14"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="15">
+        <v>90</v>
+      </c>
+      <c r="C85" s="15">
+        <f t="shared" si="15"/>
+        <v>320100</v>
+      </c>
+      <c r="D85" s="15">
+        <v>300</v>
+      </c>
+      <c r="E85" s="15">
+        <v>700</v>
+      </c>
+      <c r="F85" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G85" s="15">
+        <f t="shared" si="13"/>
+        <v>3780000</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15">
+        <f t="shared" si="16"/>
+        <v>160050000</v>
+      </c>
+      <c r="J85" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K85" s="14">
+        <f t="shared" si="17"/>
+        <v>720.00000000000011</v>
+      </c>
+      <c r="L85" s="13">
+        <f t="shared" si="18"/>
+        <v>3780000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="16">
+        <f t="shared" si="14"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="15">
+        <v>90</v>
+      </c>
+      <c r="C86" s="15">
+        <f t="shared" si="15"/>
+        <v>327750</v>
+      </c>
+      <c r="D86" s="15">
+        <v>300</v>
+      </c>
+      <c r="E86" s="15">
+        <v>700</v>
+      </c>
+      <c r="F86" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G86" s="15">
+        <f t="shared" si="13"/>
+        <v>3825000</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15">
+        <f t="shared" si="16"/>
+        <v>163875000</v>
+      </c>
+      <c r="J86" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K86" s="14">
+        <f t="shared" si="17"/>
+        <v>729.00000000000011</v>
+      </c>
+      <c r="L86" s="13">
+        <f t="shared" si="18"/>
+        <v>3825000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="16">
+        <f t="shared" si="14"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="15">
+        <v>90</v>
+      </c>
+      <c r="C87" s="15">
+        <f t="shared" si="15"/>
+        <v>335490</v>
+      </c>
+      <c r="D87" s="15">
+        <v>300</v>
+      </c>
+      <c r="E87" s="15">
+        <v>700</v>
+      </c>
+      <c r="F87" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G87" s="15">
+        <f t="shared" si="13"/>
+        <v>3870000</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15">
+        <f t="shared" si="16"/>
+        <v>167745000</v>
+      </c>
+      <c r="J87" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K87" s="14">
+        <f t="shared" si="17"/>
+        <v>738.00000000000011</v>
+      </c>
+      <c r="L87" s="13">
+        <f t="shared" si="18"/>
+        <v>3870000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="16">
+        <f t="shared" si="14"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="15">
+        <v>90</v>
+      </c>
+      <c r="C88" s="15">
+        <f t="shared" si="15"/>
+        <v>343320</v>
+      </c>
+      <c r="D88" s="15">
+        <v>300</v>
+      </c>
+      <c r="E88" s="15">
+        <v>700</v>
+      </c>
+      <c r="F88" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G88" s="15">
+        <f t="shared" si="13"/>
+        <v>3915000</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15">
+        <f t="shared" si="16"/>
+        <v>171660000</v>
+      </c>
+      <c r="J88" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K88" s="14">
+        <f t="shared" si="17"/>
+        <v>747.00000000000011</v>
+      </c>
+      <c r="L88" s="13">
+        <f t="shared" si="18"/>
+        <v>3915000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="16">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="15">
+        <v>90</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="15"/>
+        <v>351240</v>
+      </c>
+      <c r="D89" s="15">
+        <v>300</v>
+      </c>
+      <c r="E89" s="15">
+        <v>700</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="13"/>
+        <v>3960000</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15">
+        <f t="shared" si="16"/>
+        <v>175620000</v>
+      </c>
+      <c r="J89" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K89" s="14">
+        <f t="shared" si="17"/>
+        <v>756.00000000000011</v>
+      </c>
+      <c r="L89" s="13">
+        <f t="shared" si="18"/>
+        <v>3960000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="16">
+        <f t="shared" si="14"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="15">
+        <v>90</v>
+      </c>
+      <c r="C90" s="15">
+        <f t="shared" si="15"/>
+        <v>359250</v>
+      </c>
+      <c r="D90" s="15">
+        <v>300</v>
+      </c>
+      <c r="E90" s="15">
+        <v>700</v>
+      </c>
+      <c r="F90" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G90" s="15">
+        <f t="shared" si="13"/>
+        <v>4005000</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15">
+        <f t="shared" si="16"/>
+        <v>179625000</v>
+      </c>
+      <c r="J90" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K90" s="14">
+        <f t="shared" si="17"/>
+        <v>765.00000000000011</v>
+      </c>
+      <c r="L90" s="13">
+        <f t="shared" si="18"/>
+        <v>4005000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="16">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="15">
+        <v>90</v>
+      </c>
+      <c r="C91" s="15">
+        <f t="shared" si="15"/>
+        <v>367350</v>
+      </c>
+      <c r="D91" s="15">
+        <v>300</v>
+      </c>
+      <c r="E91" s="15">
+        <v>700</v>
+      </c>
+      <c r="F91" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G91" s="15">
+        <f t="shared" si="13"/>
+        <v>4050000</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15">
+        <f t="shared" si="16"/>
+        <v>183675000</v>
+      </c>
+      <c r="J91" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K91" s="14">
+        <f t="shared" si="17"/>
+        <v>774.00000000000011</v>
+      </c>
+      <c r="L91" s="13">
+        <f t="shared" si="18"/>
+        <v>4050000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="16">
+        <f t="shared" si="14"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="15">
+        <v>90</v>
+      </c>
+      <c r="C92" s="15">
+        <f t="shared" si="15"/>
+        <v>375540</v>
+      </c>
+      <c r="D92" s="15">
+        <v>300</v>
+      </c>
+      <c r="E92" s="15">
+        <v>700</v>
+      </c>
+      <c r="F92" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G92" s="15">
+        <f t="shared" si="13"/>
+        <v>4095000</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15">
+        <f t="shared" si="16"/>
+        <v>187770000</v>
+      </c>
+      <c r="J92" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K92" s="14">
+        <f t="shared" si="17"/>
+        <v>783.00000000000011</v>
+      </c>
+      <c r="L92" s="13">
+        <f t="shared" si="18"/>
+        <v>4095000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="16">
+        <f t="shared" si="14"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="15">
+        <v>90</v>
+      </c>
+      <c r="C93" s="15">
+        <f t="shared" si="15"/>
+        <v>383820</v>
+      </c>
+      <c r="D93" s="15">
+        <v>300</v>
+      </c>
+      <c r="E93" s="15">
+        <v>700</v>
+      </c>
+      <c r="F93" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G93" s="15">
+        <f t="shared" si="13"/>
+        <v>4140000</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15">
+        <f t="shared" si="16"/>
+        <v>191910000</v>
+      </c>
+      <c r="J93" s="14">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K93" s="14">
+        <f t="shared" si="17"/>
+        <v>792.00000000000011</v>
+      </c>
+      <c r="L93" s="13">
+        <f t="shared" si="18"/>
+        <v>4140000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="16">
+        <f t="shared" si="14"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="15">
+        <v>90</v>
+      </c>
+      <c r="C94" s="15">
+        <f t="shared" si="15"/>
+        <v>392190</v>
+      </c>
+      <c r="D94" s="15">
+        <v>300</v>
+      </c>
+      <c r="E94" s="15">
+        <v>700</v>
+      </c>
+      <c r="F94" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G94" s="15">
+        <f t="shared" si="13"/>
+        <v>4185000</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15">
+        <f t="shared" si="16"/>
+        <v>196095000</v>
+      </c>
+      <c r="J94" s="14">
+        <f t="shared" ref="J94:J101" si="19">B94/WATERS_PER_DAY</f>
+        <v>9</v>
+      </c>
+      <c r="K94" s="14">
+        <f t="shared" si="17"/>
+        <v>801.00000000000011</v>
+      </c>
+      <c r="L94" s="13">
+        <f t="shared" si="18"/>
+        <v>4185000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="16">
+        <f t="shared" si="14"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="15">
+        <v>90</v>
+      </c>
+      <c r="C95" s="15">
+        <f t="shared" si="15"/>
+        <v>400650</v>
+      </c>
+      <c r="D95" s="15">
+        <v>300</v>
+      </c>
+      <c r="E95" s="15">
+        <v>700</v>
+      </c>
+      <c r="F95" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G95" s="15">
+        <f t="shared" si="13"/>
+        <v>4230000</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15">
+        <f t="shared" si="16"/>
+        <v>200325000</v>
+      </c>
+      <c r="J95" s="14">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="K95" s="14">
+        <f t="shared" si="17"/>
+        <v>810.00000000000011</v>
+      </c>
+      <c r="L95" s="13">
+        <f t="shared" si="18"/>
+        <v>4230000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="16">
+        <f t="shared" si="14"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="15">
+        <v>90</v>
+      </c>
+      <c r="C96" s="15">
+        <f t="shared" si="15"/>
+        <v>409200</v>
+      </c>
+      <c r="D96" s="15">
+        <v>300</v>
+      </c>
+      <c r="E96" s="15">
+        <v>700</v>
+      </c>
+      <c r="F96" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G96" s="15">
+        <f t="shared" si="13"/>
+        <v>4275000</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15">
+        <f t="shared" si="16"/>
+        <v>204600000</v>
+      </c>
+      <c r="J96" s="14">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="K96" s="14">
+        <f t="shared" si="17"/>
+        <v>819.00000000000011</v>
+      </c>
+      <c r="L96" s="13">
+        <f t="shared" si="18"/>
+        <v>4275000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="16">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="15">
+        <v>90</v>
+      </c>
+      <c r="C97" s="15">
+        <f t="shared" si="15"/>
+        <v>417840</v>
+      </c>
+      <c r="D97" s="15">
+        <v>300</v>
+      </c>
+      <c r="E97" s="15">
+        <v>700</v>
+      </c>
+      <c r="F97" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G97" s="15">
+        <f t="shared" si="13"/>
+        <v>4320000</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15">
+        <f t="shared" si="16"/>
+        <v>208920000</v>
+      </c>
+      <c r="J97" s="14">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="K97" s="14">
+        <f t="shared" si="17"/>
+        <v>828.00000000000011</v>
+      </c>
+      <c r="L97" s="13">
+        <f t="shared" si="18"/>
+        <v>4320000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="16">
+        <f t="shared" si="14"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="15">
+        <v>90</v>
+      </c>
+      <c r="C98" s="15">
+        <f t="shared" si="15"/>
+        <v>426570</v>
+      </c>
+      <c r="D98" s="15">
+        <v>300</v>
+      </c>
+      <c r="E98" s="15">
+        <v>700</v>
+      </c>
+      <c r="F98" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G98" s="15">
+        <f t="shared" si="13"/>
+        <v>4365000</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15">
+        <f t="shared" si="16"/>
+        <v>213285000</v>
+      </c>
+      <c r="J98" s="14">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="K98" s="14">
+        <f t="shared" si="17"/>
+        <v>837.00000000000011</v>
+      </c>
+      <c r="L98" s="13">
+        <f t="shared" si="18"/>
+        <v>4365000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="16">
+        <f t="shared" si="14"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="15">
+        <v>90</v>
+      </c>
+      <c r="C99" s="15">
+        <f t="shared" si="15"/>
+        <v>435390</v>
+      </c>
+      <c r="D99" s="15">
+        <v>300</v>
+      </c>
+      <c r="E99" s="15">
+        <v>700</v>
+      </c>
+      <c r="F99" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G99" s="15">
+        <f t="shared" si="13"/>
+        <v>4410000</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15">
+        <f t="shared" si="16"/>
+        <v>217695000</v>
+      </c>
+      <c r="J99" s="14">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="K99" s="14">
+        <f t="shared" si="17"/>
+        <v>846.00000000000011</v>
+      </c>
+      <c r="L99" s="13">
+        <f t="shared" si="18"/>
+        <v>4410000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="16">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="15">
+        <v>90</v>
+      </c>
+      <c r="C100" s="15">
+        <f t="shared" si="15"/>
+        <v>444300</v>
+      </c>
+      <c r="D100" s="15">
+        <v>300</v>
+      </c>
+      <c r="E100" s="15">
+        <v>700</v>
+      </c>
+      <c r="F100" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G100" s="15">
+        <f t="shared" si="13"/>
+        <v>4455000</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15">
+        <f t="shared" si="16"/>
+        <v>222150000</v>
+      </c>
+      <c r="J100" s="14">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="K100" s="14">
+        <f t="shared" si="17"/>
+        <v>855.00000000000011</v>
+      </c>
+      <c r="L100" s="13">
+        <f t="shared" si="18"/>
+        <v>4455000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="16">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="15">
+        <v>90</v>
+      </c>
+      <c r="C101" s="15">
+        <f t="shared" si="15"/>
+        <v>453300</v>
+      </c>
+      <c r="D101" s="15">
+        <v>300</v>
+      </c>
+      <c r="E101" s="15">
+        <v>700</v>
+      </c>
+      <c r="F101" s="15">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="G101" s="15">
+        <f t="shared" si="13"/>
+        <v>4500000</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15">
+        <f t="shared" si="16"/>
+        <v>226650000</v>
+      </c>
+      <c r="J101" s="14">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="K101" s="14">
+        <f t="shared" si="17"/>
+        <v>864.00000000000011</v>
+      </c>
+      <c r="L101" s="13">
+        <f t="shared" si="18"/>
+        <v>4500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/images/balancing.xlsx
+++ b/images/balancing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\CodeMk2\Python\Discord\Flower\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33308F95-DDCA-411B-BB0D-C12934BF8FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D3CB69-339E-47C5-A0BF-ED5FA9A72C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B7F91F94-20BF-4783-89AC-9F579D343E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Plant Level Tracking" sheetId="1" r:id="rId1"/>
@@ -3522,7 +3522,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>AAAA!$B$1</c15:sqref>
@@ -3551,7 +3551,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>AAAA!$B$2:$B$10</c15:sqref>
@@ -3605,7 +3605,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>AAAA!$C$1</c15:sqref>
@@ -3634,7 +3634,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>AAAA!$C$2:$C$10</c15:sqref>
@@ -3688,7 +3688,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>AAAA!$D$1</c15:sqref>
@@ -3717,7 +3717,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>AAAA!$D$2:$D$10</c15:sqref>
@@ -3771,7 +3771,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>AAAA!$E$1</c15:sqref>
@@ -3800,7 +3800,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>AAAA!$E$2:$E$10</c15:sqref>
@@ -3854,7 +3854,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>AAAA!$F$1</c15:sqref>
@@ -3883,7 +3883,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>AAAA!$F$2:$F$10</c15:sqref>
@@ -5203,15 +5203,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>962024</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>1085849</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6792,7 +6792,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16004,11 +16004,11 @@
         <v>700</v>
       </c>
       <c r="F66" s="15">
-        <f t="shared" ref="F66:F129" si="12">AVERAGE(D66:E66)</f>
+        <f t="shared" ref="F66:F101" si="12">AVERAGE(D66:E66)</f>
         <v>500</v>
       </c>
       <c r="G66" s="15">
-        <f t="shared" ref="G66:G129" si="13">A66*B66*F66</f>
+        <f t="shared" ref="G66:G101" si="13">A66*B66*F66</f>
         <v>2925000</v>
       </c>
       <c r="H66" s="15"/>
@@ -16421,7 +16421,7 @@
         <v>630.00000000000011</v>
       </c>
       <c r="L75" s="13">
-        <f t="shared" ref="L75:L138" si="18">IF(A75&lt;10,5000*POWER(A75,2),(45000*(A75-9))+405000)</f>
+        <f t="shared" ref="L75:L101" si="18">IF(A75&lt;10,5000*POWER(A75,2),(45000*(A75-9))+405000)</f>
         <v>3330000</v>
       </c>
     </row>
